--- a/WBS_template.xlsx
+++ b/WBS_template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{39C51BA3-6ACC-4D46-9984-7737285C1B76}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="6375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$B$1:$NN$110</definedName>
-    <definedName name="休日">休日!$A$1:$A$32</definedName>
+    <definedName name="休日">休日!$A$1:$A$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -147,23 +146,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>建国記念日</t>
-    <rPh sb="0" eb="5">
-      <t>ケンコク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>振替休日</t>
-    <rPh sb="0" eb="4">
-      <t>フリカエ</t>
+    <t>建国記念の日</t>
+    <rPh sb="0" eb="6">
+      <t>ケンコクキネ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>春分の日</t>
     <rPh sb="0" eb="4">
-      <t>シュンブ</t>
+      <t>シュンブン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -178,16 +170,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>振替休日</t>
-    <rPh sb="0" eb="4">
-      <t>フリ</t>
+    <t>新天皇即位</t>
+    <rPh sb="0" eb="5">
+      <t>シンテンノウソクイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>憲法記念日</t>
     <rPh sb="0" eb="5">
-      <t>ケンポウキ</t>
+      <t>ケンポウキネ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -235,14 +227,7 @@
   <si>
     <t>秋分の日</t>
     <rPh sb="0" eb="4">
-      <t>シュウブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>振替休日</t>
-    <rPh sb="0" eb="4">
-      <t>フリカ</t>
+      <t>シュウブン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -254,6 +239,10 @@
     <rPh sb="3" eb="4">
       <t>ヒ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>即位礼正殿の儀</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -269,48 +258,38 @@
   <si>
     <t>勤労感謝の日</t>
     <rPh sb="0" eb="6">
-      <t>キンロウカン</t>
+      <t>キンロウカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>天皇誕生日</t>
-    <rPh sb="0" eb="5">
-      <t>テンノウタン</t>
+    <t>振替休日</t>
+    <rPh sb="0" eb="4">
+      <t>フリカエキュ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>年休</t>
-    <rPh sb="0" eb="2">
-      <t>ネンキュウ</t>
+    <t>振替休日</t>
+    <rPh sb="0" eb="4">
+      <t>フリ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>一斉年休</t>
-    <rPh sb="0" eb="2">
-      <t>イッセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>v1.3</t>
+    <t>v1.4</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd\(aaa\)"/>
-    <numFmt numFmtId="181" formatCode="mm/dd\(aaa\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\(aaa\)"/>
+    <numFmt numFmtId="179" formatCode="mm/dd\(aaa\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -649,30 +628,24 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -684,6 +657,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1096,32 +1075,32 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="3.1328125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" style="34" customWidth="1"/>
-    <col min="7" max="10" width="9.86328125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="8.59765625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="5.265625" style="35" customWidth="1"/>
-    <col min="14" max="378" width="2.46484375" style="5" customWidth="1"/>
-    <col min="379" max="16384" width="3.73046875" style="5"/>
+    <col min="2" max="5" width="3.125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="34" customWidth="1"/>
+    <col min="7" max="10" width="9.875" style="42" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="35" customWidth="1"/>
+    <col min="14" max="378" width="2.5" style="5" customWidth="1"/>
+    <col min="379" max="16384" width="3.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+        <v>31</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="1"/>
       <c r="L1" s="3"/>
       <c r="M1" s="11" t="s">
@@ -1129,7 +1108,7 @@
       </c>
       <c r="N1" s="15">
         <f>YEAR(N3)</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O1" s="15" t="str">
         <f>IF(YEAR(O3)=YEAR(N3),"",YEAR(O3))</f>
@@ -2588,13 +2567,13 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1"/>
       <c r="L2" s="3"/>
       <c r="M2" s="11" t="s">
@@ -4061,2623 +4040,2623 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="46" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="40" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="47" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="12">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="O3" s="12">
-        <v>43102</v>
+        <v>43467</v>
       </c>
       <c r="P3" s="12">
-        <v>43103</v>
+        <v>43468</v>
       </c>
       <c r="Q3" s="12">
-        <v>43104</v>
+        <v>43469</v>
       </c>
       <c r="R3" s="12">
-        <v>43105</v>
+        <v>43470</v>
       </c>
       <c r="S3" s="12">
-        <v>43106</v>
+        <v>43471</v>
       </c>
       <c r="T3" s="12">
-        <v>43107</v>
+        <v>43472</v>
       </c>
       <c r="U3" s="12">
-        <v>43108</v>
+        <v>43473</v>
       </c>
       <c r="V3" s="12">
-        <v>43109</v>
+        <v>43474</v>
       </c>
       <c r="W3" s="12">
-        <v>43110</v>
+        <v>43475</v>
       </c>
       <c r="X3" s="12">
-        <v>43111</v>
+        <v>43476</v>
       </c>
       <c r="Y3" s="12">
-        <v>43112</v>
+        <v>43477</v>
       </c>
       <c r="Z3" s="12">
-        <v>43113</v>
+        <v>43478</v>
       </c>
       <c r="AA3" s="12">
-        <v>43114</v>
+        <v>43479</v>
       </c>
       <c r="AB3" s="12">
-        <v>43115</v>
+        <v>43480</v>
       </c>
       <c r="AC3" s="12">
-        <v>43116</v>
+        <v>43481</v>
       </c>
       <c r="AD3" s="12">
-        <v>43117</v>
+        <v>43482</v>
       </c>
       <c r="AE3" s="12">
-        <v>43118</v>
+        <v>43483</v>
       </c>
       <c r="AF3" s="12">
-        <v>43119</v>
+        <v>43484</v>
       </c>
       <c r="AG3" s="12">
-        <v>43120</v>
+        <v>43485</v>
       </c>
       <c r="AH3" s="12">
-        <v>43121</v>
+        <v>43486</v>
       </c>
       <c r="AI3" s="12">
-        <v>43122</v>
+        <v>43487</v>
       </c>
       <c r="AJ3" s="12">
-        <v>43123</v>
+        <v>43488</v>
       </c>
       <c r="AK3" s="12">
-        <v>43124</v>
+        <v>43489</v>
       </c>
       <c r="AL3" s="12">
-        <v>43125</v>
+        <v>43490</v>
       </c>
       <c r="AM3" s="12">
-        <v>43126</v>
+        <v>43491</v>
       </c>
       <c r="AN3" s="12">
-        <v>43127</v>
+        <v>43492</v>
       </c>
       <c r="AO3" s="12">
-        <v>43128</v>
+        <v>43493</v>
       </c>
       <c r="AP3" s="12">
-        <v>43129</v>
+        <v>43494</v>
       </c>
       <c r="AQ3" s="12">
-        <v>43130</v>
+        <v>43495</v>
       </c>
       <c r="AR3" s="12">
-        <v>43131</v>
+        <v>43496</v>
       </c>
       <c r="AS3" s="12">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="AT3" s="12">
-        <v>43133</v>
+        <v>43498</v>
       </c>
       <c r="AU3" s="12">
-        <v>43134</v>
+        <v>43499</v>
       </c>
       <c r="AV3" s="12">
-        <v>43135</v>
+        <v>43500</v>
       </c>
       <c r="AW3" s="12">
-        <v>43136</v>
+        <v>43501</v>
       </c>
       <c r="AX3" s="12">
-        <v>43137</v>
+        <v>43502</v>
       </c>
       <c r="AY3" s="12">
-        <v>43138</v>
+        <v>43503</v>
       </c>
       <c r="AZ3" s="12">
-        <v>43139</v>
+        <v>43504</v>
       </c>
       <c r="BA3" s="12">
-        <v>43140</v>
+        <v>43505</v>
       </c>
       <c r="BB3" s="12">
-        <v>43141</v>
+        <v>43506</v>
       </c>
       <c r="BC3" s="12">
-        <v>43142</v>
+        <v>43507</v>
       </c>
       <c r="BD3" s="12">
-        <v>43143</v>
+        <v>43508</v>
       </c>
       <c r="BE3" s="12">
-        <v>43144</v>
+        <v>43509</v>
       </c>
       <c r="BF3" s="12">
-        <v>43145</v>
+        <v>43510</v>
       </c>
       <c r="BG3" s="12">
-        <v>43146</v>
+        <v>43511</v>
       </c>
       <c r="BH3" s="12">
-        <v>43147</v>
+        <v>43512</v>
       </c>
       <c r="BI3" s="12">
-        <v>43148</v>
+        <v>43513</v>
       </c>
       <c r="BJ3" s="12">
-        <v>43149</v>
+        <v>43514</v>
       </c>
       <c r="BK3" s="12">
-        <v>43150</v>
+        <v>43515</v>
       </c>
       <c r="BL3" s="12">
-        <v>43151</v>
+        <v>43516</v>
       </c>
       <c r="BM3" s="12">
-        <v>43152</v>
+        <v>43517</v>
       </c>
       <c r="BN3" s="12">
-        <v>43153</v>
+        <v>43518</v>
       </c>
       <c r="BO3" s="12">
-        <v>43154</v>
+        <v>43519</v>
       </c>
       <c r="BP3" s="12">
-        <v>43155</v>
+        <v>43520</v>
       </c>
       <c r="BQ3" s="12">
-        <v>43156</v>
+        <v>43521</v>
       </c>
       <c r="BR3" s="12">
-        <v>43157</v>
+        <v>43522</v>
       </c>
       <c r="BS3" s="12">
-        <v>43158</v>
+        <v>43523</v>
       </c>
       <c r="BT3" s="12">
-        <v>43159</v>
+        <v>43524</v>
       </c>
       <c r="BU3" s="12">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="BV3" s="12">
-        <v>43161</v>
+        <v>43526</v>
       </c>
       <c r="BW3" s="12">
-        <v>43162</v>
+        <v>43527</v>
       </c>
       <c r="BX3" s="12">
-        <v>43163</v>
+        <v>43528</v>
       </c>
       <c r="BY3" s="12">
-        <v>43164</v>
+        <v>43529</v>
       </c>
       <c r="BZ3" s="12">
-        <v>43165</v>
+        <v>43530</v>
       </c>
       <c r="CA3" s="12">
-        <v>43166</v>
+        <v>43531</v>
       </c>
       <c r="CB3" s="12">
-        <v>43167</v>
+        <v>43532</v>
       </c>
       <c r="CC3" s="12">
-        <v>43168</v>
+        <v>43533</v>
       </c>
       <c r="CD3" s="12">
-        <v>43169</v>
+        <v>43534</v>
       </c>
       <c r="CE3" s="12">
-        <v>43170</v>
+        <v>43535</v>
       </c>
       <c r="CF3" s="12">
-        <v>43171</v>
+        <v>43536</v>
       </c>
       <c r="CG3" s="12">
-        <v>43172</v>
+        <v>43537</v>
       </c>
       <c r="CH3" s="12">
-        <v>43173</v>
+        <v>43538</v>
       </c>
       <c r="CI3" s="12">
-        <v>43174</v>
+        <v>43539</v>
       </c>
       <c r="CJ3" s="12">
-        <v>43175</v>
+        <v>43540</v>
       </c>
       <c r="CK3" s="12">
-        <v>43176</v>
+        <v>43541</v>
       </c>
       <c r="CL3" s="12">
-        <v>43177</v>
+        <v>43542</v>
       </c>
       <c r="CM3" s="12">
-        <v>43178</v>
+        <v>43543</v>
       </c>
       <c r="CN3" s="12">
-        <v>43179</v>
+        <v>43544</v>
       </c>
       <c r="CO3" s="12">
-        <v>43180</v>
+        <v>43545</v>
       </c>
       <c r="CP3" s="12">
-        <v>43181</v>
+        <v>43546</v>
       </c>
       <c r="CQ3" s="12">
-        <v>43182</v>
+        <v>43547</v>
       </c>
       <c r="CR3" s="12">
-        <v>43183</v>
+        <v>43548</v>
       </c>
       <c r="CS3" s="12">
-        <v>43184</v>
+        <v>43549</v>
       </c>
       <c r="CT3" s="12">
-        <v>43185</v>
+        <v>43550</v>
       </c>
       <c r="CU3" s="12">
-        <v>43186</v>
+        <v>43551</v>
       </c>
       <c r="CV3" s="12">
-        <v>43187</v>
+        <v>43552</v>
       </c>
       <c r="CW3" s="12">
-        <v>43188</v>
+        <v>43553</v>
       </c>
       <c r="CX3" s="12">
-        <v>43189</v>
+        <v>43554</v>
       </c>
       <c r="CY3" s="12">
-        <v>43190</v>
+        <v>43555</v>
       </c>
       <c r="CZ3" s="12">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="DA3" s="12">
-        <v>43192</v>
+        <v>43557</v>
       </c>
       <c r="DB3" s="12">
-        <v>43193</v>
+        <v>43558</v>
       </c>
       <c r="DC3" s="12">
-        <v>43194</v>
+        <v>43559</v>
       </c>
       <c r="DD3" s="12">
-        <v>43195</v>
+        <v>43560</v>
       </c>
       <c r="DE3" s="12">
-        <v>43196</v>
+        <v>43561</v>
       </c>
       <c r="DF3" s="12">
-        <v>43197</v>
+        <v>43562</v>
       </c>
       <c r="DG3" s="12">
-        <v>43198</v>
+        <v>43563</v>
       </c>
       <c r="DH3" s="12">
-        <v>43199</v>
+        <v>43564</v>
       </c>
       <c r="DI3" s="12">
-        <v>43200</v>
+        <v>43565</v>
       </c>
       <c r="DJ3" s="12">
-        <v>43201</v>
+        <v>43566</v>
       </c>
       <c r="DK3" s="12">
-        <v>43202</v>
+        <v>43567</v>
       </c>
       <c r="DL3" s="12">
-        <v>43203</v>
+        <v>43568</v>
       </c>
       <c r="DM3" s="12">
-        <v>43204</v>
+        <v>43569</v>
       </c>
       <c r="DN3" s="12">
-        <v>43205</v>
+        <v>43570</v>
       </c>
       <c r="DO3" s="12">
-        <v>43206</v>
+        <v>43571</v>
       </c>
       <c r="DP3" s="12">
-        <v>43207</v>
+        <v>43572</v>
       </c>
       <c r="DQ3" s="12">
-        <v>43208</v>
+        <v>43573</v>
       </c>
       <c r="DR3" s="12">
-        <v>43209</v>
+        <v>43574</v>
       </c>
       <c r="DS3" s="12">
-        <v>43210</v>
+        <v>43575</v>
       </c>
       <c r="DT3" s="12">
-        <v>43211</v>
+        <v>43576</v>
       </c>
       <c r="DU3" s="12">
-        <v>43212</v>
+        <v>43577</v>
       </c>
       <c r="DV3" s="12">
-        <v>43213</v>
+        <v>43578</v>
       </c>
       <c r="DW3" s="12">
-        <v>43214</v>
+        <v>43579</v>
       </c>
       <c r="DX3" s="12">
-        <v>43215</v>
+        <v>43580</v>
       </c>
       <c r="DY3" s="12">
-        <v>43216</v>
+        <v>43581</v>
       </c>
       <c r="DZ3" s="12">
-        <v>43217</v>
+        <v>43582</v>
       </c>
       <c r="EA3" s="12">
-        <v>43218</v>
+        <v>43583</v>
       </c>
       <c r="EB3" s="12">
-        <v>43219</v>
+        <v>43584</v>
       </c>
       <c r="EC3" s="12">
-        <v>43220</v>
+        <v>43585</v>
       </c>
       <c r="ED3" s="12">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="EE3" s="12">
-        <v>43222</v>
+        <v>43587</v>
       </c>
       <c r="EF3" s="12">
-        <v>43223</v>
+        <v>43588</v>
       </c>
       <c r="EG3" s="12">
-        <v>43224</v>
+        <v>43589</v>
       </c>
       <c r="EH3" s="12">
-        <v>43225</v>
+        <v>43590</v>
       </c>
       <c r="EI3" s="12">
-        <v>43226</v>
+        <v>43591</v>
       </c>
       <c r="EJ3" s="12">
-        <v>43227</v>
+        <v>43592</v>
       </c>
       <c r="EK3" s="12">
-        <v>43228</v>
+        <v>43593</v>
       </c>
       <c r="EL3" s="12">
-        <v>43229</v>
+        <v>43594</v>
       </c>
       <c r="EM3" s="12">
-        <v>43230</v>
+        <v>43595</v>
       </c>
       <c r="EN3" s="12">
-        <v>43231</v>
+        <v>43596</v>
       </c>
       <c r="EO3" s="12">
-        <v>43232</v>
+        <v>43597</v>
       </c>
       <c r="EP3" s="12">
-        <v>43233</v>
+        <v>43598</v>
       </c>
       <c r="EQ3" s="12">
-        <v>43234</v>
+        <v>43599</v>
       </c>
       <c r="ER3" s="12">
-        <v>43235</v>
+        <v>43600</v>
       </c>
       <c r="ES3" s="12">
-        <v>43236</v>
+        <v>43601</v>
       </c>
       <c r="ET3" s="12">
-        <v>43237</v>
+        <v>43602</v>
       </c>
       <c r="EU3" s="12">
-        <v>43238</v>
+        <v>43603</v>
       </c>
       <c r="EV3" s="12">
-        <v>43239</v>
+        <v>43604</v>
       </c>
       <c r="EW3" s="12">
-        <v>43240</v>
+        <v>43605</v>
       </c>
       <c r="EX3" s="12">
-        <v>43241</v>
+        <v>43606</v>
       </c>
       <c r="EY3" s="12">
-        <v>43242</v>
+        <v>43607</v>
       </c>
       <c r="EZ3" s="12">
-        <v>43243</v>
+        <v>43608</v>
       </c>
       <c r="FA3" s="12">
-        <v>43244</v>
+        <v>43609</v>
       </c>
       <c r="FB3" s="12">
-        <v>43245</v>
+        <v>43610</v>
       </c>
       <c r="FC3" s="12">
-        <v>43246</v>
+        <v>43611</v>
       </c>
       <c r="FD3" s="12">
-        <v>43247</v>
+        <v>43612</v>
       </c>
       <c r="FE3" s="12">
-        <v>43248</v>
+        <v>43613</v>
       </c>
       <c r="FF3" s="12">
-        <v>43249</v>
+        <v>43614</v>
       </c>
       <c r="FG3" s="12">
-        <v>43250</v>
+        <v>43615</v>
       </c>
       <c r="FH3" s="12">
-        <v>43251</v>
+        <v>43616</v>
       </c>
       <c r="FI3" s="12">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="FJ3" s="12">
-        <v>43253</v>
+        <v>43618</v>
       </c>
       <c r="FK3" s="12">
-        <v>43254</v>
+        <v>43619</v>
       </c>
       <c r="FL3" s="12">
-        <v>43255</v>
+        <v>43620</v>
       </c>
       <c r="FM3" s="12">
-        <v>43256</v>
+        <v>43621</v>
       </c>
       <c r="FN3" s="12">
-        <v>43257</v>
+        <v>43622</v>
       </c>
       <c r="FO3" s="12">
-        <v>43258</v>
+        <v>43623</v>
       </c>
       <c r="FP3" s="12">
-        <v>43259</v>
+        <v>43624</v>
       </c>
       <c r="FQ3" s="12">
-        <v>43260</v>
+        <v>43625</v>
       </c>
       <c r="FR3" s="12">
-        <v>43261</v>
+        <v>43626</v>
       </c>
       <c r="FS3" s="12">
-        <v>43262</v>
+        <v>43627</v>
       </c>
       <c r="FT3" s="12">
-        <v>43263</v>
+        <v>43628</v>
       </c>
       <c r="FU3" s="12">
-        <v>43264</v>
+        <v>43629</v>
       </c>
       <c r="FV3" s="12">
-        <v>43265</v>
+        <v>43630</v>
       </c>
       <c r="FW3" s="12">
-        <v>43266</v>
+        <v>43631</v>
       </c>
       <c r="FX3" s="12">
-        <v>43267</v>
+        <v>43632</v>
       </c>
       <c r="FY3" s="12">
-        <v>43268</v>
+        <v>43633</v>
       </c>
       <c r="FZ3" s="12">
-        <v>43269</v>
+        <v>43634</v>
       </c>
       <c r="GA3" s="12">
-        <v>43270</v>
+        <v>43635</v>
       </c>
       <c r="GB3" s="12">
-        <v>43271</v>
+        <v>43636</v>
       </c>
       <c r="GC3" s="12">
-        <v>43272</v>
+        <v>43637</v>
       </c>
       <c r="GD3" s="12">
-        <v>43273</v>
+        <v>43638</v>
       </c>
       <c r="GE3" s="12">
-        <v>43274</v>
+        <v>43639</v>
       </c>
       <c r="GF3" s="12">
-        <v>43275</v>
+        <v>43640</v>
       </c>
       <c r="GG3" s="12">
-        <v>43276</v>
+        <v>43641</v>
       </c>
       <c r="GH3" s="12">
-        <v>43277</v>
+        <v>43642</v>
       </c>
       <c r="GI3" s="12">
-        <v>43278</v>
+        <v>43643</v>
       </c>
       <c r="GJ3" s="12">
-        <v>43279</v>
+        <v>43644</v>
       </c>
       <c r="GK3" s="12">
-        <v>43280</v>
+        <v>43645</v>
       </c>
       <c r="GL3" s="12">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="GM3" s="12">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="GN3" s="12">
-        <v>43283</v>
+        <v>43648</v>
       </c>
       <c r="GO3" s="12">
-        <v>43284</v>
+        <v>43649</v>
       </c>
       <c r="GP3" s="12">
-        <v>43285</v>
+        <v>43650</v>
       </c>
       <c r="GQ3" s="12">
-        <v>43286</v>
+        <v>43651</v>
       </c>
       <c r="GR3" s="12">
-        <v>43287</v>
+        <v>43652</v>
       </c>
       <c r="GS3" s="12">
-        <v>43288</v>
+        <v>43653</v>
       </c>
       <c r="GT3" s="12">
-        <v>43289</v>
+        <v>43654</v>
       </c>
       <c r="GU3" s="12">
-        <v>43290</v>
+        <v>43655</v>
       </c>
       <c r="GV3" s="12">
-        <v>43291</v>
+        <v>43656</v>
       </c>
       <c r="GW3" s="12">
-        <v>43292</v>
+        <v>43657</v>
       </c>
       <c r="GX3" s="12">
-        <v>43293</v>
+        <v>43658</v>
       </c>
       <c r="GY3" s="12">
-        <v>43294</v>
+        <v>43659</v>
       </c>
       <c r="GZ3" s="12">
-        <v>43295</v>
+        <v>43660</v>
       </c>
       <c r="HA3" s="12">
-        <v>43296</v>
+        <v>43661</v>
       </c>
       <c r="HB3" s="12">
-        <v>43297</v>
+        <v>43662</v>
       </c>
       <c r="HC3" s="12">
-        <v>43298</v>
+        <v>43663</v>
       </c>
       <c r="HD3" s="12">
-        <v>43299</v>
+        <v>43664</v>
       </c>
       <c r="HE3" s="12">
-        <v>43300</v>
+        <v>43665</v>
       </c>
       <c r="HF3" s="12">
-        <v>43301</v>
+        <v>43666</v>
       </c>
       <c r="HG3" s="12">
-        <v>43302</v>
+        <v>43667</v>
       </c>
       <c r="HH3" s="12">
-        <v>43303</v>
+        <v>43668</v>
       </c>
       <c r="HI3" s="12">
-        <v>43304</v>
+        <v>43669</v>
       </c>
       <c r="HJ3" s="12">
-        <v>43305</v>
+        <v>43670</v>
       </c>
       <c r="HK3" s="12">
-        <v>43306</v>
+        <v>43671</v>
       </c>
       <c r="HL3" s="12">
-        <v>43307</v>
+        <v>43672</v>
       </c>
       <c r="HM3" s="12">
-        <v>43308</v>
+        <v>43673</v>
       </c>
       <c r="HN3" s="12">
-        <v>43309</v>
+        <v>43674</v>
       </c>
       <c r="HO3" s="12">
-        <v>43310</v>
+        <v>43675</v>
       </c>
       <c r="HP3" s="12">
-        <v>43311</v>
+        <v>43676</v>
       </c>
       <c r="HQ3" s="12">
-        <v>43312</v>
+        <v>43677</v>
       </c>
       <c r="HR3" s="12">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="HS3" s="12">
-        <v>43314</v>
+        <v>43679</v>
       </c>
       <c r="HT3" s="12">
-        <v>43315</v>
+        <v>43680</v>
       </c>
       <c r="HU3" s="12">
-        <v>43316</v>
+        <v>43681</v>
       </c>
       <c r="HV3" s="12">
-        <v>43317</v>
+        <v>43682</v>
       </c>
       <c r="HW3" s="12">
-        <v>43318</v>
+        <v>43683</v>
       </c>
       <c r="HX3" s="12">
-        <v>43319</v>
+        <v>43684</v>
       </c>
       <c r="HY3" s="12">
-        <v>43320</v>
+        <v>43685</v>
       </c>
       <c r="HZ3" s="12">
-        <v>43321</v>
+        <v>43686</v>
       </c>
       <c r="IA3" s="12">
-        <v>43322</v>
+        <v>43687</v>
       </c>
       <c r="IB3" s="12">
-        <v>43323</v>
+        <v>43688</v>
       </c>
       <c r="IC3" s="12">
-        <v>43324</v>
+        <v>43689</v>
       </c>
       <c r="ID3" s="12">
-        <v>43325</v>
+        <v>43690</v>
       </c>
       <c r="IE3" s="12">
-        <v>43326</v>
+        <v>43691</v>
       </c>
       <c r="IF3" s="12">
-        <v>43327</v>
+        <v>43692</v>
       </c>
       <c r="IG3" s="12">
-        <v>43328</v>
+        <v>43693</v>
       </c>
       <c r="IH3" s="12">
-        <v>43329</v>
+        <v>43694</v>
       </c>
       <c r="II3" s="12">
-        <v>43330</v>
+        <v>43695</v>
       </c>
       <c r="IJ3" s="12">
-        <v>43331</v>
+        <v>43696</v>
       </c>
       <c r="IK3" s="12">
-        <v>43332</v>
+        <v>43697</v>
       </c>
       <c r="IL3" s="12">
-        <v>43333</v>
+        <v>43698</v>
       </c>
       <c r="IM3" s="12">
-        <v>43334</v>
+        <v>43699</v>
       </c>
       <c r="IN3" s="12">
-        <v>43335</v>
+        <v>43700</v>
       </c>
       <c r="IO3" s="12">
-        <v>43336</v>
+        <v>43701</v>
       </c>
       <c r="IP3" s="12">
-        <v>43337</v>
+        <v>43702</v>
       </c>
       <c r="IQ3" s="12">
-        <v>43338</v>
+        <v>43703</v>
       </c>
       <c r="IR3" s="12">
-        <v>43339</v>
+        <v>43704</v>
       </c>
       <c r="IS3" s="12">
-        <v>43340</v>
+        <v>43705</v>
       </c>
       <c r="IT3" s="12">
-        <v>43341</v>
+        <v>43706</v>
       </c>
       <c r="IU3" s="12">
-        <v>43342</v>
+        <v>43707</v>
       </c>
       <c r="IV3" s="12">
-        <v>43343</v>
+        <v>43708</v>
       </c>
       <c r="IW3" s="12">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="IX3" s="12">
-        <v>43345</v>
+        <v>43710</v>
       </c>
       <c r="IY3" s="12">
-        <v>43346</v>
+        <v>43711</v>
       </c>
       <c r="IZ3" s="12">
-        <v>43347</v>
+        <v>43712</v>
       </c>
       <c r="JA3" s="12">
-        <v>43348</v>
+        <v>43713</v>
       </c>
       <c r="JB3" s="12">
-        <v>43349</v>
+        <v>43714</v>
       </c>
       <c r="JC3" s="12">
-        <v>43350</v>
+        <v>43715</v>
       </c>
       <c r="JD3" s="12">
-        <v>43351</v>
+        <v>43716</v>
       </c>
       <c r="JE3" s="12">
-        <v>43352</v>
+        <v>43717</v>
       </c>
       <c r="JF3" s="12">
-        <v>43353</v>
+        <v>43718</v>
       </c>
       <c r="JG3" s="12">
-        <v>43354</v>
+        <v>43719</v>
       </c>
       <c r="JH3" s="12">
-        <v>43355</v>
+        <v>43720</v>
       </c>
       <c r="JI3" s="12">
-        <v>43356</v>
+        <v>43721</v>
       </c>
       <c r="JJ3" s="12">
-        <v>43357</v>
+        <v>43722</v>
       </c>
       <c r="JK3" s="12">
-        <v>43358</v>
+        <v>43723</v>
       </c>
       <c r="JL3" s="12">
-        <v>43359</v>
+        <v>43724</v>
       </c>
       <c r="JM3" s="12">
-        <v>43360</v>
+        <v>43725</v>
       </c>
       <c r="JN3" s="12">
-        <v>43361</v>
+        <v>43726</v>
       </c>
       <c r="JO3" s="12">
-        <v>43362</v>
+        <v>43727</v>
       </c>
       <c r="JP3" s="12">
-        <v>43363</v>
+        <v>43728</v>
       </c>
       <c r="JQ3" s="12">
-        <v>43364</v>
+        <v>43729</v>
       </c>
       <c r="JR3" s="12">
-        <v>43365</v>
+        <v>43730</v>
       </c>
       <c r="JS3" s="12">
-        <v>43366</v>
+        <v>43731</v>
       </c>
       <c r="JT3" s="12">
-        <v>43367</v>
+        <v>43732</v>
       </c>
       <c r="JU3" s="12">
-        <v>43368</v>
+        <v>43733</v>
       </c>
       <c r="JV3" s="12">
-        <v>43369</v>
+        <v>43734</v>
       </c>
       <c r="JW3" s="12">
-        <v>43370</v>
+        <v>43735</v>
       </c>
       <c r="JX3" s="12">
-        <v>43371</v>
+        <v>43736</v>
       </c>
       <c r="JY3" s="12">
-        <v>43372</v>
+        <v>43737</v>
       </c>
       <c r="JZ3" s="12">
-        <v>43373</v>
+        <v>43738</v>
       </c>
       <c r="KA3" s="12">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="KB3" s="12">
-        <v>43375</v>
+        <v>43740</v>
       </c>
       <c r="KC3" s="12">
-        <v>43376</v>
+        <v>43741</v>
       </c>
       <c r="KD3" s="12">
-        <v>43377</v>
+        <v>43742</v>
       </c>
       <c r="KE3" s="12">
-        <v>43378</v>
+        <v>43743</v>
       </c>
       <c r="KF3" s="12">
-        <v>43379</v>
+        <v>43744</v>
       </c>
       <c r="KG3" s="12">
-        <v>43380</v>
+        <v>43745</v>
       </c>
       <c r="KH3" s="12">
-        <v>43381</v>
+        <v>43746</v>
       </c>
       <c r="KI3" s="12">
-        <v>43382</v>
+        <v>43747</v>
       </c>
       <c r="KJ3" s="12">
-        <v>43383</v>
+        <v>43748</v>
       </c>
       <c r="KK3" s="12">
-        <v>43384</v>
+        <v>43749</v>
       </c>
       <c r="KL3" s="12">
-        <v>43385</v>
+        <v>43750</v>
       </c>
       <c r="KM3" s="12">
-        <v>43386</v>
+        <v>43751</v>
       </c>
       <c r="KN3" s="12">
-        <v>43387</v>
+        <v>43752</v>
       </c>
       <c r="KO3" s="12">
-        <v>43388</v>
+        <v>43753</v>
       </c>
       <c r="KP3" s="12">
-        <v>43389</v>
+        <v>43754</v>
       </c>
       <c r="KQ3" s="12">
-        <v>43390</v>
+        <v>43755</v>
       </c>
       <c r="KR3" s="12">
-        <v>43391</v>
+        <v>43756</v>
       </c>
       <c r="KS3" s="12">
-        <v>43392</v>
+        <v>43757</v>
       </c>
       <c r="KT3" s="12">
-        <v>43393</v>
+        <v>43758</v>
       </c>
       <c r="KU3" s="12">
-        <v>43394</v>
+        <v>43759</v>
       </c>
       <c r="KV3" s="12">
-        <v>43395</v>
+        <v>43760</v>
       </c>
       <c r="KW3" s="12">
-        <v>43396</v>
+        <v>43761</v>
       </c>
       <c r="KX3" s="12">
-        <v>43397</v>
+        <v>43762</v>
       </c>
       <c r="KY3" s="12">
-        <v>43398</v>
+        <v>43763</v>
       </c>
       <c r="KZ3" s="12">
-        <v>43399</v>
+        <v>43764</v>
       </c>
       <c r="LA3" s="12">
-        <v>43400</v>
+        <v>43765</v>
       </c>
       <c r="LB3" s="12">
-        <v>43401</v>
+        <v>43766</v>
       </c>
       <c r="LC3" s="12">
-        <v>43402</v>
+        <v>43767</v>
       </c>
       <c r="LD3" s="12">
-        <v>43403</v>
+        <v>43768</v>
       </c>
       <c r="LE3" s="12">
-        <v>43404</v>
+        <v>43769</v>
       </c>
       <c r="LF3" s="12">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="LG3" s="12">
-        <v>43406</v>
+        <v>43771</v>
       </c>
       <c r="LH3" s="12">
-        <v>43407</v>
+        <v>43772</v>
       </c>
       <c r="LI3" s="12">
-        <v>43408</v>
+        <v>43773</v>
       </c>
       <c r="LJ3" s="12">
-        <v>43409</v>
+        <v>43774</v>
       </c>
       <c r="LK3" s="12">
-        <v>43410</v>
+        <v>43775</v>
       </c>
       <c r="LL3" s="12">
-        <v>43411</v>
+        <v>43776</v>
       </c>
       <c r="LM3" s="12">
-        <v>43412</v>
+        <v>43777</v>
       </c>
       <c r="LN3" s="12">
-        <v>43413</v>
+        <v>43778</v>
       </c>
       <c r="LO3" s="12">
-        <v>43414</v>
+        <v>43779</v>
       </c>
       <c r="LP3" s="12">
-        <v>43415</v>
+        <v>43780</v>
       </c>
       <c r="LQ3" s="12">
-        <v>43416</v>
+        <v>43781</v>
       </c>
       <c r="LR3" s="12">
-        <v>43417</v>
+        <v>43782</v>
       </c>
       <c r="LS3" s="12">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="LT3" s="12">
-        <v>43419</v>
+        <v>43784</v>
       </c>
       <c r="LU3" s="12">
-        <v>43420</v>
+        <v>43785</v>
       </c>
       <c r="LV3" s="12">
-        <v>43421</v>
+        <v>43786</v>
       </c>
       <c r="LW3" s="12">
-        <v>43422</v>
+        <v>43787</v>
       </c>
       <c r="LX3" s="12">
-        <v>43423</v>
+        <v>43788</v>
       </c>
       <c r="LY3" s="12">
-        <v>43424</v>
+        <v>43789</v>
       </c>
       <c r="LZ3" s="12">
-        <v>43425</v>
+        <v>43790</v>
       </c>
       <c r="MA3" s="12">
-        <v>43426</v>
+        <v>43791</v>
       </c>
       <c r="MB3" s="12">
-        <v>43427</v>
+        <v>43792</v>
       </c>
       <c r="MC3" s="12">
-        <v>43428</v>
+        <v>43793</v>
       </c>
       <c r="MD3" s="12">
-        <v>43429</v>
+        <v>43794</v>
       </c>
       <c r="ME3" s="12">
-        <v>43430</v>
+        <v>43795</v>
       </c>
       <c r="MF3" s="12">
-        <v>43431</v>
+        <v>43796</v>
       </c>
       <c r="MG3" s="12">
-        <v>43432</v>
+        <v>43797</v>
       </c>
       <c r="MH3" s="12">
-        <v>43433</v>
+        <v>43798</v>
       </c>
       <c r="MI3" s="12">
-        <v>43434</v>
+        <v>43799</v>
       </c>
       <c r="MJ3" s="12">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="MK3" s="12">
-        <v>43436</v>
+        <v>43801</v>
       </c>
       <c r="ML3" s="12">
-        <v>43437</v>
+        <v>43802</v>
       </c>
       <c r="MM3" s="12">
-        <v>43438</v>
+        <v>43803</v>
       </c>
       <c r="MN3" s="12">
-        <v>43439</v>
+        <v>43804</v>
       </c>
       <c r="MO3" s="12">
-        <v>43440</v>
+        <v>43805</v>
       </c>
       <c r="MP3" s="12">
-        <v>43441</v>
+        <v>43806</v>
       </c>
       <c r="MQ3" s="12">
-        <v>43442</v>
+        <v>43807</v>
       </c>
       <c r="MR3" s="12">
-        <v>43443</v>
+        <v>43808</v>
       </c>
       <c r="MS3" s="12">
-        <v>43444</v>
+        <v>43809</v>
       </c>
       <c r="MT3" s="12">
-        <v>43445</v>
+        <v>43810</v>
       </c>
       <c r="MU3" s="12">
-        <v>43446</v>
+        <v>43811</v>
       </c>
       <c r="MV3" s="12">
-        <v>43447</v>
+        <v>43812</v>
       </c>
       <c r="MW3" s="12">
-        <v>43448</v>
+        <v>43813</v>
       </c>
       <c r="MX3" s="12">
-        <v>43449</v>
+        <v>43814</v>
       </c>
       <c r="MY3" s="12">
-        <v>43450</v>
+        <v>43815</v>
       </c>
       <c r="MZ3" s="12">
-        <v>43451</v>
+        <v>43816</v>
       </c>
       <c r="NA3" s="12">
-        <v>43452</v>
+        <v>43817</v>
       </c>
       <c r="NB3" s="12">
-        <v>43453</v>
+        <v>43818</v>
       </c>
       <c r="NC3" s="12">
-        <v>43454</v>
+        <v>43819</v>
       </c>
       <c r="ND3" s="12">
-        <v>43455</v>
+        <v>43820</v>
       </c>
       <c r="NE3" s="12">
-        <v>43456</v>
+        <v>43821</v>
       </c>
       <c r="NF3" s="12">
-        <v>43457</v>
+        <v>43822</v>
       </c>
       <c r="NG3" s="12">
-        <v>43458</v>
+        <v>43823</v>
       </c>
       <c r="NH3" s="12">
-        <v>43459</v>
+        <v>43824</v>
       </c>
       <c r="NI3" s="12">
-        <v>43460</v>
+        <v>43825</v>
       </c>
       <c r="NJ3" s="12">
-        <v>43461</v>
+        <v>43826</v>
       </c>
       <c r="NK3" s="12">
-        <v>43462</v>
+        <v>43827</v>
       </c>
       <c r="NL3" s="12">
-        <v>43463</v>
+        <v>43828</v>
       </c>
       <c r="NM3" s="12">
-        <v>43464</v>
+        <v>43829</v>
       </c>
       <c r="NN3" s="12">
-        <v>43465</v>
+        <v>43830</v>
       </c>
     </row>
-    <row r="4" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="47" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="14">
         <f>N3</f>
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" ref="O4:BZ4" si="490">O3</f>
-        <v>43102</v>
+        <v>43467</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" si="490"/>
-        <v>43103</v>
+        <v>43468</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" si="490"/>
-        <v>43104</v>
+        <v>43469</v>
       </c>
       <c r="R4" s="14">
         <f t="shared" si="490"/>
-        <v>43105</v>
+        <v>43470</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" si="490"/>
-        <v>43106</v>
+        <v>43471</v>
       </c>
       <c r="T4" s="14">
         <f t="shared" si="490"/>
-        <v>43107</v>
+        <v>43472</v>
       </c>
       <c r="U4" s="14">
         <f t="shared" si="490"/>
-        <v>43108</v>
+        <v>43473</v>
       </c>
       <c r="V4" s="14">
         <f t="shared" si="490"/>
-        <v>43109</v>
+        <v>43474</v>
       </c>
       <c r="W4" s="14">
         <f t="shared" si="490"/>
-        <v>43110</v>
+        <v>43475</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" si="490"/>
-        <v>43111</v>
+        <v>43476</v>
       </c>
       <c r="Y4" s="14">
         <f t="shared" si="490"/>
-        <v>43112</v>
+        <v>43477</v>
       </c>
       <c r="Z4" s="14">
         <f t="shared" si="490"/>
-        <v>43113</v>
+        <v>43478</v>
       </c>
       <c r="AA4" s="14">
         <f t="shared" si="490"/>
-        <v>43114</v>
+        <v>43479</v>
       </c>
       <c r="AB4" s="14">
         <f t="shared" si="490"/>
-        <v>43115</v>
+        <v>43480</v>
       </c>
       <c r="AC4" s="14">
         <f t="shared" si="490"/>
-        <v>43116</v>
+        <v>43481</v>
       </c>
       <c r="AD4" s="14">
         <f t="shared" si="490"/>
-        <v>43117</v>
+        <v>43482</v>
       </c>
       <c r="AE4" s="14">
         <f t="shared" si="490"/>
-        <v>43118</v>
+        <v>43483</v>
       </c>
       <c r="AF4" s="14">
         <f t="shared" si="490"/>
-        <v>43119</v>
+        <v>43484</v>
       </c>
       <c r="AG4" s="14">
         <f t="shared" si="490"/>
-        <v>43120</v>
+        <v>43485</v>
       </c>
       <c r="AH4" s="14">
         <f t="shared" si="490"/>
-        <v>43121</v>
+        <v>43486</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" si="490"/>
-        <v>43122</v>
+        <v>43487</v>
       </c>
       <c r="AJ4" s="14">
         <f t="shared" si="490"/>
-        <v>43123</v>
+        <v>43488</v>
       </c>
       <c r="AK4" s="14">
         <f t="shared" si="490"/>
-        <v>43124</v>
+        <v>43489</v>
       </c>
       <c r="AL4" s="14">
         <f t="shared" si="490"/>
-        <v>43125</v>
+        <v>43490</v>
       </c>
       <c r="AM4" s="14">
         <f t="shared" si="490"/>
-        <v>43126</v>
+        <v>43491</v>
       </c>
       <c r="AN4" s="14">
         <f t="shared" si="490"/>
-        <v>43127</v>
+        <v>43492</v>
       </c>
       <c r="AO4" s="14">
         <f t="shared" si="490"/>
-        <v>43128</v>
+        <v>43493</v>
       </c>
       <c r="AP4" s="14">
         <f t="shared" si="490"/>
-        <v>43129</v>
+        <v>43494</v>
       </c>
       <c r="AQ4" s="14">
         <f t="shared" si="490"/>
-        <v>43130</v>
+        <v>43495</v>
       </c>
       <c r="AR4" s="14">
         <f t="shared" si="490"/>
-        <v>43131</v>
+        <v>43496</v>
       </c>
       <c r="AS4" s="14">
         <f t="shared" si="490"/>
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="AT4" s="14">
         <f t="shared" si="490"/>
-        <v>43133</v>
+        <v>43498</v>
       </c>
       <c r="AU4" s="14">
         <f t="shared" si="490"/>
-        <v>43134</v>
+        <v>43499</v>
       </c>
       <c r="AV4" s="14">
         <f t="shared" si="490"/>
-        <v>43135</v>
+        <v>43500</v>
       </c>
       <c r="AW4" s="14">
         <f t="shared" si="490"/>
-        <v>43136</v>
+        <v>43501</v>
       </c>
       <c r="AX4" s="14">
         <f t="shared" si="490"/>
-        <v>43137</v>
+        <v>43502</v>
       </c>
       <c r="AY4" s="14">
         <f t="shared" si="490"/>
-        <v>43138</v>
+        <v>43503</v>
       </c>
       <c r="AZ4" s="14">
         <f t="shared" si="490"/>
-        <v>43139</v>
+        <v>43504</v>
       </c>
       <c r="BA4" s="14">
         <f t="shared" si="490"/>
-        <v>43140</v>
+        <v>43505</v>
       </c>
       <c r="BB4" s="14">
         <f t="shared" si="490"/>
-        <v>43141</v>
+        <v>43506</v>
       </c>
       <c r="BC4" s="14">
         <f t="shared" si="490"/>
-        <v>43142</v>
+        <v>43507</v>
       </c>
       <c r="BD4" s="14">
         <f t="shared" si="490"/>
-        <v>43143</v>
+        <v>43508</v>
       </c>
       <c r="BE4" s="14">
         <f t="shared" si="490"/>
-        <v>43144</v>
+        <v>43509</v>
       </c>
       <c r="BF4" s="14">
         <f t="shared" si="490"/>
-        <v>43145</v>
+        <v>43510</v>
       </c>
       <c r="BG4" s="14">
         <f t="shared" si="490"/>
-        <v>43146</v>
+        <v>43511</v>
       </c>
       <c r="BH4" s="14">
         <f t="shared" si="490"/>
-        <v>43147</v>
+        <v>43512</v>
       </c>
       <c r="BI4" s="14">
         <f t="shared" si="490"/>
-        <v>43148</v>
+        <v>43513</v>
       </c>
       <c r="BJ4" s="14">
         <f t="shared" si="490"/>
-        <v>43149</v>
+        <v>43514</v>
       </c>
       <c r="BK4" s="14">
         <f t="shared" si="490"/>
-        <v>43150</v>
+        <v>43515</v>
       </c>
       <c r="BL4" s="14">
         <f t="shared" si="490"/>
-        <v>43151</v>
+        <v>43516</v>
       </c>
       <c r="BM4" s="14">
         <f t="shared" si="490"/>
-        <v>43152</v>
+        <v>43517</v>
       </c>
       <c r="BN4" s="14">
         <f t="shared" si="490"/>
-        <v>43153</v>
+        <v>43518</v>
       </c>
       <c r="BO4" s="14">
         <f t="shared" si="490"/>
-        <v>43154</v>
+        <v>43519</v>
       </c>
       <c r="BP4" s="14">
         <f t="shared" si="490"/>
-        <v>43155</v>
+        <v>43520</v>
       </c>
       <c r="BQ4" s="14">
         <f t="shared" si="490"/>
-        <v>43156</v>
+        <v>43521</v>
       </c>
       <c r="BR4" s="14">
         <f t="shared" si="490"/>
-        <v>43157</v>
+        <v>43522</v>
       </c>
       <c r="BS4" s="14">
         <f t="shared" si="490"/>
-        <v>43158</v>
+        <v>43523</v>
       </c>
       <c r="BT4" s="14">
         <f t="shared" si="490"/>
-        <v>43159</v>
+        <v>43524</v>
       </c>
       <c r="BU4" s="14">
         <f t="shared" si="490"/>
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="BV4" s="14">
         <f t="shared" si="490"/>
-        <v>43161</v>
+        <v>43526</v>
       </c>
       <c r="BW4" s="14">
         <f t="shared" si="490"/>
-        <v>43162</v>
+        <v>43527</v>
       </c>
       <c r="BX4" s="14">
         <f t="shared" si="490"/>
-        <v>43163</v>
+        <v>43528</v>
       </c>
       <c r="BY4" s="14">
         <f t="shared" si="490"/>
-        <v>43164</v>
+        <v>43529</v>
       </c>
       <c r="BZ4" s="14">
         <f t="shared" si="490"/>
-        <v>43165</v>
+        <v>43530</v>
       </c>
       <c r="CA4" s="14">
         <f t="shared" ref="CA4:EE4" si="491">CA3</f>
-        <v>43166</v>
+        <v>43531</v>
       </c>
       <c r="CB4" s="14">
         <f t="shared" si="491"/>
-        <v>43167</v>
+        <v>43532</v>
       </c>
       <c r="CC4" s="14">
         <f t="shared" si="491"/>
-        <v>43168</v>
+        <v>43533</v>
       </c>
       <c r="CD4" s="14">
         <f t="shared" si="491"/>
-        <v>43169</v>
+        <v>43534</v>
       </c>
       <c r="CE4" s="14">
         <f t="shared" si="491"/>
-        <v>43170</v>
+        <v>43535</v>
       </c>
       <c r="CF4" s="14">
         <f t="shared" si="491"/>
-        <v>43171</v>
+        <v>43536</v>
       </c>
       <c r="CG4" s="14">
         <f t="shared" si="491"/>
-        <v>43172</v>
+        <v>43537</v>
       </c>
       <c r="CH4" s="14">
         <f t="shared" si="491"/>
-        <v>43173</v>
+        <v>43538</v>
       </c>
       <c r="CI4" s="14">
         <f t="shared" si="491"/>
-        <v>43174</v>
+        <v>43539</v>
       </c>
       <c r="CJ4" s="14">
         <f t="shared" si="491"/>
-        <v>43175</v>
+        <v>43540</v>
       </c>
       <c r="CK4" s="14">
         <f t="shared" si="491"/>
-        <v>43176</v>
+        <v>43541</v>
       </c>
       <c r="CL4" s="14">
         <f t="shared" si="491"/>
-        <v>43177</v>
+        <v>43542</v>
       </c>
       <c r="CM4" s="14">
         <f t="shared" si="491"/>
-        <v>43178</v>
+        <v>43543</v>
       </c>
       <c r="CN4" s="14">
         <f t="shared" si="491"/>
-        <v>43179</v>
+        <v>43544</v>
       </c>
       <c r="CO4" s="14">
         <f t="shared" si="491"/>
-        <v>43180</v>
+        <v>43545</v>
       </c>
       <c r="CP4" s="14">
         <f t="shared" si="491"/>
-        <v>43181</v>
+        <v>43546</v>
       </c>
       <c r="CQ4" s="14">
         <f t="shared" si="491"/>
-        <v>43182</v>
+        <v>43547</v>
       </c>
       <c r="CR4" s="14">
         <f t="shared" si="491"/>
-        <v>43183</v>
+        <v>43548</v>
       </c>
       <c r="CS4" s="14">
         <f t="shared" si="491"/>
-        <v>43184</v>
+        <v>43549</v>
       </c>
       <c r="CT4" s="14">
         <f t="shared" si="491"/>
-        <v>43185</v>
+        <v>43550</v>
       </c>
       <c r="CU4" s="14">
         <f t="shared" si="491"/>
-        <v>43186</v>
+        <v>43551</v>
       </c>
       <c r="CV4" s="14">
         <f t="shared" si="491"/>
-        <v>43187</v>
+        <v>43552</v>
       </c>
       <c r="CW4" s="14">
         <f t="shared" si="491"/>
-        <v>43188</v>
+        <v>43553</v>
       </c>
       <c r="CX4" s="14">
         <f t="shared" si="491"/>
-        <v>43189</v>
+        <v>43554</v>
       </c>
       <c r="CY4" s="14">
         <f t="shared" si="491"/>
-        <v>43190</v>
+        <v>43555</v>
       </c>
       <c r="CZ4" s="14">
         <f t="shared" si="491"/>
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="DA4" s="14">
         <f t="shared" si="491"/>
-        <v>43192</v>
+        <v>43557</v>
       </c>
       <c r="DB4" s="14">
         <f t="shared" si="491"/>
-        <v>43193</v>
+        <v>43558</v>
       </c>
       <c r="DC4" s="14">
         <f t="shared" si="491"/>
-        <v>43194</v>
+        <v>43559</v>
       </c>
       <c r="DD4" s="14">
         <f t="shared" si="491"/>
-        <v>43195</v>
+        <v>43560</v>
       </c>
       <c r="DE4" s="14">
         <f t="shared" si="491"/>
-        <v>43196</v>
+        <v>43561</v>
       </c>
       <c r="DF4" s="14">
         <f t="shared" si="491"/>
-        <v>43197</v>
+        <v>43562</v>
       </c>
       <c r="DG4" s="14">
         <f t="shared" si="491"/>
-        <v>43198</v>
+        <v>43563</v>
       </c>
       <c r="DH4" s="14">
         <f t="shared" si="491"/>
-        <v>43199</v>
+        <v>43564</v>
       </c>
       <c r="DI4" s="14">
         <f t="shared" si="491"/>
-        <v>43200</v>
+        <v>43565</v>
       </c>
       <c r="DJ4" s="14">
         <f t="shared" si="491"/>
-        <v>43201</v>
+        <v>43566</v>
       </c>
       <c r="DK4" s="14">
         <f t="shared" si="491"/>
-        <v>43202</v>
+        <v>43567</v>
       </c>
       <c r="DL4" s="14">
         <f t="shared" si="491"/>
-        <v>43203</v>
+        <v>43568</v>
       </c>
       <c r="DM4" s="14">
         <f t="shared" si="491"/>
-        <v>43204</v>
+        <v>43569</v>
       </c>
       <c r="DN4" s="14">
         <f t="shared" si="491"/>
-        <v>43205</v>
+        <v>43570</v>
       </c>
       <c r="DO4" s="14">
         <f t="shared" si="491"/>
-        <v>43206</v>
+        <v>43571</v>
       </c>
       <c r="DP4" s="14">
         <f t="shared" si="491"/>
-        <v>43207</v>
+        <v>43572</v>
       </c>
       <c r="DQ4" s="14">
         <f t="shared" si="491"/>
-        <v>43208</v>
+        <v>43573</v>
       </c>
       <c r="DR4" s="14">
         <f t="shared" si="491"/>
-        <v>43209</v>
+        <v>43574</v>
       </c>
       <c r="DS4" s="14">
         <f t="shared" si="491"/>
-        <v>43210</v>
+        <v>43575</v>
       </c>
       <c r="DT4" s="14">
         <f t="shared" si="491"/>
-        <v>43211</v>
+        <v>43576</v>
       </c>
       <c r="DU4" s="14">
         <f t="shared" si="491"/>
-        <v>43212</v>
+        <v>43577</v>
       </c>
       <c r="DV4" s="14">
         <f t="shared" si="491"/>
-        <v>43213</v>
+        <v>43578</v>
       </c>
       <c r="DW4" s="14">
         <f t="shared" si="491"/>
-        <v>43214</v>
+        <v>43579</v>
       </c>
       <c r="DX4" s="14">
         <f t="shared" si="491"/>
-        <v>43215</v>
+        <v>43580</v>
       </c>
       <c r="DY4" s="14">
         <f t="shared" si="491"/>
-        <v>43216</v>
+        <v>43581</v>
       </c>
       <c r="DZ4" s="14">
         <f t="shared" si="491"/>
-        <v>43217</v>
+        <v>43582</v>
       </c>
       <c r="EA4" s="14">
         <f t="shared" si="491"/>
-        <v>43218</v>
+        <v>43583</v>
       </c>
       <c r="EB4" s="14">
         <f t="shared" si="491"/>
-        <v>43219</v>
+        <v>43584</v>
       </c>
       <c r="EC4" s="14">
         <f t="shared" si="491"/>
-        <v>43220</v>
+        <v>43585</v>
       </c>
       <c r="ED4" s="14">
         <f t="shared" si="491"/>
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="EE4" s="14">
         <f t="shared" si="491"/>
-        <v>43222</v>
+        <v>43587</v>
       </c>
       <c r="EF4" s="14">
         <f t="shared" ref="EF4:GQ4" si="492">EF3</f>
-        <v>43223</v>
+        <v>43588</v>
       </c>
       <c r="EG4" s="14">
         <f t="shared" si="492"/>
-        <v>43224</v>
+        <v>43589</v>
       </c>
       <c r="EH4" s="14">
         <f t="shared" si="492"/>
-        <v>43225</v>
+        <v>43590</v>
       </c>
       <c r="EI4" s="14">
         <f t="shared" si="492"/>
-        <v>43226</v>
+        <v>43591</v>
       </c>
       <c r="EJ4" s="14">
         <f t="shared" si="492"/>
-        <v>43227</v>
+        <v>43592</v>
       </c>
       <c r="EK4" s="14">
         <f t="shared" si="492"/>
-        <v>43228</v>
+        <v>43593</v>
       </c>
       <c r="EL4" s="14">
         <f t="shared" si="492"/>
-        <v>43229</v>
+        <v>43594</v>
       </c>
       <c r="EM4" s="14">
         <f t="shared" si="492"/>
-        <v>43230</v>
+        <v>43595</v>
       </c>
       <c r="EN4" s="14">
         <f t="shared" si="492"/>
-        <v>43231</v>
+        <v>43596</v>
       </c>
       <c r="EO4" s="14">
         <f t="shared" si="492"/>
-        <v>43232</v>
+        <v>43597</v>
       </c>
       <c r="EP4" s="14">
         <f t="shared" si="492"/>
-        <v>43233</v>
+        <v>43598</v>
       </c>
       <c r="EQ4" s="14">
         <f t="shared" si="492"/>
-        <v>43234</v>
+        <v>43599</v>
       </c>
       <c r="ER4" s="14">
         <f t="shared" si="492"/>
-        <v>43235</v>
+        <v>43600</v>
       </c>
       <c r="ES4" s="14">
         <f t="shared" si="492"/>
-        <v>43236</v>
+        <v>43601</v>
       </c>
       <c r="ET4" s="14">
         <f t="shared" si="492"/>
-        <v>43237</v>
+        <v>43602</v>
       </c>
       <c r="EU4" s="14">
         <f t="shared" si="492"/>
-        <v>43238</v>
+        <v>43603</v>
       </c>
       <c r="EV4" s="14">
         <f t="shared" si="492"/>
-        <v>43239</v>
+        <v>43604</v>
       </c>
       <c r="EW4" s="14">
         <f t="shared" si="492"/>
-        <v>43240</v>
+        <v>43605</v>
       </c>
       <c r="EX4" s="14">
         <f t="shared" si="492"/>
-        <v>43241</v>
+        <v>43606</v>
       </c>
       <c r="EY4" s="14">
         <f t="shared" si="492"/>
-        <v>43242</v>
+        <v>43607</v>
       </c>
       <c r="EZ4" s="14">
         <f t="shared" si="492"/>
-        <v>43243</v>
+        <v>43608</v>
       </c>
       <c r="FA4" s="14">
         <f t="shared" si="492"/>
-        <v>43244</v>
+        <v>43609</v>
       </c>
       <c r="FB4" s="14">
         <f t="shared" si="492"/>
-        <v>43245</v>
+        <v>43610</v>
       </c>
       <c r="FC4" s="14">
         <f t="shared" si="492"/>
-        <v>43246</v>
+        <v>43611</v>
       </c>
       <c r="FD4" s="14">
         <f t="shared" si="492"/>
-        <v>43247</v>
+        <v>43612</v>
       </c>
       <c r="FE4" s="14">
         <f t="shared" si="492"/>
-        <v>43248</v>
+        <v>43613</v>
       </c>
       <c r="FF4" s="14">
         <f t="shared" si="492"/>
-        <v>43249</v>
+        <v>43614</v>
       </c>
       <c r="FG4" s="14">
         <f t="shared" si="492"/>
-        <v>43250</v>
+        <v>43615</v>
       </c>
       <c r="FH4" s="14">
         <f t="shared" si="492"/>
-        <v>43251</v>
+        <v>43616</v>
       </c>
       <c r="FI4" s="14">
         <f t="shared" si="492"/>
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="FJ4" s="14">
         <f t="shared" si="492"/>
-        <v>43253</v>
+        <v>43618</v>
       </c>
       <c r="FK4" s="14">
         <f t="shared" si="492"/>
-        <v>43254</v>
+        <v>43619</v>
       </c>
       <c r="FL4" s="14">
         <f t="shared" si="492"/>
-        <v>43255</v>
+        <v>43620</v>
       </c>
       <c r="FM4" s="14">
         <f t="shared" si="492"/>
-        <v>43256</v>
+        <v>43621</v>
       </c>
       <c r="FN4" s="14">
         <f t="shared" si="492"/>
-        <v>43257</v>
+        <v>43622</v>
       </c>
       <c r="FO4" s="14">
         <f t="shared" si="492"/>
-        <v>43258</v>
+        <v>43623</v>
       </c>
       <c r="FP4" s="14">
         <f t="shared" si="492"/>
-        <v>43259</v>
+        <v>43624</v>
       </c>
       <c r="FQ4" s="14">
         <f t="shared" si="492"/>
-        <v>43260</v>
+        <v>43625</v>
       </c>
       <c r="FR4" s="14">
         <f t="shared" si="492"/>
-        <v>43261</v>
+        <v>43626</v>
       </c>
       <c r="FS4" s="14">
         <f t="shared" si="492"/>
-        <v>43262</v>
+        <v>43627</v>
       </c>
       <c r="FT4" s="14">
         <f t="shared" si="492"/>
-        <v>43263</v>
+        <v>43628</v>
       </c>
       <c r="FU4" s="14">
         <f t="shared" si="492"/>
-        <v>43264</v>
+        <v>43629</v>
       </c>
       <c r="FV4" s="14">
         <f t="shared" si="492"/>
-        <v>43265</v>
+        <v>43630</v>
       </c>
       <c r="FW4" s="14">
         <f t="shared" si="492"/>
-        <v>43266</v>
+        <v>43631</v>
       </c>
       <c r="FX4" s="14">
         <f t="shared" si="492"/>
-        <v>43267</v>
+        <v>43632</v>
       </c>
       <c r="FY4" s="14">
         <f t="shared" si="492"/>
-        <v>43268</v>
+        <v>43633</v>
       </c>
       <c r="FZ4" s="14">
         <f t="shared" si="492"/>
-        <v>43269</v>
+        <v>43634</v>
       </c>
       <c r="GA4" s="14">
         <f t="shared" si="492"/>
-        <v>43270</v>
+        <v>43635</v>
       </c>
       <c r="GB4" s="14">
         <f t="shared" si="492"/>
-        <v>43271</v>
+        <v>43636</v>
       </c>
       <c r="GC4" s="14">
         <f t="shared" si="492"/>
-        <v>43272</v>
+        <v>43637</v>
       </c>
       <c r="GD4" s="14">
         <f t="shared" si="492"/>
-        <v>43273</v>
+        <v>43638</v>
       </c>
       <c r="GE4" s="14">
         <f t="shared" si="492"/>
-        <v>43274</v>
+        <v>43639</v>
       </c>
       <c r="GF4" s="14">
         <f t="shared" si="492"/>
-        <v>43275</v>
+        <v>43640</v>
       </c>
       <c r="GG4" s="14">
         <f t="shared" si="492"/>
-        <v>43276</v>
+        <v>43641</v>
       </c>
       <c r="GH4" s="14">
         <f t="shared" si="492"/>
-        <v>43277</v>
+        <v>43642</v>
       </c>
       <c r="GI4" s="14">
         <f t="shared" si="492"/>
-        <v>43278</v>
+        <v>43643</v>
       </c>
       <c r="GJ4" s="14">
         <f t="shared" si="492"/>
-        <v>43279</v>
+        <v>43644</v>
       </c>
       <c r="GK4" s="14">
         <f t="shared" si="492"/>
-        <v>43280</v>
+        <v>43645</v>
       </c>
       <c r="GL4" s="14">
         <f t="shared" si="492"/>
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="GM4" s="14">
         <f t="shared" si="492"/>
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="GN4" s="14">
         <f t="shared" si="492"/>
-        <v>43283</v>
+        <v>43648</v>
       </c>
       <c r="GO4" s="14">
         <f t="shared" si="492"/>
-        <v>43284</v>
+        <v>43649</v>
       </c>
       <c r="GP4" s="14">
         <f t="shared" si="492"/>
-        <v>43285</v>
+        <v>43650</v>
       </c>
       <c r="GQ4" s="14">
         <f t="shared" si="492"/>
-        <v>43286</v>
+        <v>43651</v>
       </c>
       <c r="GR4" s="14">
         <f t="shared" ref="GR4:HS4" si="493">GR3</f>
-        <v>43287</v>
+        <v>43652</v>
       </c>
       <c r="GS4" s="14">
         <f t="shared" si="493"/>
-        <v>43288</v>
+        <v>43653</v>
       </c>
       <c r="GT4" s="14">
         <f t="shared" si="493"/>
-        <v>43289</v>
+        <v>43654</v>
       </c>
       <c r="GU4" s="14">
         <f t="shared" si="493"/>
-        <v>43290</v>
+        <v>43655</v>
       </c>
       <c r="GV4" s="14">
         <f t="shared" si="493"/>
-        <v>43291</v>
+        <v>43656</v>
       </c>
       <c r="GW4" s="14">
         <f t="shared" si="493"/>
-        <v>43292</v>
+        <v>43657</v>
       </c>
       <c r="GX4" s="14">
         <f t="shared" si="493"/>
-        <v>43293</v>
+        <v>43658</v>
       </c>
       <c r="GY4" s="14">
         <f t="shared" si="493"/>
-        <v>43294</v>
+        <v>43659</v>
       </c>
       <c r="GZ4" s="14">
         <f t="shared" si="493"/>
-        <v>43295</v>
+        <v>43660</v>
       </c>
       <c r="HA4" s="14">
         <f t="shared" si="493"/>
-        <v>43296</v>
+        <v>43661</v>
       </c>
       <c r="HB4" s="14">
         <f t="shared" si="493"/>
-        <v>43297</v>
+        <v>43662</v>
       </c>
       <c r="HC4" s="14">
         <f t="shared" si="493"/>
-        <v>43298</v>
+        <v>43663</v>
       </c>
       <c r="HD4" s="14">
         <f t="shared" si="493"/>
-        <v>43299</v>
+        <v>43664</v>
       </c>
       <c r="HE4" s="14">
         <f t="shared" si="493"/>
-        <v>43300</v>
+        <v>43665</v>
       </c>
       <c r="HF4" s="14">
         <f t="shared" si="493"/>
-        <v>43301</v>
+        <v>43666</v>
       </c>
       <c r="HG4" s="14">
         <f t="shared" si="493"/>
-        <v>43302</v>
+        <v>43667</v>
       </c>
       <c r="HH4" s="14">
         <f t="shared" si="493"/>
-        <v>43303</v>
+        <v>43668</v>
       </c>
       <c r="HI4" s="14">
         <f t="shared" si="493"/>
-        <v>43304</v>
+        <v>43669</v>
       </c>
       <c r="HJ4" s="14">
         <f t="shared" si="493"/>
-        <v>43305</v>
+        <v>43670</v>
       </c>
       <c r="HK4" s="14">
         <f t="shared" si="493"/>
-        <v>43306</v>
+        <v>43671</v>
       </c>
       <c r="HL4" s="14">
         <f t="shared" si="493"/>
-        <v>43307</v>
+        <v>43672</v>
       </c>
       <c r="HM4" s="14">
         <f t="shared" si="493"/>
-        <v>43308</v>
+        <v>43673</v>
       </c>
       <c r="HN4" s="14">
         <f t="shared" si="493"/>
-        <v>43309</v>
+        <v>43674</v>
       </c>
       <c r="HO4" s="14">
         <f t="shared" si="493"/>
-        <v>43310</v>
+        <v>43675</v>
       </c>
       <c r="HP4" s="14">
         <f t="shared" si="493"/>
-        <v>43311</v>
+        <v>43676</v>
       </c>
       <c r="HQ4" s="14">
         <f t="shared" si="493"/>
-        <v>43312</v>
+        <v>43677</v>
       </c>
       <c r="HR4" s="14">
         <f t="shared" si="493"/>
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="HS4" s="14">
         <f t="shared" si="493"/>
-        <v>43314</v>
+        <v>43679</v>
       </c>
       <c r="HT4" s="14">
         <f t="shared" ref="HT4:KE4" si="494">HT3</f>
-        <v>43315</v>
+        <v>43680</v>
       </c>
       <c r="HU4" s="14">
         <f t="shared" si="494"/>
-        <v>43316</v>
+        <v>43681</v>
       </c>
       <c r="HV4" s="14">
         <f t="shared" si="494"/>
-        <v>43317</v>
+        <v>43682</v>
       </c>
       <c r="HW4" s="14">
         <f t="shared" si="494"/>
-        <v>43318</v>
+        <v>43683</v>
       </c>
       <c r="HX4" s="14">
         <f t="shared" si="494"/>
-        <v>43319</v>
+        <v>43684</v>
       </c>
       <c r="HY4" s="14">
         <f t="shared" si="494"/>
-        <v>43320</v>
+        <v>43685</v>
       </c>
       <c r="HZ4" s="14">
         <f t="shared" si="494"/>
-        <v>43321</v>
+        <v>43686</v>
       </c>
       <c r="IA4" s="14">
         <f t="shared" si="494"/>
-        <v>43322</v>
+        <v>43687</v>
       </c>
       <c r="IB4" s="14">
         <f t="shared" si="494"/>
-        <v>43323</v>
+        <v>43688</v>
       </c>
       <c r="IC4" s="14">
         <f t="shared" si="494"/>
-        <v>43324</v>
+        <v>43689</v>
       </c>
       <c r="ID4" s="14">
         <f t="shared" si="494"/>
-        <v>43325</v>
+        <v>43690</v>
       </c>
       <c r="IE4" s="14">
         <f t="shared" si="494"/>
-        <v>43326</v>
+        <v>43691</v>
       </c>
       <c r="IF4" s="14">
         <f t="shared" si="494"/>
-        <v>43327</v>
+        <v>43692</v>
       </c>
       <c r="IG4" s="14">
         <f t="shared" si="494"/>
-        <v>43328</v>
+        <v>43693</v>
       </c>
       <c r="IH4" s="14">
         <f t="shared" si="494"/>
-        <v>43329</v>
+        <v>43694</v>
       </c>
       <c r="II4" s="14">
         <f t="shared" si="494"/>
-        <v>43330</v>
+        <v>43695</v>
       </c>
       <c r="IJ4" s="14">
         <f t="shared" si="494"/>
-        <v>43331</v>
+        <v>43696</v>
       </c>
       <c r="IK4" s="14">
         <f t="shared" si="494"/>
-        <v>43332</v>
+        <v>43697</v>
       </c>
       <c r="IL4" s="14">
         <f t="shared" si="494"/>
-        <v>43333</v>
+        <v>43698</v>
       </c>
       <c r="IM4" s="14">
         <f t="shared" si="494"/>
-        <v>43334</v>
+        <v>43699</v>
       </c>
       <c r="IN4" s="14">
         <f t="shared" si="494"/>
-        <v>43335</v>
+        <v>43700</v>
       </c>
       <c r="IO4" s="14">
         <f t="shared" si="494"/>
-        <v>43336</v>
+        <v>43701</v>
       </c>
       <c r="IP4" s="14">
         <f t="shared" si="494"/>
-        <v>43337</v>
+        <v>43702</v>
       </c>
       <c r="IQ4" s="14">
         <f t="shared" si="494"/>
-        <v>43338</v>
+        <v>43703</v>
       </c>
       <c r="IR4" s="14">
         <f t="shared" si="494"/>
-        <v>43339</v>
+        <v>43704</v>
       </c>
       <c r="IS4" s="14">
         <f t="shared" si="494"/>
-        <v>43340</v>
+        <v>43705</v>
       </c>
       <c r="IT4" s="14">
         <f t="shared" si="494"/>
-        <v>43341</v>
+        <v>43706</v>
       </c>
       <c r="IU4" s="14">
         <f t="shared" si="494"/>
-        <v>43342</v>
+        <v>43707</v>
       </c>
       <c r="IV4" s="14">
         <f t="shared" si="494"/>
-        <v>43343</v>
+        <v>43708</v>
       </c>
       <c r="IW4" s="14">
         <f t="shared" si="494"/>
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="IX4" s="14">
         <f t="shared" si="494"/>
-        <v>43345</v>
+        <v>43710</v>
       </c>
       <c r="IY4" s="14">
         <f t="shared" si="494"/>
-        <v>43346</v>
+        <v>43711</v>
       </c>
       <c r="IZ4" s="14">
         <f t="shared" si="494"/>
-        <v>43347</v>
+        <v>43712</v>
       </c>
       <c r="JA4" s="14">
         <f t="shared" si="494"/>
-        <v>43348</v>
+        <v>43713</v>
       </c>
       <c r="JB4" s="14">
         <f t="shared" si="494"/>
-        <v>43349</v>
+        <v>43714</v>
       </c>
       <c r="JC4" s="14">
         <f t="shared" si="494"/>
-        <v>43350</v>
+        <v>43715</v>
       </c>
       <c r="JD4" s="14">
         <f t="shared" si="494"/>
-        <v>43351</v>
+        <v>43716</v>
       </c>
       <c r="JE4" s="14">
         <f t="shared" si="494"/>
-        <v>43352</v>
+        <v>43717</v>
       </c>
       <c r="JF4" s="14">
         <f t="shared" si="494"/>
-        <v>43353</v>
+        <v>43718</v>
       </c>
       <c r="JG4" s="14">
         <f t="shared" si="494"/>
-        <v>43354</v>
+        <v>43719</v>
       </c>
       <c r="JH4" s="14">
         <f t="shared" si="494"/>
-        <v>43355</v>
+        <v>43720</v>
       </c>
       <c r="JI4" s="14">
         <f t="shared" si="494"/>
-        <v>43356</v>
+        <v>43721</v>
       </c>
       <c r="JJ4" s="14">
         <f t="shared" si="494"/>
-        <v>43357</v>
+        <v>43722</v>
       </c>
       <c r="JK4" s="14">
         <f t="shared" si="494"/>
-        <v>43358</v>
+        <v>43723</v>
       </c>
       <c r="JL4" s="14">
         <f t="shared" si="494"/>
-        <v>43359</v>
+        <v>43724</v>
       </c>
       <c r="JM4" s="14">
         <f t="shared" si="494"/>
-        <v>43360</v>
+        <v>43725</v>
       </c>
       <c r="JN4" s="14">
         <f t="shared" si="494"/>
-        <v>43361</v>
+        <v>43726</v>
       </c>
       <c r="JO4" s="14">
         <f t="shared" si="494"/>
-        <v>43362</v>
+        <v>43727</v>
       </c>
       <c r="JP4" s="14">
         <f t="shared" si="494"/>
-        <v>43363</v>
+        <v>43728</v>
       </c>
       <c r="JQ4" s="14">
         <f t="shared" si="494"/>
-        <v>43364</v>
+        <v>43729</v>
       </c>
       <c r="JR4" s="14">
         <f t="shared" si="494"/>
-        <v>43365</v>
+        <v>43730</v>
       </c>
       <c r="JS4" s="14">
         <f t="shared" si="494"/>
-        <v>43366</v>
+        <v>43731</v>
       </c>
       <c r="JT4" s="14">
         <f t="shared" si="494"/>
-        <v>43367</v>
+        <v>43732</v>
       </c>
       <c r="JU4" s="14">
         <f t="shared" si="494"/>
-        <v>43368</v>
+        <v>43733</v>
       </c>
       <c r="JV4" s="14">
         <f t="shared" si="494"/>
-        <v>43369</v>
+        <v>43734</v>
       </c>
       <c r="JW4" s="14">
         <f t="shared" si="494"/>
-        <v>43370</v>
+        <v>43735</v>
       </c>
       <c r="JX4" s="14">
         <f t="shared" si="494"/>
-        <v>43371</v>
+        <v>43736</v>
       </c>
       <c r="JY4" s="14">
         <f t="shared" si="494"/>
-        <v>43372</v>
+        <v>43737</v>
       </c>
       <c r="JZ4" s="14">
         <f t="shared" si="494"/>
-        <v>43373</v>
+        <v>43738</v>
       </c>
       <c r="KA4" s="14">
         <f t="shared" si="494"/>
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="KB4" s="14">
         <f t="shared" si="494"/>
-        <v>43375</v>
+        <v>43740</v>
       </c>
       <c r="KC4" s="14">
         <f t="shared" si="494"/>
-        <v>43376</v>
+        <v>43741</v>
       </c>
       <c r="KD4" s="14">
         <f t="shared" si="494"/>
-        <v>43377</v>
+        <v>43742</v>
       </c>
       <c r="KE4" s="14">
         <f t="shared" si="494"/>
-        <v>43378</v>
+        <v>43743</v>
       </c>
       <c r="KF4" s="14">
         <f t="shared" ref="KF4:MQ4" si="495">KF3</f>
-        <v>43379</v>
+        <v>43744</v>
       </c>
       <c r="KG4" s="14">
         <f t="shared" si="495"/>
-        <v>43380</v>
+        <v>43745</v>
       </c>
       <c r="KH4" s="14">
         <f t="shared" si="495"/>
-        <v>43381</v>
+        <v>43746</v>
       </c>
       <c r="KI4" s="14">
         <f t="shared" si="495"/>
-        <v>43382</v>
+        <v>43747</v>
       </c>
       <c r="KJ4" s="14">
         <f t="shared" si="495"/>
-        <v>43383</v>
+        <v>43748</v>
       </c>
       <c r="KK4" s="14">
         <f t="shared" si="495"/>
-        <v>43384</v>
+        <v>43749</v>
       </c>
       <c r="KL4" s="14">
         <f t="shared" si="495"/>
-        <v>43385</v>
+        <v>43750</v>
       </c>
       <c r="KM4" s="14">
         <f t="shared" si="495"/>
-        <v>43386</v>
+        <v>43751</v>
       </c>
       <c r="KN4" s="14">
         <f t="shared" si="495"/>
-        <v>43387</v>
+        <v>43752</v>
       </c>
       <c r="KO4" s="14">
         <f t="shared" si="495"/>
-        <v>43388</v>
+        <v>43753</v>
       </c>
       <c r="KP4" s="14">
         <f t="shared" si="495"/>
-        <v>43389</v>
+        <v>43754</v>
       </c>
       <c r="KQ4" s="14">
         <f t="shared" si="495"/>
-        <v>43390</v>
+        <v>43755</v>
       </c>
       <c r="KR4" s="14">
         <f t="shared" si="495"/>
-        <v>43391</v>
+        <v>43756</v>
       </c>
       <c r="KS4" s="14">
         <f t="shared" si="495"/>
-        <v>43392</v>
+        <v>43757</v>
       </c>
       <c r="KT4" s="14">
         <f t="shared" si="495"/>
-        <v>43393</v>
+        <v>43758</v>
       </c>
       <c r="KU4" s="14">
         <f t="shared" si="495"/>
-        <v>43394</v>
+        <v>43759</v>
       </c>
       <c r="KV4" s="14">
         <f t="shared" si="495"/>
-        <v>43395</v>
+        <v>43760</v>
       </c>
       <c r="KW4" s="14">
         <f t="shared" si="495"/>
-        <v>43396</v>
+        <v>43761</v>
       </c>
       <c r="KX4" s="14">
         <f t="shared" si="495"/>
-        <v>43397</v>
+        <v>43762</v>
       </c>
       <c r="KY4" s="14">
         <f t="shared" si="495"/>
-        <v>43398</v>
+        <v>43763</v>
       </c>
       <c r="KZ4" s="14">
         <f t="shared" si="495"/>
-        <v>43399</v>
+        <v>43764</v>
       </c>
       <c r="LA4" s="14">
         <f t="shared" si="495"/>
-        <v>43400</v>
+        <v>43765</v>
       </c>
       <c r="LB4" s="14">
         <f t="shared" si="495"/>
-        <v>43401</v>
+        <v>43766</v>
       </c>
       <c r="LC4" s="14">
         <f t="shared" si="495"/>
-        <v>43402</v>
+        <v>43767</v>
       </c>
       <c r="LD4" s="14">
         <f t="shared" si="495"/>
-        <v>43403</v>
+        <v>43768</v>
       </c>
       <c r="LE4" s="14">
         <f t="shared" si="495"/>
-        <v>43404</v>
+        <v>43769</v>
       </c>
       <c r="LF4" s="14">
         <f t="shared" si="495"/>
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="LG4" s="14">
         <f t="shared" si="495"/>
-        <v>43406</v>
+        <v>43771</v>
       </c>
       <c r="LH4" s="14">
         <f t="shared" si="495"/>
-        <v>43407</v>
+        <v>43772</v>
       </c>
       <c r="LI4" s="14">
         <f t="shared" si="495"/>
-        <v>43408</v>
+        <v>43773</v>
       </c>
       <c r="LJ4" s="14">
         <f t="shared" si="495"/>
-        <v>43409</v>
+        <v>43774</v>
       </c>
       <c r="LK4" s="14">
         <f t="shared" si="495"/>
-        <v>43410</v>
+        <v>43775</v>
       </c>
       <c r="LL4" s="14">
         <f t="shared" si="495"/>
-        <v>43411</v>
+        <v>43776</v>
       </c>
       <c r="LM4" s="14">
         <f t="shared" si="495"/>
-        <v>43412</v>
+        <v>43777</v>
       </c>
       <c r="LN4" s="14">
         <f t="shared" si="495"/>
-        <v>43413</v>
+        <v>43778</v>
       </c>
       <c r="LO4" s="14">
         <f t="shared" si="495"/>
-        <v>43414</v>
+        <v>43779</v>
       </c>
       <c r="LP4" s="14">
         <f t="shared" si="495"/>
-        <v>43415</v>
+        <v>43780</v>
       </c>
       <c r="LQ4" s="14">
         <f t="shared" si="495"/>
-        <v>43416</v>
+        <v>43781</v>
       </c>
       <c r="LR4" s="14">
         <f t="shared" si="495"/>
-        <v>43417</v>
+        <v>43782</v>
       </c>
       <c r="LS4" s="14">
         <f t="shared" si="495"/>
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="LT4" s="14">
         <f t="shared" si="495"/>
-        <v>43419</v>
+        <v>43784</v>
       </c>
       <c r="LU4" s="14">
         <f t="shared" si="495"/>
-        <v>43420</v>
+        <v>43785</v>
       </c>
       <c r="LV4" s="14">
         <f t="shared" si="495"/>
-        <v>43421</v>
+        <v>43786</v>
       </c>
       <c r="LW4" s="14">
         <f t="shared" si="495"/>
-        <v>43422</v>
+        <v>43787</v>
       </c>
       <c r="LX4" s="14">
         <f t="shared" si="495"/>
-        <v>43423</v>
+        <v>43788</v>
       </c>
       <c r="LY4" s="14">
         <f t="shared" si="495"/>
-        <v>43424</v>
+        <v>43789</v>
       </c>
       <c r="LZ4" s="14">
         <f t="shared" si="495"/>
-        <v>43425</v>
+        <v>43790</v>
       </c>
       <c r="MA4" s="14">
         <f t="shared" si="495"/>
-        <v>43426</v>
+        <v>43791</v>
       </c>
       <c r="MB4" s="14">
         <f t="shared" si="495"/>
-        <v>43427</v>
+        <v>43792</v>
       </c>
       <c r="MC4" s="14">
         <f t="shared" si="495"/>
-        <v>43428</v>
+        <v>43793</v>
       </c>
       <c r="MD4" s="14">
         <f t="shared" si="495"/>
-        <v>43429</v>
+        <v>43794</v>
       </c>
       <c r="ME4" s="14">
         <f t="shared" si="495"/>
-        <v>43430</v>
+        <v>43795</v>
       </c>
       <c r="MF4" s="14">
         <f t="shared" si="495"/>
-        <v>43431</v>
+        <v>43796</v>
       </c>
       <c r="MG4" s="14">
         <f t="shared" si="495"/>
-        <v>43432</v>
+        <v>43797</v>
       </c>
       <c r="MH4" s="14">
         <f t="shared" si="495"/>
-        <v>43433</v>
+        <v>43798</v>
       </c>
       <c r="MI4" s="14">
         <f t="shared" si="495"/>
-        <v>43434</v>
+        <v>43799</v>
       </c>
       <c r="MJ4" s="14">
         <f t="shared" si="495"/>
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="MK4" s="14">
         <f t="shared" si="495"/>
-        <v>43436</v>
+        <v>43801</v>
       </c>
       <c r="ML4" s="14">
         <f t="shared" si="495"/>
-        <v>43437</v>
+        <v>43802</v>
       </c>
       <c r="MM4" s="14">
         <f t="shared" si="495"/>
-        <v>43438</v>
+        <v>43803</v>
       </c>
       <c r="MN4" s="14">
         <f t="shared" si="495"/>
-        <v>43439</v>
+        <v>43804</v>
       </c>
       <c r="MO4" s="14">
         <f t="shared" si="495"/>
-        <v>43440</v>
+        <v>43805</v>
       </c>
       <c r="MP4" s="14">
         <f t="shared" si="495"/>
-        <v>43441</v>
+        <v>43806</v>
       </c>
       <c r="MQ4" s="14">
         <f t="shared" si="495"/>
-        <v>43442</v>
+        <v>43807</v>
       </c>
       <c r="MR4" s="14">
         <f t="shared" ref="MR4:NN4" si="496">MR3</f>
-        <v>43443</v>
+        <v>43808</v>
       </c>
       <c r="MS4" s="14">
         <f t="shared" si="496"/>
-        <v>43444</v>
+        <v>43809</v>
       </c>
       <c r="MT4" s="14">
         <f t="shared" si="496"/>
-        <v>43445</v>
+        <v>43810</v>
       </c>
       <c r="MU4" s="14">
         <f t="shared" si="496"/>
-        <v>43446</v>
+        <v>43811</v>
       </c>
       <c r="MV4" s="14">
         <f t="shared" si="496"/>
-        <v>43447</v>
+        <v>43812</v>
       </c>
       <c r="MW4" s="14">
         <f t="shared" si="496"/>
-        <v>43448</v>
+        <v>43813</v>
       </c>
       <c r="MX4" s="14">
         <f t="shared" si="496"/>
-        <v>43449</v>
+        <v>43814</v>
       </c>
       <c r="MY4" s="14">
         <f t="shared" si="496"/>
-        <v>43450</v>
+        <v>43815</v>
       </c>
       <c r="MZ4" s="14">
         <f t="shared" si="496"/>
-        <v>43451</v>
+        <v>43816</v>
       </c>
       <c r="NA4" s="14">
         <f t="shared" si="496"/>
-        <v>43452</v>
+        <v>43817</v>
       </c>
       <c r="NB4" s="14">
         <f t="shared" si="496"/>
-        <v>43453</v>
+        <v>43818</v>
       </c>
       <c r="NC4" s="14">
         <f t="shared" si="496"/>
-        <v>43454</v>
+        <v>43819</v>
       </c>
       <c r="ND4" s="14">
         <f t="shared" si="496"/>
-        <v>43455</v>
+        <v>43820</v>
       </c>
       <c r="NE4" s="14">
         <f t="shared" si="496"/>
-        <v>43456</v>
+        <v>43821</v>
       </c>
       <c r="NF4" s="14">
         <f t="shared" si="496"/>
-        <v>43457</v>
+        <v>43822</v>
       </c>
       <c r="NG4" s="14">
         <f t="shared" si="496"/>
-        <v>43458</v>
+        <v>43823</v>
       </c>
       <c r="NH4" s="14">
         <f t="shared" si="496"/>
-        <v>43459</v>
+        <v>43824</v>
       </c>
       <c r="NI4" s="14">
         <f t="shared" si="496"/>
-        <v>43460</v>
+        <v>43825</v>
       </c>
       <c r="NJ4" s="14">
         <f t="shared" si="496"/>
-        <v>43461</v>
+        <v>43826</v>
       </c>
       <c r="NK4" s="14">
         <f t="shared" si="496"/>
-        <v>43462</v>
+        <v>43827</v>
       </c>
       <c r="NL4" s="14">
         <f t="shared" si="496"/>
-        <v>43463</v>
+        <v>43828</v>
       </c>
       <c r="NM4" s="14">
         <f t="shared" si="496"/>
-        <v>43464</v>
+        <v>43829</v>
       </c>
       <c r="NN4" s="14">
         <f t="shared" si="496"/>
-        <v>43465</v>
+        <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="20"/>
       <c r="L5" s="21"/>
       <c r="M5" s="22"/>
@@ -6896,17 +6875,17 @@
       <c r="HR5" s="10"/>
       <c r="HS5" s="10"/>
     </row>
-    <row r="6" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6"/>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="26"/>
       <c r="L6" s="21"/>
       <c r="M6" s="22"/>
@@ -7125,17 +7104,17 @@
       <c r="HR6" s="10"/>
       <c r="HS6" s="10"/>
     </row>
-    <row r="7" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="27"/>
       <c r="L7" s="21"/>
       <c r="M7" s="22"/>
@@ -7354,17 +7333,17 @@
       <c r="HR7" s="10"/>
       <c r="HS7" s="10"/>
     </row>
-    <row r="8" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="27"/>
       <c r="L8" s="21"/>
       <c r="M8" s="22"/>
@@ -7583,17 +7562,17 @@
       <c r="HR8" s="10"/>
       <c r="HS8" s="10"/>
     </row>
-    <row r="9" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="27"/>
       <c r="L9" s="21"/>
       <c r="M9" s="22"/>
@@ -7812,17 +7791,17 @@
       <c r="HR9" s="10"/>
       <c r="HS9" s="10"/>
     </row>
-    <row r="10" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="27"/>
       <c r="L10" s="21"/>
       <c r="M10" s="22"/>
@@ -8041,17 +8020,17 @@
       <c r="HR10" s="10"/>
       <c r="HS10" s="10"/>
     </row>
-    <row r="11" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="27"/>
       <c r="L11" s="21"/>
       <c r="M11" s="22"/>
@@ -8270,17 +8249,17 @@
       <c r="HR11" s="10"/>
       <c r="HS11" s="10"/>
     </row>
-    <row r="12" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12" s="17"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="27"/>
       <c r="L12" s="21"/>
       <c r="M12" s="22"/>
@@ -8499,17 +8478,17 @@
       <c r="HR12" s="10"/>
       <c r="HS12" s="10"/>
     </row>
-    <row r="13" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="27"/>
       <c r="L13" s="21"/>
       <c r="M13" s="22"/>
@@ -8728,17 +8707,17 @@
       <c r="HR13" s="10"/>
       <c r="HS13" s="10"/>
     </row>
-    <row r="14" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="27"/>
       <c r="L14" s="21"/>
       <c r="M14" s="22"/>
@@ -8957,17 +8936,17 @@
       <c r="HR14" s="10"/>
       <c r="HS14" s="10"/>
     </row>
-    <row r="15" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15"/>
       <c r="B15" s="23"/>
       <c r="C15" s="18"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="27"/>
       <c r="L15" s="21"/>
       <c r="M15" s="22"/>
@@ -9186,17 +9165,17 @@
       <c r="HR15" s="10"/>
       <c r="HS15" s="10"/>
     </row>
-    <row r="16" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16" s="23"/>
       <c r="C16" s="18"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="27"/>
       <c r="L16" s="21"/>
       <c r="M16" s="22"/>
@@ -9415,17 +9394,17 @@
       <c r="HR16" s="10"/>
       <c r="HS16" s="10"/>
     </row>
-    <row r="17" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17"/>
       <c r="B17" s="23"/>
       <c r="C17" s="18"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="27"/>
       <c r="L17" s="21"/>
       <c r="M17" s="22"/>
@@ -9644,17 +9623,17 @@
       <c r="HR17" s="10"/>
       <c r="HS17" s="10"/>
     </row>
-    <row r="18" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" s="23"/>
       <c r="C18" s="18"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="27"/>
       <c r="L18" s="21"/>
       <c r="M18" s="22"/>
@@ -9873,17 +9852,17 @@
       <c r="HR18" s="10"/>
       <c r="HS18" s="10"/>
     </row>
-    <row r="19" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="27"/>
       <c r="L19" s="21"/>
       <c r="M19" s="22"/>
@@ -10102,17 +10081,17 @@
       <c r="HR19" s="10"/>
       <c r="HS19" s="10"/>
     </row>
-    <row r="20" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="27"/>
       <c r="L20" s="21"/>
       <c r="M20" s="22"/>
@@ -10331,17 +10310,17 @@
       <c r="HR20" s="10"/>
       <c r="HS20" s="10"/>
     </row>
-    <row r="21" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="27"/>
       <c r="L21" s="21"/>
       <c r="M21" s="22"/>
@@ -10560,17 +10539,17 @@
       <c r="HR21" s="10"/>
       <c r="HS21" s="10"/>
     </row>
-    <row r="22" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="27"/>
       <c r="L22" s="21"/>
       <c r="M22" s="22"/>
@@ -10789,17 +10768,17 @@
       <c r="HR22" s="10"/>
       <c r="HS22" s="10"/>
     </row>
-    <row r="23" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="18"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="27"/>
       <c r="L23" s="21"/>
       <c r="M23" s="22"/>
@@ -11018,17 +10997,17 @@
       <c r="HR23" s="10"/>
       <c r="HS23" s="10"/>
     </row>
-    <row r="24" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24"/>
       <c r="B24" s="23"/>
       <c r="C24" s="18"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="27"/>
       <c r="L24" s="21"/>
       <c r="M24" s="22"/>
@@ -11247,17 +11226,17 @@
       <c r="HR24" s="10"/>
       <c r="HS24" s="10"/>
     </row>
-    <row r="25" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25" s="23"/>
       <c r="C25" s="18"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="27"/>
       <c r="L25" s="21"/>
       <c r="M25" s="22"/>
@@ -11476,17 +11455,17 @@
       <c r="HR25" s="10"/>
       <c r="HS25" s="10"/>
     </row>
-    <row r="26" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26"/>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="27"/>
       <c r="L26" s="21"/>
       <c r="M26" s="22"/>
@@ -11705,17 +11684,17 @@
       <c r="HR26" s="10"/>
       <c r="HS26" s="10"/>
     </row>
-    <row r="27" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="27"/>
       <c r="L27" s="21"/>
       <c r="M27" s="22"/>
@@ -11934,17 +11913,17 @@
       <c r="HR27" s="10"/>
       <c r="HS27" s="10"/>
     </row>
-    <row r="28" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="27"/>
       <c r="L28" s="21"/>
       <c r="M28" s="22"/>
@@ -12163,17 +12142,17 @@
       <c r="HR28" s="10"/>
       <c r="HS28" s="10"/>
     </row>
-    <row r="29" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="27"/>
       <c r="L29" s="21"/>
       <c r="M29" s="22"/>
@@ -12392,17 +12371,17 @@
       <c r="HR29" s="10"/>
       <c r="HS29" s="10"/>
     </row>
-    <row r="30" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30"/>
       <c r="B30" s="23"/>
       <c r="C30" s="18"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="27"/>
       <c r="L30" s="21"/>
       <c r="M30" s="22"/>
@@ -12621,17 +12600,17 @@
       <c r="HR30" s="10"/>
       <c r="HS30" s="10"/>
     </row>
-    <row r="31" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31"/>
       <c r="B31" s="23"/>
       <c r="C31" s="18"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="27"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
@@ -12850,17 +12829,17 @@
       <c r="HR31" s="10"/>
       <c r="HS31" s="10"/>
     </row>
-    <row r="32" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="23"/>
       <c r="C32" s="18"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="27"/>
       <c r="L32" s="21"/>
       <c r="M32" s="22"/>
@@ -13079,17 +13058,17 @@
       <c r="HR32" s="10"/>
       <c r="HS32" s="10"/>
     </row>
-    <row r="33" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="27"/>
       <c r="L33" s="21"/>
       <c r="M33" s="22"/>
@@ -13308,17 +13287,17 @@
       <c r="HR33" s="10"/>
       <c r="HS33" s="10"/>
     </row>
-    <row r="34" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="27"/>
       <c r="L34" s="21"/>
       <c r="M34" s="22"/>
@@ -13537,17 +13516,17 @@
       <c r="HR34" s="10"/>
       <c r="HS34" s="10"/>
     </row>
-    <row r="35" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="23"/>
       <c r="C35" s="18"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="27"/>
       <c r="L35" s="21"/>
       <c r="M35" s="22"/>
@@ -13766,17 +13745,17 @@
       <c r="HR35" s="10"/>
       <c r="HS35" s="10"/>
     </row>
-    <row r="36" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="23"/>
       <c r="C36" s="18"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="27"/>
       <c r="L36" s="21"/>
       <c r="M36" s="22"/>
@@ -13995,17 +13974,17 @@
       <c r="HR36" s="10"/>
       <c r="HS36" s="10"/>
     </row>
-    <row r="37" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="23"/>
       <c r="C37" s="18"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="27"/>
       <c r="L37" s="21"/>
       <c r="M37" s="22"/>
@@ -14224,17 +14203,17 @@
       <c r="HR37" s="10"/>
       <c r="HS37" s="10"/>
     </row>
-    <row r="38" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="27"/>
       <c r="L38" s="21"/>
       <c r="M38" s="22"/>
@@ -14453,17 +14432,17 @@
       <c r="HR38" s="10"/>
       <c r="HS38" s="10"/>
     </row>
-    <row r="39" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="27"/>
       <c r="L39" s="21"/>
       <c r="M39" s="22"/>
@@ -14682,17 +14661,17 @@
       <c r="HR39" s="10"/>
       <c r="HS39" s="10"/>
     </row>
-    <row r="40" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="23"/>
       <c r="C40" s="18"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="27"/>
       <c r="L40" s="21"/>
       <c r="M40" s="22"/>
@@ -14911,17 +14890,17 @@
       <c r="HR40" s="10"/>
       <c r="HS40" s="10"/>
     </row>
-    <row r="41" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41" s="23"/>
       <c r="C41" s="18"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="27"/>
       <c r="L41" s="21"/>
       <c r="M41" s="22"/>
@@ -15140,17 +15119,17 @@
       <c r="HR41" s="10"/>
       <c r="HS41" s="10"/>
     </row>
-    <row r="42" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42"/>
       <c r="B42" s="23"/>
       <c r="C42" s="18"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="27"/>
       <c r="L42" s="21"/>
       <c r="M42" s="22"/>
@@ -15369,17 +15348,17 @@
       <c r="HR42" s="10"/>
       <c r="HS42" s="10"/>
     </row>
-    <row r="43" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="27"/>
       <c r="L43" s="21"/>
       <c r="M43" s="22"/>
@@ -15598,17 +15577,17 @@
       <c r="HR43" s="10"/>
       <c r="HS43" s="10"/>
     </row>
-    <row r="44" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="27"/>
       <c r="L44" s="21"/>
       <c r="M44" s="22"/>
@@ -15827,17 +15806,17 @@
       <c r="HR44" s="10"/>
       <c r="HS44" s="10"/>
     </row>
-    <row r="45" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="27"/>
       <c r="L45" s="21"/>
       <c r="M45" s="22"/>
@@ -16056,17 +16035,17 @@
       <c r="HR45" s="10"/>
       <c r="HS45" s="10"/>
     </row>
-    <row r="46" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="27"/>
       <c r="L46" s="21"/>
       <c r="M46" s="22"/>
@@ -16285,17 +16264,17 @@
       <c r="HR46" s="10"/>
       <c r="HS46" s="10"/>
     </row>
-    <row r="47" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="27"/>
       <c r="L47" s="21"/>
       <c r="M47" s="22"/>
@@ -16514,17 +16493,17 @@
       <c r="HR47" s="10"/>
       <c r="HS47" s="10"/>
     </row>
-    <row r="48" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="B48" s="23"/>
       <c r="C48" s="18"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="27"/>
       <c r="L48" s="21"/>
       <c r="M48" s="22"/>
@@ -16743,17 +16722,17 @@
       <c r="HR48" s="10"/>
       <c r="HS48" s="10"/>
     </row>
-    <row r="49" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49"/>
       <c r="B49" s="23"/>
       <c r="C49" s="18"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="27"/>
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
@@ -16972,17 +16951,17 @@
       <c r="HR49" s="10"/>
       <c r="HS49" s="10"/>
     </row>
-    <row r="50" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50"/>
       <c r="B50" s="23"/>
       <c r="C50" s="18"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="27"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22"/>
@@ -17201,17 +17180,17 @@
       <c r="HR50" s="10"/>
       <c r="HS50" s="10"/>
     </row>
-    <row r="51" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="27"/>
       <c r="L51" s="21"/>
       <c r="M51" s="22"/>
@@ -17430,17 +17409,17 @@
       <c r="HR51" s="10"/>
       <c r="HS51" s="10"/>
     </row>
-    <row r="52" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
       <c r="K52" s="27"/>
       <c r="L52" s="21"/>
       <c r="M52" s="22"/>
@@ -17659,17 +17638,17 @@
       <c r="HR52" s="10"/>
       <c r="HS52" s="10"/>
     </row>
-    <row r="53" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53"/>
       <c r="B53" s="23"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="27"/>
       <c r="L53" s="21"/>
       <c r="M53" s="22"/>
@@ -17888,17 +17867,17 @@
       <c r="HR53" s="10"/>
       <c r="HS53" s="10"/>
     </row>
-    <row r="54" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54"/>
       <c r="B54" s="23"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="20"/>
       <c r="L54" s="21"/>
       <c r="M54" s="22"/>
@@ -18117,17 +18096,17 @@
       <c r="HR54" s="10"/>
       <c r="HS54" s="10"/>
     </row>
-    <row r="55" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55"/>
       <c r="B55" s="28"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
       <c r="F55" s="30"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
       <c r="K55" s="31"/>
       <c r="L55" s="32"/>
       <c r="M55" s="33"/>
@@ -18346,17 +18325,17 @@
       <c r="HR55" s="4"/>
       <c r="HS55" s="4"/>
     </row>
-    <row r="56" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56"/>
       <c r="B56" s="28"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="30"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
       <c r="K56" s="31"/>
       <c r="L56" s="32"/>
       <c r="M56" s="33"/>
@@ -18575,17 +18554,17 @@
       <c r="HR56" s="4"/>
       <c r="HS56" s="4"/>
     </row>
-    <row r="57" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57"/>
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="30"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
       <c r="K57" s="31"/>
       <c r="L57" s="32"/>
       <c r="M57" s="33"/>
@@ -18804,17 +18783,17 @@
       <c r="HR57" s="4"/>
       <c r="HS57" s="4"/>
     </row>
-    <row r="58" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58"/>
       <c r="B58" s="28"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="30"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
       <c r="K58" s="31"/>
       <c r="L58" s="32"/>
       <c r="M58" s="33"/>
@@ -19033,17 +19012,17 @@
       <c r="HR58" s="4"/>
       <c r="HS58" s="4"/>
     </row>
-    <row r="59" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59"/>
       <c r="B59" s="28"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
       <c r="F59" s="30"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
       <c r="K59" s="31"/>
       <c r="L59" s="32"/>
       <c r="M59" s="33"/>
@@ -19262,17 +19241,17 @@
       <c r="HR59" s="4"/>
       <c r="HS59" s="4"/>
     </row>
-    <row r="60" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
       <c r="F60" s="30"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
       <c r="K60" s="31"/>
       <c r="L60" s="32"/>
       <c r="M60" s="33"/>
@@ -19491,17 +19470,17 @@
       <c r="HR60" s="4"/>
       <c r="HS60" s="4"/>
     </row>
-    <row r="61" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61"/>
       <c r="B61" s="28"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
       <c r="F61" s="30"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
       <c r="K61" s="31"/>
       <c r="L61" s="32"/>
       <c r="M61" s="33"/>
@@ -19720,17 +19699,17 @@
       <c r="HR61" s="4"/>
       <c r="HS61" s="4"/>
     </row>
-    <row r="62" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62"/>
       <c r="B62" s="28"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
       <c r="F62" s="30"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
       <c r="K62" s="31"/>
       <c r="L62" s="32"/>
       <c r="M62" s="33"/>
@@ -19949,17 +19928,17 @@
       <c r="HR62" s="4"/>
       <c r="HS62" s="4"/>
     </row>
-    <row r="63" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63"/>
       <c r="B63" s="28"/>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
       <c r="F63" s="30"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
       <c r="K63" s="31"/>
       <c r="L63" s="32"/>
       <c r="M63" s="33"/>
@@ -20178,17 +20157,17 @@
       <c r="HR63" s="4"/>
       <c r="HS63" s="4"/>
     </row>
-    <row r="64" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64"/>
       <c r="B64" s="28"/>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
       <c r="F64" s="30"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
       <c r="K64" s="31"/>
       <c r="L64" s="32"/>
       <c r="M64" s="33"/>
@@ -20407,17 +20386,17 @@
       <c r="HR64" s="4"/>
       <c r="HS64" s="4"/>
     </row>
-    <row r="65" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="28"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
       <c r="F65" s="30"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
       <c r="K65" s="31"/>
       <c r="L65" s="32"/>
       <c r="M65" s="33"/>
@@ -20636,17 +20615,17 @@
       <c r="HR65" s="4"/>
       <c r="HS65" s="4"/>
     </row>
-    <row r="66" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="28"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
       <c r="F66" s="30"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
       <c r="K66" s="31"/>
       <c r="L66" s="32"/>
       <c r="M66" s="33"/>
@@ -20865,17 +20844,17 @@
       <c r="HR66" s="4"/>
       <c r="HS66" s="4"/>
     </row>
-    <row r="67" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67"/>
       <c r="B67" s="28"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
       <c r="F67" s="30"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
       <c r="K67" s="31"/>
       <c r="L67" s="32"/>
       <c r="M67" s="33"/>
@@ -21094,17 +21073,17 @@
       <c r="HR67" s="4"/>
       <c r="HS67" s="4"/>
     </row>
-    <row r="68" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68"/>
       <c r="B68" s="28"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="30"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
       <c r="K68" s="31"/>
       <c r="L68" s="32"/>
       <c r="M68" s="33"/>
@@ -21323,17 +21302,17 @@
       <c r="HR68" s="4"/>
       <c r="HS68" s="4"/>
     </row>
-    <row r="69" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69"/>
       <c r="B69" s="28"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
       <c r="F69" s="30"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
       <c r="K69" s="31"/>
       <c r="L69" s="32"/>
       <c r="M69" s="33"/>
@@ -21552,17 +21531,17 @@
       <c r="HR69" s="4"/>
       <c r="HS69" s="4"/>
     </row>
-    <row r="70" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="28"/>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
       <c r="F70" s="30"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
       <c r="K70" s="31"/>
       <c r="L70" s="32"/>
       <c r="M70" s="33"/>
@@ -21781,17 +21760,17 @@
       <c r="HR70" s="4"/>
       <c r="HS70" s="4"/>
     </row>
-    <row r="71" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="28"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
       <c r="F71" s="30"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
       <c r="K71" s="31"/>
       <c r="L71" s="32"/>
       <c r="M71" s="33"/>
@@ -22010,17 +21989,17 @@
       <c r="HR71" s="4"/>
       <c r="HS71" s="4"/>
     </row>
-    <row r="72" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72"/>
       <c r="B72" s="28"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
       <c r="F72" s="30"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
       <c r="K72" s="31"/>
       <c r="L72" s="32"/>
       <c r="M72" s="33"/>
@@ -22239,17 +22218,17 @@
       <c r="HR72" s="4"/>
       <c r="HS72" s="4"/>
     </row>
-    <row r="73" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73"/>
       <c r="B73" s="28"/>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
       <c r="F73" s="30"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
       <c r="K73" s="31"/>
       <c r="L73" s="32"/>
       <c r="M73" s="33"/>
@@ -22468,17 +22447,17 @@
       <c r="HR73" s="4"/>
       <c r="HS73" s="4"/>
     </row>
-    <row r="74" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74"/>
       <c r="B74" s="28"/>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
       <c r="F74" s="30"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
       <c r="K74" s="31"/>
       <c r="L74" s="32"/>
       <c r="M74" s="33"/>
@@ -22697,17 +22676,17 @@
       <c r="HR74" s="4"/>
       <c r="HS74" s="4"/>
     </row>
-    <row r="75" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="28"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
       <c r="F75" s="30"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
       <c r="K75" s="31"/>
       <c r="L75" s="32"/>
       <c r="M75" s="33"/>
@@ -22926,17 +22905,17 @@
       <c r="HR75" s="4"/>
       <c r="HS75" s="4"/>
     </row>
-    <row r="76" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="28"/>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="30"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
       <c r="K76" s="31"/>
       <c r="L76" s="32"/>
       <c r="M76" s="33"/>
@@ -23155,17 +23134,17 @@
       <c r="HR76" s="4"/>
       <c r="HS76" s="4"/>
     </row>
-    <row r="77" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77"/>
       <c r="B77" s="28"/>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
       <c r="F77" s="30"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
       <c r="K77" s="31"/>
       <c r="L77" s="32"/>
       <c r="M77" s="33"/>
@@ -23384,17 +23363,17 @@
       <c r="HR77" s="4"/>
       <c r="HS77" s="4"/>
     </row>
-    <row r="78" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78"/>
       <c r="B78" s="28"/>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="30"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
       <c r="K78" s="31"/>
       <c r="L78" s="32"/>
       <c r="M78" s="33"/>
@@ -23613,17 +23592,17 @@
       <c r="HR78" s="4"/>
       <c r="HS78" s="4"/>
     </row>
-    <row r="79" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
       <c r="F79" s="30"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
       <c r="K79" s="31"/>
       <c r="L79" s="32"/>
       <c r="M79" s="33"/>
@@ -23842,17 +23821,17 @@
       <c r="HR79" s="4"/>
       <c r="HS79" s="4"/>
     </row>
-    <row r="80" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80"/>
       <c r="B80" s="28"/>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
       <c r="F80" s="30"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
       <c r="K80" s="31"/>
       <c r="L80" s="32"/>
       <c r="M80" s="33"/>
@@ -24071,17 +24050,17 @@
       <c r="HR80" s="4"/>
       <c r="HS80" s="4"/>
     </row>
-    <row r="81" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81"/>
       <c r="B81" s="28"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="30"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
       <c r="K81" s="31"/>
       <c r="L81" s="32"/>
       <c r="M81" s="33"/>
@@ -24300,17 +24279,17 @@
       <c r="HR81" s="4"/>
       <c r="HS81" s="4"/>
     </row>
-    <row r="82" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82"/>
       <c r="B82" s="28"/>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="30"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
       <c r="K82" s="31"/>
       <c r="L82" s="32"/>
       <c r="M82" s="33"/>
@@ -24529,17 +24508,17 @@
       <c r="HR82" s="4"/>
       <c r="HS82" s="4"/>
     </row>
-    <row r="83" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83"/>
       <c r="B83" s="28"/>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="30"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
       <c r="K83" s="31"/>
       <c r="L83" s="32"/>
       <c r="M83" s="33"/>
@@ -24758,17 +24737,17 @@
       <c r="HR83" s="4"/>
       <c r="HS83" s="4"/>
     </row>
-    <row r="84" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84"/>
       <c r="B84" s="28"/>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="30"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
       <c r="K84" s="31"/>
       <c r="L84" s="32"/>
       <c r="M84" s="33"/>
@@ -24987,17 +24966,17 @@
       <c r="HR84" s="4"/>
       <c r="HS84" s="4"/>
     </row>
-    <row r="85" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="28"/>
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
       <c r="F85" s="30"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
       <c r="K85" s="31"/>
       <c r="L85" s="32"/>
       <c r="M85" s="33"/>
@@ -25216,17 +25195,17 @@
       <c r="HR85" s="4"/>
       <c r="HS85" s="4"/>
     </row>
-    <row r="86" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="28"/>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="30"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
       <c r="K86" s="31"/>
       <c r="L86" s="32"/>
       <c r="M86" s="33"/>
@@ -25445,17 +25424,17 @@
       <c r="HR86" s="4"/>
       <c r="HS86" s="4"/>
     </row>
-    <row r="87" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87"/>
       <c r="B87" s="28"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
       <c r="F87" s="30"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
       <c r="K87" s="31"/>
       <c r="L87" s="32"/>
       <c r="M87" s="33"/>
@@ -25674,17 +25653,17 @@
       <c r="HR87" s="4"/>
       <c r="HS87" s="4"/>
     </row>
-    <row r="88" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88"/>
       <c r="B88" s="28"/>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="30"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
       <c r="K88" s="31"/>
       <c r="L88" s="32"/>
       <c r="M88" s="33"/>
@@ -25903,17 +25882,17 @@
       <c r="HR88" s="4"/>
       <c r="HS88" s="4"/>
     </row>
-    <row r="89" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89"/>
       <c r="B89" s="28"/>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="30"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
       <c r="K89" s="31"/>
       <c r="L89" s="32"/>
       <c r="M89" s="33"/>
@@ -26132,17 +26111,17 @@
       <c r="HR89" s="4"/>
       <c r="HS89" s="4"/>
     </row>
-    <row r="90" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90"/>
       <c r="B90" s="28"/>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="30"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
       <c r="K90" s="31"/>
       <c r="L90" s="32"/>
       <c r="M90" s="33"/>
@@ -26361,17 +26340,17 @@
       <c r="HR90" s="4"/>
       <c r="HS90" s="4"/>
     </row>
-    <row r="91" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91"/>
       <c r="B91" s="28"/>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="30"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
       <c r="K91" s="31"/>
       <c r="L91" s="32"/>
       <c r="M91" s="33"/>
@@ -26590,17 +26569,17 @@
       <c r="HR91" s="4"/>
       <c r="HS91" s="4"/>
     </row>
-    <row r="92" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92"/>
       <c r="B92" s="28"/>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="30"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
       <c r="K92" s="31"/>
       <c r="L92" s="32"/>
       <c r="M92" s="33"/>
@@ -26819,17 +26798,17 @@
       <c r="HR92" s="4"/>
       <c r="HS92" s="4"/>
     </row>
-    <row r="93" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93"/>
       <c r="B93" s="28"/>
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="30"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
       <c r="K93" s="31"/>
       <c r="L93" s="32"/>
       <c r="M93" s="33"/>
@@ -27048,17 +27027,17 @@
       <c r="HR93" s="4"/>
       <c r="HS93" s="4"/>
     </row>
-    <row r="94" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="28"/>
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="30"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
       <c r="K94" s="31"/>
       <c r="L94" s="32"/>
       <c r="M94" s="33"/>
@@ -27277,17 +27256,17 @@
       <c r="HR94" s="4"/>
       <c r="HS94" s="4"/>
     </row>
-    <row r="95" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="28"/>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
       <c r="F95" s="30"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
       <c r="K95" s="31"/>
       <c r="L95" s="32"/>
       <c r="M95" s="33"/>
@@ -27506,17 +27485,17 @@
       <c r="HR95" s="4"/>
       <c r="HS95" s="4"/>
     </row>
-    <row r="96" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96"/>
       <c r="B96" s="28"/>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="30"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
       <c r="K96" s="31"/>
       <c r="L96" s="32"/>
       <c r="M96" s="33"/>
@@ -27735,17 +27714,17 @@
       <c r="HR96" s="4"/>
       <c r="HS96" s="4"/>
     </row>
-    <row r="97" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97"/>
       <c r="B97" s="28"/>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
       <c r="F97" s="30"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
       <c r="K97" s="31"/>
       <c r="L97" s="32"/>
       <c r="M97" s="33"/>
@@ -27964,17 +27943,17 @@
       <c r="HR97" s="4"/>
       <c r="HS97" s="4"/>
     </row>
-    <row r="98" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98"/>
       <c r="B98" s="28"/>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="30"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
       <c r="K98" s="31"/>
       <c r="L98" s="32"/>
       <c r="M98" s="33"/>
@@ -28193,17 +28172,17 @@
       <c r="HR98" s="4"/>
       <c r="HS98" s="4"/>
     </row>
-    <row r="99" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99"/>
       <c r="B99" s="28"/>
       <c r="C99" s="29"/>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="30"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
       <c r="K99" s="31"/>
       <c r="L99" s="32"/>
       <c r="M99" s="33"/>
@@ -28422,17 +28401,17 @@
       <c r="HR99" s="4"/>
       <c r="HS99" s="4"/>
     </row>
-    <row r="100" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100"/>
       <c r="B100" s="28"/>
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="30"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
       <c r="K100" s="31"/>
       <c r="L100" s="32"/>
       <c r="M100" s="33"/>
@@ -28651,17 +28630,17 @@
       <c r="HR100" s="4"/>
       <c r="HS100" s="4"/>
     </row>
-    <row r="101" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="28"/>
       <c r="C101" s="29"/>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
       <c r="F101" s="30"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
       <c r="K101" s="31"/>
       <c r="L101" s="32"/>
       <c r="M101" s="33"/>
@@ -28880,17 +28859,17 @@
       <c r="HR101" s="4"/>
       <c r="HS101" s="4"/>
     </row>
-    <row r="102" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="28"/>
       <c r="C102" s="29"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
       <c r="F102" s="30"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
       <c r="K102" s="31"/>
       <c r="L102" s="32"/>
       <c r="M102" s="33"/>
@@ -29109,17 +29088,17 @@
       <c r="HR102" s="4"/>
       <c r="HS102" s="4"/>
     </row>
-    <row r="103" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="28"/>
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
       <c r="F103" s="30"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
       <c r="K103" s="31"/>
       <c r="L103" s="32"/>
       <c r="M103" s="33"/>
@@ -29338,17 +29317,17 @@
       <c r="HR103" s="4"/>
       <c r="HS103" s="4"/>
     </row>
-    <row r="104" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="28"/>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
       <c r="F104" s="30"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
       <c r="K104" s="31"/>
       <c r="L104" s="32"/>
       <c r="M104" s="33"/>
@@ -29567,17 +29546,17 @@
       <c r="HR104" s="4"/>
       <c r="HS104" s="4"/>
     </row>
-    <row r="105" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="28"/>
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
       <c r="F105" s="30"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
       <c r="K105" s="31"/>
       <c r="L105" s="32"/>
       <c r="M105" s="33"/>
@@ -29796,17 +29775,17 @@
       <c r="HR105" s="4"/>
       <c r="HS105" s="4"/>
     </row>
-    <row r="106" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106"/>
       <c r="B106" s="28"/>
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
       <c r="F106" s="30"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
       <c r="K106" s="31"/>
       <c r="L106" s="32"/>
       <c r="M106" s="33"/>
@@ -30025,17 +30004,17 @@
       <c r="HR106" s="4"/>
       <c r="HS106" s="4"/>
     </row>
-    <row r="107" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107"/>
       <c r="B107" s="28"/>
       <c r="C107" s="29"/>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
       <c r="F107" s="30"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
       <c r="K107" s="31"/>
       <c r="L107" s="32"/>
       <c r="M107" s="33"/>
@@ -30254,17 +30233,17 @@
       <c r="HR107" s="4"/>
       <c r="HS107" s="4"/>
     </row>
-    <row r="108" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108"/>
       <c r="B108" s="28"/>
       <c r="C108" s="29"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
       <c r="F108" s="30"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
       <c r="K108" s="31"/>
       <c r="L108" s="32"/>
       <c r="M108" s="33"/>
@@ -30483,17 +30462,17 @@
       <c r="HR108" s="4"/>
       <c r="HS108" s="4"/>
     </row>
-    <row r="109" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109" s="28"/>
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
       <c r="F109" s="30"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
       <c r="K109" s="31"/>
       <c r="L109" s="32"/>
       <c r="M109" s="33"/>
@@ -30712,17 +30691,17 @@
       <c r="HR109" s="4"/>
       <c r="HS109" s="4"/>
     </row>
-    <row r="110" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110" s="28"/>
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
       <c r="F110" s="30"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
       <c r="K110" s="31"/>
       <c r="L110" s="32"/>
       <c r="M110" s="33"/>
@@ -31005,272 +30984,236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292073A-16DD-492A-A99F-3B0CB66F1134}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="38">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="38">
-        <v>43108</v>
+        <v>43479</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="38">
-        <v>43142</v>
+        <v>43507</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="38">
-        <v>43143</v>
+        <v>43545</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="38">
-        <v>43180</v>
+        <v>43584</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="38">
-        <v>43219</v>
+        <v>43586</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="38">
-        <v>43220</v>
+        <v>43588</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
-        <v>43223</v>
+        <v>43589</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
-        <v>43224</v>
+        <v>43590</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
-        <v>43225</v>
+        <v>43591</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
+        <v>43661</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>43297</v>
-      </c>
-      <c r="B11" s="39" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
+        <v>43688</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>43322</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>31</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
+        <v>43689</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>43323</v>
-      </c>
-      <c r="B13" s="39" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="38">
+        <v>43724</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>43325</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>31</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="38">
+        <v>43731</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>43326</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>31</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="38">
+        <v>43752</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>43327</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>31</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="38">
+        <v>43760</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>43328</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>31</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="38">
+        <v>43772</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>43329</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>31</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="38">
+        <v>43773</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>43332</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>31</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="38">
+        <v>43792</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>43357</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>31</v>
-      </c>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>43360</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>24</v>
-      </c>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>43366</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>43367</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>26</v>
-      </c>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>43381</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>27</v>
-      </c>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>43395</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>31</v>
-      </c>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>43407</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>28</v>
-      </c>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>43420</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>31</v>
-      </c>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>43426</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>32</v>
-      </c>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
-        <v>43427</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
-        <v>43444</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>31</v>
-      </c>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
-        <v>43457</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>30</v>
-      </c>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
-        <v>43458</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>26</v>
-      </c>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/WBS_template.xlsx
+++ b/WBS_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_1982D5DBEB995F230F3B57643EC7FCDDAEE297F2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7800EBE8-1646-452B-8928-137854FB1507}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="6375"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -12,24 +13,30 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$B$1:$NN$110</definedName>
-    <definedName name="休日">休日!$A$1:$A$35</definedName>
+    <definedName name="休日">休日!$A$1:$A$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -170,13 +177,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>新天皇即位</t>
-    <rPh sb="0" eb="5">
-      <t>シンテンノウソクイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>憲法記念日</t>
     <rPh sb="0" eb="5">
       <t>ケンポウキネ</t>
@@ -232,20 +232,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>体育の日</t>
-    <rPh sb="0" eb="2">
-      <t>タイイク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>即位礼正殿の儀</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>文化の日</t>
     <rPh sb="0" eb="2">
       <t>ブンカ</t>
@@ -270,21 +256,28 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>振替休日</t>
-    <rPh sb="0" eb="4">
-      <t>フリ</t>
+    <t>v1.5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スポーツの日</t>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>v1.4</t>
+    <t>天皇誕生日</t>
+    <rPh sb="0" eb="5">
+      <t>テンノウタンジョウビ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -1065,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1078,24 +1071,24 @@
       <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="3.125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="34" customWidth="1"/>
-    <col min="7" max="10" width="9.875" style="42" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="35" customWidth="1"/>
-    <col min="14" max="378" width="2.5" style="5" customWidth="1"/>
-    <col min="379" max="16384" width="3.75" style="5"/>
+    <col min="2" max="5" width="3.1328125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" style="34" customWidth="1"/>
+    <col min="7" max="10" width="9.86328125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="5.265625" style="35" customWidth="1"/>
+    <col min="14" max="378" width="2.46484375" style="5" customWidth="1"/>
+    <col min="379" max="16384" width="3.73046875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -1108,7 +1101,7 @@
       </c>
       <c r="N1" s="15">
         <f>YEAR(N3)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O1" s="15" t="str">
         <f>IF(YEAR(O3)=YEAR(N3),"",YEAR(O3))</f>
@@ -2567,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="43"/>
@@ -2815,14 +2808,14 @@
         <f t="shared" si="245"/>
         <v/>
       </c>
-      <c r="BU2" s="16">
+      <c r="BU2" s="16" t="str">
+        <f t="shared" si="245"/>
+        <v/>
+      </c>
+      <c r="BV2" s="16">
         <f t="shared" si="245"/>
         <v>3</v>
       </c>
-      <c r="BV2" s="16" t="str">
-        <f t="shared" si="245"/>
-        <v/>
-      </c>
       <c r="BW2" s="16" t="str">
         <f t="shared" si="245"/>
         <v/>
@@ -2939,14 +2932,14 @@
         <f t="shared" si="246"/>
         <v/>
       </c>
-      <c r="CZ2" s="16">
+      <c r="CZ2" s="16" t="str">
+        <f t="shared" si="246"/>
+        <v/>
+      </c>
+      <c r="DA2" s="16">
         <f t="shared" si="246"/>
         <v>4</v>
       </c>
-      <c r="DA2" s="16" t="str">
-        <f t="shared" si="246"/>
-        <v/>
-      </c>
       <c r="DB2" s="16" t="str">
         <f t="shared" si="246"/>
         <v/>
@@ -3059,14 +3052,14 @@
         <f t="shared" si="246"/>
         <v/>
       </c>
-      <c r="ED2" s="16">
+      <c r="ED2" s="16" t="str">
+        <f t="shared" si="246"/>
+        <v/>
+      </c>
+      <c r="EE2" s="16">
         <f t="shared" si="246"/>
         <v>5</v>
       </c>
-      <c r="EE2" s="16" t="str">
-        <f t="shared" si="246"/>
-        <v/>
-      </c>
       <c r="EF2" s="16" t="str">
         <f t="shared" ref="EF2" si="247">IF(MONTH(EF3)=MONTH(EE3),"",MONTH(EF3))</f>
         <v/>
@@ -3183,13 +3176,13 @@
         <f t="shared" ref="FH2" si="275">IF(MONTH(FH3)=MONTH(FG3),"",MONTH(FH3))</f>
         <v/>
       </c>
-      <c r="FI2" s="16">
+      <c r="FI2" s="16" t="str">
         <f t="shared" ref="FI2" si="276">IF(MONTH(FI3)=MONTH(FH3),"",MONTH(FI3))</f>
+        <v/>
+      </c>
+      <c r="FJ2" s="16">
+        <f t="shared" ref="FJ2" si="277">IF(MONTH(FJ3)=MONTH(FI3),"",MONTH(FJ3))</f>
         <v>6</v>
-      </c>
-      <c r="FJ2" s="16" t="str">
-        <f t="shared" ref="FJ2" si="277">IF(MONTH(FJ3)=MONTH(FI3),"",MONTH(FJ3))</f>
-        <v/>
       </c>
       <c r="FK2" s="16" t="str">
         <f t="shared" ref="FK2" si="278">IF(MONTH(FK3)=MONTH(FJ3),"",MONTH(FK3))</f>
@@ -3303,13 +3296,13 @@
         <f t="shared" ref="GL2" si="305">IF(MONTH(GL3)=MONTH(GK3),"",MONTH(GL3))</f>
         <v/>
       </c>
-      <c r="GM2" s="16">
+      <c r="GM2" s="16" t="str">
         <f t="shared" ref="GM2" si="306">IF(MONTH(GM3)=MONTH(GL3),"",MONTH(GM3))</f>
+        <v/>
+      </c>
+      <c r="GN2" s="16">
+        <f t="shared" ref="GN2" si="307">IF(MONTH(GN3)=MONTH(GM3),"",MONTH(GN3))</f>
         <v>7</v>
-      </c>
-      <c r="GN2" s="16" t="str">
-        <f t="shared" ref="GN2" si="307">IF(MONTH(GN3)=MONTH(GM3),"",MONTH(GN3))</f>
-        <v/>
       </c>
       <c r="GO2" s="16" t="str">
         <f t="shared" ref="GO2" si="308">IF(MONTH(GO3)=MONTH(GN3),"",MONTH(GO3))</f>
@@ -3427,13 +3420,13 @@
         <f t="shared" ref="HQ2" si="336">IF(MONTH(HQ3)=MONTH(HP3),"",MONTH(HQ3))</f>
         <v/>
       </c>
-      <c r="HR2" s="16">
+      <c r="HR2" s="16" t="str">
         <f t="shared" ref="HR2" si="337">IF(MONTH(HR3)=MONTH(HQ3),"",MONTH(HR3))</f>
+        <v/>
+      </c>
+      <c r="HS2" s="16">
+        <f t="shared" ref="HS2" si="338">IF(MONTH(HS3)=MONTH(HR3),"",MONTH(HS3))</f>
         <v>8</v>
-      </c>
-      <c r="HS2" s="16" t="str">
-        <f t="shared" ref="HS2" si="338">IF(MONTH(HS3)=MONTH(HR3),"",MONTH(HS3))</f>
-        <v/>
       </c>
       <c r="HT2" s="16" t="str">
         <f t="shared" ref="HT2" si="339">IF(MONTH(HT3)=MONTH(HS3),"",MONTH(HT3))</f>
@@ -3551,13 +3544,13 @@
         <f t="shared" ref="IV2" si="367">IF(MONTH(IV3)=MONTH(IU3),"",MONTH(IV3))</f>
         <v/>
       </c>
-      <c r="IW2" s="16">
+      <c r="IW2" s="16" t="str">
         <f t="shared" ref="IW2" si="368">IF(MONTH(IW3)=MONTH(IV3),"",MONTH(IW3))</f>
+        <v/>
+      </c>
+      <c r="IX2" s="16">
+        <f t="shared" ref="IX2" si="369">IF(MONTH(IX3)=MONTH(IW3),"",MONTH(IX3))</f>
         <v>9</v>
-      </c>
-      <c r="IX2" s="16" t="str">
-        <f t="shared" ref="IX2" si="369">IF(MONTH(IX3)=MONTH(IW3),"",MONTH(IX3))</f>
-        <v/>
       </c>
       <c r="IY2" s="16" t="str">
         <f t="shared" ref="IY2" si="370">IF(MONTH(IY3)=MONTH(IX3),"",MONTH(IY3))</f>
@@ -3671,13 +3664,13 @@
         <f t="shared" ref="JZ2" si="397">IF(MONTH(JZ3)=MONTH(JY3),"",MONTH(JZ3))</f>
         <v/>
       </c>
-      <c r="KA2" s="16">
+      <c r="KA2" s="16" t="str">
         <f t="shared" ref="KA2" si="398">IF(MONTH(KA3)=MONTH(JZ3),"",MONTH(KA3))</f>
+        <v/>
+      </c>
+      <c r="KB2" s="16">
+        <f t="shared" ref="KB2" si="399">IF(MONTH(KB3)=MONTH(KA3),"",MONTH(KB3))</f>
         <v>10</v>
-      </c>
-      <c r="KB2" s="16" t="str">
-        <f t="shared" ref="KB2" si="399">IF(MONTH(KB3)=MONTH(KA3),"",MONTH(KB3))</f>
-        <v/>
       </c>
       <c r="KC2" s="16" t="str">
         <f t="shared" ref="KC2" si="400">IF(MONTH(KC3)=MONTH(KB3),"",MONTH(KC3))</f>
@@ -3795,13 +3788,13 @@
         <f t="shared" ref="LE2" si="428">IF(MONTH(LE3)=MONTH(LD3),"",MONTH(LE3))</f>
         <v/>
       </c>
-      <c r="LF2" s="16">
+      <c r="LF2" s="16" t="str">
         <f t="shared" ref="LF2" si="429">IF(MONTH(LF3)=MONTH(LE3),"",MONTH(LF3))</f>
+        <v/>
+      </c>
+      <c r="LG2" s="16">
+        <f t="shared" ref="LG2" si="430">IF(MONTH(LG3)=MONTH(LF3),"",MONTH(LG3))</f>
         <v>11</v>
-      </c>
-      <c r="LG2" s="16" t="str">
-        <f t="shared" ref="LG2" si="430">IF(MONTH(LG3)=MONTH(LF3),"",MONTH(LG3))</f>
-        <v/>
       </c>
       <c r="LH2" s="16" t="str">
         <f t="shared" ref="LH2" si="431">IF(MONTH(LH3)=MONTH(LG3),"",MONTH(LH3))</f>
@@ -3915,13 +3908,13 @@
         <f t="shared" ref="MI2" si="458">IF(MONTH(MI3)=MONTH(MH3),"",MONTH(MI3))</f>
         <v/>
       </c>
-      <c r="MJ2" s="16">
+      <c r="MJ2" s="16" t="str">
         <f t="shared" ref="MJ2" si="459">IF(MONTH(MJ3)=MONTH(MI3),"",MONTH(MJ3))</f>
+        <v/>
+      </c>
+      <c r="MK2" s="16">
+        <f t="shared" ref="MK2" si="460">IF(MONTH(MK3)=MONTH(MJ3),"",MONTH(MK3))</f>
         <v>12</v>
-      </c>
-      <c r="MK2" s="16" t="str">
-        <f t="shared" ref="MK2" si="460">IF(MONTH(MK3)=MONTH(MJ3),"",MONTH(MK3))</f>
-        <v/>
       </c>
       <c r="ML2" s="16" t="str">
         <f t="shared" ref="ML2" si="461">IF(MONTH(ML3)=MONTH(MK3),"",MONTH(ML3))</f>
@@ -4040,7 +4033,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
@@ -4066,1102 +4059,1102 @@
         <v>8</v>
       </c>
       <c r="N3" s="12">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="O3" s="12">
-        <v>43467</v>
+        <v>43832</v>
       </c>
       <c r="P3" s="12">
-        <v>43468</v>
+        <v>43833</v>
       </c>
       <c r="Q3" s="12">
-        <v>43469</v>
+        <v>43834</v>
       </c>
       <c r="R3" s="12">
-        <v>43470</v>
+        <v>43835</v>
       </c>
       <c r="S3" s="12">
-        <v>43471</v>
+        <v>43836</v>
       </c>
       <c r="T3" s="12">
-        <v>43472</v>
+        <v>43837</v>
       </c>
       <c r="U3" s="12">
-        <v>43473</v>
+        <v>43838</v>
       </c>
       <c r="V3" s="12">
-        <v>43474</v>
+        <v>43839</v>
       </c>
       <c r="W3" s="12">
-        <v>43475</v>
+        <v>43840</v>
       </c>
       <c r="X3" s="12">
-        <v>43476</v>
+        <v>43841</v>
       </c>
       <c r="Y3" s="12">
-        <v>43477</v>
+        <v>43842</v>
       </c>
       <c r="Z3" s="12">
-        <v>43478</v>
+        <v>43843</v>
       </c>
       <c r="AA3" s="12">
-        <v>43479</v>
+        <v>43844</v>
       </c>
       <c r="AB3" s="12">
-        <v>43480</v>
+        <v>43845</v>
       </c>
       <c r="AC3" s="12">
-        <v>43481</v>
+        <v>43846</v>
       </c>
       <c r="AD3" s="12">
-        <v>43482</v>
+        <v>43847</v>
       </c>
       <c r="AE3" s="12">
-        <v>43483</v>
+        <v>43848</v>
       </c>
       <c r="AF3" s="12">
-        <v>43484</v>
+        <v>43849</v>
       </c>
       <c r="AG3" s="12">
-        <v>43485</v>
+        <v>43850</v>
       </c>
       <c r="AH3" s="12">
-        <v>43486</v>
+        <v>43851</v>
       </c>
       <c r="AI3" s="12">
-        <v>43487</v>
+        <v>43852</v>
       </c>
       <c r="AJ3" s="12">
-        <v>43488</v>
+        <v>43853</v>
       </c>
       <c r="AK3" s="12">
-        <v>43489</v>
+        <v>43854</v>
       </c>
       <c r="AL3" s="12">
-        <v>43490</v>
+        <v>43855</v>
       </c>
       <c r="AM3" s="12">
-        <v>43491</v>
+        <v>43856</v>
       </c>
       <c r="AN3" s="12">
-        <v>43492</v>
+        <v>43857</v>
       </c>
       <c r="AO3" s="12">
-        <v>43493</v>
+        <v>43858</v>
       </c>
       <c r="AP3" s="12">
-        <v>43494</v>
+        <v>43859</v>
       </c>
       <c r="AQ3" s="12">
-        <v>43495</v>
+        <v>43860</v>
       </c>
       <c r="AR3" s="12">
-        <v>43496</v>
+        <v>43861</v>
       </c>
       <c r="AS3" s="12">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="AT3" s="12">
-        <v>43498</v>
+        <v>43863</v>
       </c>
       <c r="AU3" s="12">
-        <v>43499</v>
+        <v>43864</v>
       </c>
       <c r="AV3" s="12">
-        <v>43500</v>
+        <v>43865</v>
       </c>
       <c r="AW3" s="12">
-        <v>43501</v>
+        <v>43866</v>
       </c>
       <c r="AX3" s="12">
-        <v>43502</v>
+        <v>43867</v>
       </c>
       <c r="AY3" s="12">
-        <v>43503</v>
+        <v>43868</v>
       </c>
       <c r="AZ3" s="12">
-        <v>43504</v>
+        <v>43869</v>
       </c>
       <c r="BA3" s="12">
-        <v>43505</v>
+        <v>43870</v>
       </c>
       <c r="BB3" s="12">
-        <v>43506</v>
+        <v>43871</v>
       </c>
       <c r="BC3" s="12">
-        <v>43507</v>
+        <v>43872</v>
       </c>
       <c r="BD3" s="12">
-        <v>43508</v>
+        <v>43873</v>
       </c>
       <c r="BE3" s="12">
-        <v>43509</v>
+        <v>43874</v>
       </c>
       <c r="BF3" s="12">
-        <v>43510</v>
+        <v>43875</v>
       </c>
       <c r="BG3" s="12">
-        <v>43511</v>
+        <v>43876</v>
       </c>
       <c r="BH3" s="12">
-        <v>43512</v>
+        <v>43877</v>
       </c>
       <c r="BI3" s="12">
-        <v>43513</v>
+        <v>43878</v>
       </c>
       <c r="BJ3" s="12">
-        <v>43514</v>
+        <v>43879</v>
       </c>
       <c r="BK3" s="12">
-        <v>43515</v>
+        <v>43880</v>
       </c>
       <c r="BL3" s="12">
-        <v>43516</v>
+        <v>43881</v>
       </c>
       <c r="BM3" s="12">
-        <v>43517</v>
+        <v>43882</v>
       </c>
       <c r="BN3" s="12">
-        <v>43518</v>
+        <v>43883</v>
       </c>
       <c r="BO3" s="12">
-        <v>43519</v>
+        <v>43884</v>
       </c>
       <c r="BP3" s="12">
-        <v>43520</v>
+        <v>43885</v>
       </c>
       <c r="BQ3" s="12">
-        <v>43521</v>
+        <v>43886</v>
       </c>
       <c r="BR3" s="12">
-        <v>43522</v>
+        <v>43887</v>
       </c>
       <c r="BS3" s="12">
-        <v>43523</v>
+        <v>43888</v>
       </c>
       <c r="BT3" s="12">
-        <v>43524</v>
+        <v>43889</v>
       </c>
       <c r="BU3" s="12">
-        <v>43525</v>
+        <v>43890</v>
       </c>
       <c r="BV3" s="12">
-        <v>43526</v>
+        <v>43891</v>
       </c>
       <c r="BW3" s="12">
-        <v>43527</v>
+        <v>43892</v>
       </c>
       <c r="BX3" s="12">
-        <v>43528</v>
+        <v>43893</v>
       </c>
       <c r="BY3" s="12">
-        <v>43529</v>
+        <v>43894</v>
       </c>
       <c r="BZ3" s="12">
-        <v>43530</v>
+        <v>43895</v>
       </c>
       <c r="CA3" s="12">
-        <v>43531</v>
+        <v>43896</v>
       </c>
       <c r="CB3" s="12">
-        <v>43532</v>
+        <v>43897</v>
       </c>
       <c r="CC3" s="12">
-        <v>43533</v>
+        <v>43898</v>
       </c>
       <c r="CD3" s="12">
-        <v>43534</v>
+        <v>43899</v>
       </c>
       <c r="CE3" s="12">
-        <v>43535</v>
+        <v>43900</v>
       </c>
       <c r="CF3" s="12">
-        <v>43536</v>
+        <v>43901</v>
       </c>
       <c r="CG3" s="12">
-        <v>43537</v>
+        <v>43902</v>
       </c>
       <c r="CH3" s="12">
-        <v>43538</v>
+        <v>43903</v>
       </c>
       <c r="CI3" s="12">
-        <v>43539</v>
+        <v>43904</v>
       </c>
       <c r="CJ3" s="12">
-        <v>43540</v>
+        <v>43905</v>
       </c>
       <c r="CK3" s="12">
-        <v>43541</v>
+        <v>43906</v>
       </c>
       <c r="CL3" s="12">
-        <v>43542</v>
+        <v>43907</v>
       </c>
       <c r="CM3" s="12">
-        <v>43543</v>
+        <v>43908</v>
       </c>
       <c r="CN3" s="12">
-        <v>43544</v>
+        <v>43909</v>
       </c>
       <c r="CO3" s="12">
-        <v>43545</v>
+        <v>43910</v>
       </c>
       <c r="CP3" s="12">
-        <v>43546</v>
+        <v>43911</v>
       </c>
       <c r="CQ3" s="12">
-        <v>43547</v>
+        <v>43912</v>
       </c>
       <c r="CR3" s="12">
-        <v>43548</v>
+        <v>43913</v>
       </c>
       <c r="CS3" s="12">
-        <v>43549</v>
+        <v>43914</v>
       </c>
       <c r="CT3" s="12">
-        <v>43550</v>
+        <v>43915</v>
       </c>
       <c r="CU3" s="12">
-        <v>43551</v>
+        <v>43916</v>
       </c>
       <c r="CV3" s="12">
-        <v>43552</v>
+        <v>43917</v>
       </c>
       <c r="CW3" s="12">
-        <v>43553</v>
+        <v>43918</v>
       </c>
       <c r="CX3" s="12">
-        <v>43554</v>
+        <v>43919</v>
       </c>
       <c r="CY3" s="12">
-        <v>43555</v>
+        <v>43920</v>
       </c>
       <c r="CZ3" s="12">
-        <v>43556</v>
+        <v>43921</v>
       </c>
       <c r="DA3" s="12">
-        <v>43557</v>
+        <v>43922</v>
       </c>
       <c r="DB3" s="12">
-        <v>43558</v>
+        <v>43923</v>
       </c>
       <c r="DC3" s="12">
-        <v>43559</v>
+        <v>43924</v>
       </c>
       <c r="DD3" s="12">
-        <v>43560</v>
+        <v>43925</v>
       </c>
       <c r="DE3" s="12">
-        <v>43561</v>
+        <v>43926</v>
       </c>
       <c r="DF3" s="12">
-        <v>43562</v>
+        <v>43927</v>
       </c>
       <c r="DG3" s="12">
-        <v>43563</v>
+        <v>43928</v>
       </c>
       <c r="DH3" s="12">
-        <v>43564</v>
+        <v>43929</v>
       </c>
       <c r="DI3" s="12">
-        <v>43565</v>
+        <v>43930</v>
       </c>
       <c r="DJ3" s="12">
-        <v>43566</v>
+        <v>43931</v>
       </c>
       <c r="DK3" s="12">
-        <v>43567</v>
+        <v>43932</v>
       </c>
       <c r="DL3" s="12">
-        <v>43568</v>
+        <v>43933</v>
       </c>
       <c r="DM3" s="12">
-        <v>43569</v>
+        <v>43934</v>
       </c>
       <c r="DN3" s="12">
-        <v>43570</v>
+        <v>43935</v>
       </c>
       <c r="DO3" s="12">
-        <v>43571</v>
+        <v>43936</v>
       </c>
       <c r="DP3" s="12">
-        <v>43572</v>
+        <v>43937</v>
       </c>
       <c r="DQ3" s="12">
-        <v>43573</v>
+        <v>43938</v>
       </c>
       <c r="DR3" s="12">
-        <v>43574</v>
+        <v>43939</v>
       </c>
       <c r="DS3" s="12">
-        <v>43575</v>
+        <v>43940</v>
       </c>
       <c r="DT3" s="12">
-        <v>43576</v>
+        <v>43941</v>
       </c>
       <c r="DU3" s="12">
-        <v>43577</v>
+        <v>43942</v>
       </c>
       <c r="DV3" s="12">
-        <v>43578</v>
+        <v>43943</v>
       </c>
       <c r="DW3" s="12">
-        <v>43579</v>
+        <v>43944</v>
       </c>
       <c r="DX3" s="12">
-        <v>43580</v>
+        <v>43945</v>
       </c>
       <c r="DY3" s="12">
-        <v>43581</v>
+        <v>43946</v>
       </c>
       <c r="DZ3" s="12">
-        <v>43582</v>
+        <v>43947</v>
       </c>
       <c r="EA3" s="12">
-        <v>43583</v>
+        <v>43948</v>
       </c>
       <c r="EB3" s="12">
-        <v>43584</v>
+        <v>43949</v>
       </c>
       <c r="EC3" s="12">
-        <v>43585</v>
+        <v>43950</v>
       </c>
       <c r="ED3" s="12">
-        <v>43586</v>
+        <v>43951</v>
       </c>
       <c r="EE3" s="12">
-        <v>43587</v>
+        <v>43952</v>
       </c>
       <c r="EF3" s="12">
-        <v>43588</v>
+        <v>43953</v>
       </c>
       <c r="EG3" s="12">
-        <v>43589</v>
+        <v>43954</v>
       </c>
       <c r="EH3" s="12">
-        <v>43590</v>
+        <v>43955</v>
       </c>
       <c r="EI3" s="12">
-        <v>43591</v>
+        <v>43956</v>
       </c>
       <c r="EJ3" s="12">
-        <v>43592</v>
+        <v>43957</v>
       </c>
       <c r="EK3" s="12">
-        <v>43593</v>
+        <v>43958</v>
       </c>
       <c r="EL3" s="12">
-        <v>43594</v>
+        <v>43959</v>
       </c>
       <c r="EM3" s="12">
-        <v>43595</v>
+        <v>43960</v>
       </c>
       <c r="EN3" s="12">
-        <v>43596</v>
+        <v>43961</v>
       </c>
       <c r="EO3" s="12">
-        <v>43597</v>
+        <v>43962</v>
       </c>
       <c r="EP3" s="12">
-        <v>43598</v>
+        <v>43963</v>
       </c>
       <c r="EQ3" s="12">
-        <v>43599</v>
+        <v>43964</v>
       </c>
       <c r="ER3" s="12">
-        <v>43600</v>
+        <v>43965</v>
       </c>
       <c r="ES3" s="12">
-        <v>43601</v>
+        <v>43966</v>
       </c>
       <c r="ET3" s="12">
-        <v>43602</v>
+        <v>43967</v>
       </c>
       <c r="EU3" s="12">
-        <v>43603</v>
+        <v>43968</v>
       </c>
       <c r="EV3" s="12">
-        <v>43604</v>
+        <v>43969</v>
       </c>
       <c r="EW3" s="12">
-        <v>43605</v>
+        <v>43970</v>
       </c>
       <c r="EX3" s="12">
-        <v>43606</v>
+        <v>43971</v>
       </c>
       <c r="EY3" s="12">
-        <v>43607</v>
+        <v>43972</v>
       </c>
       <c r="EZ3" s="12">
-        <v>43608</v>
+        <v>43973</v>
       </c>
       <c r="FA3" s="12">
-        <v>43609</v>
+        <v>43974</v>
       </c>
       <c r="FB3" s="12">
-        <v>43610</v>
+        <v>43975</v>
       </c>
       <c r="FC3" s="12">
-        <v>43611</v>
+        <v>43976</v>
       </c>
       <c r="FD3" s="12">
-        <v>43612</v>
+        <v>43977</v>
       </c>
       <c r="FE3" s="12">
-        <v>43613</v>
+        <v>43978</v>
       </c>
       <c r="FF3" s="12">
-        <v>43614</v>
+        <v>43979</v>
       </c>
       <c r="FG3" s="12">
-        <v>43615</v>
+        <v>43980</v>
       </c>
       <c r="FH3" s="12">
-        <v>43616</v>
+        <v>43981</v>
       </c>
       <c r="FI3" s="12">
-        <v>43617</v>
+        <v>43982</v>
       </c>
       <c r="FJ3" s="12">
-        <v>43618</v>
+        <v>43983</v>
       </c>
       <c r="FK3" s="12">
-        <v>43619</v>
+        <v>43984</v>
       </c>
       <c r="FL3" s="12">
-        <v>43620</v>
+        <v>43985</v>
       </c>
       <c r="FM3" s="12">
-        <v>43621</v>
+        <v>43986</v>
       </c>
       <c r="FN3" s="12">
-        <v>43622</v>
+        <v>43987</v>
       </c>
       <c r="FO3" s="12">
-        <v>43623</v>
+        <v>43988</v>
       </c>
       <c r="FP3" s="12">
-        <v>43624</v>
+        <v>43989</v>
       </c>
       <c r="FQ3" s="12">
-        <v>43625</v>
+        <v>43990</v>
       </c>
       <c r="FR3" s="12">
-        <v>43626</v>
+        <v>43991</v>
       </c>
       <c r="FS3" s="12">
-        <v>43627</v>
+        <v>43992</v>
       </c>
       <c r="FT3" s="12">
-        <v>43628</v>
+        <v>43993</v>
       </c>
       <c r="FU3" s="12">
-        <v>43629</v>
+        <v>43994</v>
       </c>
       <c r="FV3" s="12">
-        <v>43630</v>
+        <v>43995</v>
       </c>
       <c r="FW3" s="12">
-        <v>43631</v>
+        <v>43996</v>
       </c>
       <c r="FX3" s="12">
-        <v>43632</v>
+        <v>43997</v>
       </c>
       <c r="FY3" s="12">
-        <v>43633</v>
+        <v>43998</v>
       </c>
       <c r="FZ3" s="12">
-        <v>43634</v>
+        <v>43999</v>
       </c>
       <c r="GA3" s="12">
-        <v>43635</v>
+        <v>44000</v>
       </c>
       <c r="GB3" s="12">
-        <v>43636</v>
+        <v>44001</v>
       </c>
       <c r="GC3" s="12">
-        <v>43637</v>
+        <v>44002</v>
       </c>
       <c r="GD3" s="12">
-        <v>43638</v>
+        <v>44003</v>
       </c>
       <c r="GE3" s="12">
-        <v>43639</v>
+        <v>44004</v>
       </c>
       <c r="GF3" s="12">
-        <v>43640</v>
+        <v>44005</v>
       </c>
       <c r="GG3" s="12">
-        <v>43641</v>
+        <v>44006</v>
       </c>
       <c r="GH3" s="12">
-        <v>43642</v>
+        <v>44007</v>
       </c>
       <c r="GI3" s="12">
-        <v>43643</v>
+        <v>44008</v>
       </c>
       <c r="GJ3" s="12">
-        <v>43644</v>
+        <v>44009</v>
       </c>
       <c r="GK3" s="12">
-        <v>43645</v>
+        <v>44010</v>
       </c>
       <c r="GL3" s="12">
-        <v>43646</v>
+        <v>44011</v>
       </c>
       <c r="GM3" s="12">
-        <v>43647</v>
+        <v>44012</v>
       </c>
       <c r="GN3" s="12">
-        <v>43648</v>
+        <v>44013</v>
       </c>
       <c r="GO3" s="12">
-        <v>43649</v>
+        <v>44014</v>
       </c>
       <c r="GP3" s="12">
-        <v>43650</v>
+        <v>44015</v>
       </c>
       <c r="GQ3" s="12">
-        <v>43651</v>
+        <v>44016</v>
       </c>
       <c r="GR3" s="12">
-        <v>43652</v>
+        <v>44017</v>
       </c>
       <c r="GS3" s="12">
-        <v>43653</v>
+        <v>44018</v>
       </c>
       <c r="GT3" s="12">
-        <v>43654</v>
+        <v>44019</v>
       </c>
       <c r="GU3" s="12">
-        <v>43655</v>
+        <v>44020</v>
       </c>
       <c r="GV3" s="12">
-        <v>43656</v>
+        <v>44021</v>
       </c>
       <c r="GW3" s="12">
-        <v>43657</v>
+        <v>44022</v>
       </c>
       <c r="GX3" s="12">
-        <v>43658</v>
+        <v>44023</v>
       </c>
       <c r="GY3" s="12">
-        <v>43659</v>
+        <v>44024</v>
       </c>
       <c r="GZ3" s="12">
-        <v>43660</v>
+        <v>44025</v>
       </c>
       <c r="HA3" s="12">
-        <v>43661</v>
+        <v>44026</v>
       </c>
       <c r="HB3" s="12">
-        <v>43662</v>
+        <v>44027</v>
       </c>
       <c r="HC3" s="12">
-        <v>43663</v>
+        <v>44028</v>
       </c>
       <c r="HD3" s="12">
-        <v>43664</v>
+        <v>44029</v>
       </c>
       <c r="HE3" s="12">
-        <v>43665</v>
+        <v>44030</v>
       </c>
       <c r="HF3" s="12">
-        <v>43666</v>
+        <v>44031</v>
       </c>
       <c r="HG3" s="12">
-        <v>43667</v>
+        <v>44032</v>
       </c>
       <c r="HH3" s="12">
-        <v>43668</v>
+        <v>44033</v>
       </c>
       <c r="HI3" s="12">
-        <v>43669</v>
+        <v>44034</v>
       </c>
       <c r="HJ3" s="12">
-        <v>43670</v>
+        <v>44035</v>
       </c>
       <c r="HK3" s="12">
-        <v>43671</v>
+        <v>44036</v>
       </c>
       <c r="HL3" s="12">
-        <v>43672</v>
+        <v>44037</v>
       </c>
       <c r="HM3" s="12">
-        <v>43673</v>
+        <v>44038</v>
       </c>
       <c r="HN3" s="12">
-        <v>43674</v>
+        <v>44039</v>
       </c>
       <c r="HO3" s="12">
-        <v>43675</v>
+        <v>44040</v>
       </c>
       <c r="HP3" s="12">
-        <v>43676</v>
+        <v>44041</v>
       </c>
       <c r="HQ3" s="12">
-        <v>43677</v>
+        <v>44042</v>
       </c>
       <c r="HR3" s="12">
-        <v>43678</v>
+        <v>44043</v>
       </c>
       <c r="HS3" s="12">
-        <v>43679</v>
+        <v>44044</v>
       </c>
       <c r="HT3" s="12">
-        <v>43680</v>
+        <v>44045</v>
       </c>
       <c r="HU3" s="12">
-        <v>43681</v>
+        <v>44046</v>
       </c>
       <c r="HV3" s="12">
-        <v>43682</v>
+        <v>44047</v>
       </c>
       <c r="HW3" s="12">
-        <v>43683</v>
+        <v>44048</v>
       </c>
       <c r="HX3" s="12">
-        <v>43684</v>
+        <v>44049</v>
       </c>
       <c r="HY3" s="12">
-        <v>43685</v>
+        <v>44050</v>
       </c>
       <c r="HZ3" s="12">
-        <v>43686</v>
+        <v>44051</v>
       </c>
       <c r="IA3" s="12">
-        <v>43687</v>
+        <v>44052</v>
       </c>
       <c r="IB3" s="12">
-        <v>43688</v>
+        <v>44053</v>
       </c>
       <c r="IC3" s="12">
-        <v>43689</v>
+        <v>44054</v>
       </c>
       <c r="ID3" s="12">
-        <v>43690</v>
+        <v>44055</v>
       </c>
       <c r="IE3" s="12">
-        <v>43691</v>
+        <v>44056</v>
       </c>
       <c r="IF3" s="12">
-        <v>43692</v>
+        <v>44057</v>
       </c>
       <c r="IG3" s="12">
-        <v>43693</v>
+        <v>44058</v>
       </c>
       <c r="IH3" s="12">
-        <v>43694</v>
+        <v>44059</v>
       </c>
       <c r="II3" s="12">
-        <v>43695</v>
+        <v>44060</v>
       </c>
       <c r="IJ3" s="12">
-        <v>43696</v>
+        <v>44061</v>
       </c>
       <c r="IK3" s="12">
-        <v>43697</v>
+        <v>44062</v>
       </c>
       <c r="IL3" s="12">
-        <v>43698</v>
+        <v>44063</v>
       </c>
       <c r="IM3" s="12">
-        <v>43699</v>
+        <v>44064</v>
       </c>
       <c r="IN3" s="12">
-        <v>43700</v>
+        <v>44065</v>
       </c>
       <c r="IO3" s="12">
-        <v>43701</v>
+        <v>44066</v>
       </c>
       <c r="IP3" s="12">
-        <v>43702</v>
+        <v>44067</v>
       </c>
       <c r="IQ3" s="12">
-        <v>43703</v>
+        <v>44068</v>
       </c>
       <c r="IR3" s="12">
-        <v>43704</v>
+        <v>44069</v>
       </c>
       <c r="IS3" s="12">
-        <v>43705</v>
+        <v>44070</v>
       </c>
       <c r="IT3" s="12">
-        <v>43706</v>
+        <v>44071</v>
       </c>
       <c r="IU3" s="12">
-        <v>43707</v>
+        <v>44072</v>
       </c>
       <c r="IV3" s="12">
-        <v>43708</v>
+        <v>44073</v>
       </c>
       <c r="IW3" s="12">
-        <v>43709</v>
+        <v>44074</v>
       </c>
       <c r="IX3" s="12">
-        <v>43710</v>
+        <v>44075</v>
       </c>
       <c r="IY3" s="12">
-        <v>43711</v>
+        <v>44076</v>
       </c>
       <c r="IZ3" s="12">
-        <v>43712</v>
+        <v>44077</v>
       </c>
       <c r="JA3" s="12">
-        <v>43713</v>
+        <v>44078</v>
       </c>
       <c r="JB3" s="12">
-        <v>43714</v>
+        <v>44079</v>
       </c>
       <c r="JC3" s="12">
-        <v>43715</v>
+        <v>44080</v>
       </c>
       <c r="JD3" s="12">
-        <v>43716</v>
+        <v>44081</v>
       </c>
       <c r="JE3" s="12">
-        <v>43717</v>
+        <v>44082</v>
       </c>
       <c r="JF3" s="12">
-        <v>43718</v>
+        <v>44083</v>
       </c>
       <c r="JG3" s="12">
-        <v>43719</v>
+        <v>44084</v>
       </c>
       <c r="JH3" s="12">
-        <v>43720</v>
+        <v>44085</v>
       </c>
       <c r="JI3" s="12">
-        <v>43721</v>
+        <v>44086</v>
       </c>
       <c r="JJ3" s="12">
-        <v>43722</v>
+        <v>44087</v>
       </c>
       <c r="JK3" s="12">
-        <v>43723</v>
+        <v>44088</v>
       </c>
       <c r="JL3" s="12">
-        <v>43724</v>
+        <v>44089</v>
       </c>
       <c r="JM3" s="12">
-        <v>43725</v>
+        <v>44090</v>
       </c>
       <c r="JN3" s="12">
-        <v>43726</v>
+        <v>44091</v>
       </c>
       <c r="JO3" s="12">
-        <v>43727</v>
+        <v>44092</v>
       </c>
       <c r="JP3" s="12">
-        <v>43728</v>
+        <v>44093</v>
       </c>
       <c r="JQ3" s="12">
-        <v>43729</v>
+        <v>44094</v>
       </c>
       <c r="JR3" s="12">
-        <v>43730</v>
+        <v>44095</v>
       </c>
       <c r="JS3" s="12">
-        <v>43731</v>
+        <v>44096</v>
       </c>
       <c r="JT3" s="12">
-        <v>43732</v>
+        <v>44097</v>
       </c>
       <c r="JU3" s="12">
-        <v>43733</v>
+        <v>44098</v>
       </c>
       <c r="JV3" s="12">
-        <v>43734</v>
+        <v>44099</v>
       </c>
       <c r="JW3" s="12">
-        <v>43735</v>
+        <v>44100</v>
       </c>
       <c r="JX3" s="12">
-        <v>43736</v>
+        <v>44101</v>
       </c>
       <c r="JY3" s="12">
-        <v>43737</v>
+        <v>44102</v>
       </c>
       <c r="JZ3" s="12">
-        <v>43738</v>
+        <v>44103</v>
       </c>
       <c r="KA3" s="12">
-        <v>43739</v>
+        <v>44104</v>
       </c>
       <c r="KB3" s="12">
-        <v>43740</v>
+        <v>44105</v>
       </c>
       <c r="KC3" s="12">
-        <v>43741</v>
+        <v>44106</v>
       </c>
       <c r="KD3" s="12">
-        <v>43742</v>
+        <v>44107</v>
       </c>
       <c r="KE3" s="12">
-        <v>43743</v>
+        <v>44108</v>
       </c>
       <c r="KF3" s="12">
-        <v>43744</v>
+        <v>44109</v>
       </c>
       <c r="KG3" s="12">
-        <v>43745</v>
+        <v>44110</v>
       </c>
       <c r="KH3" s="12">
-        <v>43746</v>
+        <v>44111</v>
       </c>
       <c r="KI3" s="12">
-        <v>43747</v>
+        <v>44112</v>
       </c>
       <c r="KJ3" s="12">
-        <v>43748</v>
+        <v>44113</v>
       </c>
       <c r="KK3" s="12">
-        <v>43749</v>
+        <v>44114</v>
       </c>
       <c r="KL3" s="12">
-        <v>43750</v>
+        <v>44115</v>
       </c>
       <c r="KM3" s="12">
-        <v>43751</v>
+        <v>44116</v>
       </c>
       <c r="KN3" s="12">
-        <v>43752</v>
+        <v>44117</v>
       </c>
       <c r="KO3" s="12">
-        <v>43753</v>
+        <v>44118</v>
       </c>
       <c r="KP3" s="12">
-        <v>43754</v>
+        <v>44119</v>
       </c>
       <c r="KQ3" s="12">
-        <v>43755</v>
+        <v>44120</v>
       </c>
       <c r="KR3" s="12">
-        <v>43756</v>
+        <v>44121</v>
       </c>
       <c r="KS3" s="12">
-        <v>43757</v>
+        <v>44122</v>
       </c>
       <c r="KT3" s="12">
-        <v>43758</v>
+        <v>44123</v>
       </c>
       <c r="KU3" s="12">
-        <v>43759</v>
+        <v>44124</v>
       </c>
       <c r="KV3" s="12">
-        <v>43760</v>
+        <v>44125</v>
       </c>
       <c r="KW3" s="12">
-        <v>43761</v>
+        <v>44126</v>
       </c>
       <c r="KX3" s="12">
-        <v>43762</v>
+        <v>44127</v>
       </c>
       <c r="KY3" s="12">
-        <v>43763</v>
+        <v>44128</v>
       </c>
       <c r="KZ3" s="12">
-        <v>43764</v>
+        <v>44129</v>
       </c>
       <c r="LA3" s="12">
-        <v>43765</v>
+        <v>44130</v>
       </c>
       <c r="LB3" s="12">
-        <v>43766</v>
+        <v>44131</v>
       </c>
       <c r="LC3" s="12">
-        <v>43767</v>
+        <v>44132</v>
       </c>
       <c r="LD3" s="12">
-        <v>43768</v>
+        <v>44133</v>
       </c>
       <c r="LE3" s="12">
-        <v>43769</v>
+        <v>44134</v>
       </c>
       <c r="LF3" s="12">
-        <v>43770</v>
+        <v>44135</v>
       </c>
       <c r="LG3" s="12">
-        <v>43771</v>
+        <v>44136</v>
       </c>
       <c r="LH3" s="12">
-        <v>43772</v>
+        <v>44137</v>
       </c>
       <c r="LI3" s="12">
-        <v>43773</v>
+        <v>44138</v>
       </c>
       <c r="LJ3" s="12">
-        <v>43774</v>
+        <v>44139</v>
       </c>
       <c r="LK3" s="12">
-        <v>43775</v>
+        <v>44140</v>
       </c>
       <c r="LL3" s="12">
-        <v>43776</v>
+        <v>44141</v>
       </c>
       <c r="LM3" s="12">
-        <v>43777</v>
+        <v>44142</v>
       </c>
       <c r="LN3" s="12">
-        <v>43778</v>
+        <v>44143</v>
       </c>
       <c r="LO3" s="12">
-        <v>43779</v>
+        <v>44144</v>
       </c>
       <c r="LP3" s="12">
-        <v>43780</v>
+        <v>44145</v>
       </c>
       <c r="LQ3" s="12">
-        <v>43781</v>
+        <v>44146</v>
       </c>
       <c r="LR3" s="12">
-        <v>43782</v>
+        <v>44147</v>
       </c>
       <c r="LS3" s="12">
-        <v>43783</v>
+        <v>44148</v>
       </c>
       <c r="LT3" s="12">
-        <v>43784</v>
+        <v>44149</v>
       </c>
       <c r="LU3" s="12">
-        <v>43785</v>
+        <v>44150</v>
       </c>
       <c r="LV3" s="12">
-        <v>43786</v>
+        <v>44151</v>
       </c>
       <c r="LW3" s="12">
-        <v>43787</v>
+        <v>44152</v>
       </c>
       <c r="LX3" s="12">
-        <v>43788</v>
+        <v>44153</v>
       </c>
       <c r="LY3" s="12">
-        <v>43789</v>
+        <v>44154</v>
       </c>
       <c r="LZ3" s="12">
-        <v>43790</v>
+        <v>44155</v>
       </c>
       <c r="MA3" s="12">
-        <v>43791</v>
+        <v>44156</v>
       </c>
       <c r="MB3" s="12">
-        <v>43792</v>
+        <v>44157</v>
       </c>
       <c r="MC3" s="12">
-        <v>43793</v>
+        <v>44158</v>
       </c>
       <c r="MD3" s="12">
-        <v>43794</v>
+        <v>44159</v>
       </c>
       <c r="ME3" s="12">
-        <v>43795</v>
+        <v>44160</v>
       </c>
       <c r="MF3" s="12">
-        <v>43796</v>
+        <v>44161</v>
       </c>
       <c r="MG3" s="12">
-        <v>43797</v>
+        <v>44162</v>
       </c>
       <c r="MH3" s="12">
-        <v>43798</v>
+        <v>44163</v>
       </c>
       <c r="MI3" s="12">
-        <v>43799</v>
+        <v>44164</v>
       </c>
       <c r="MJ3" s="12">
-        <v>43800</v>
+        <v>44165</v>
       </c>
       <c r="MK3" s="12">
-        <v>43801</v>
+        <v>44166</v>
       </c>
       <c r="ML3" s="12">
-        <v>43802</v>
+        <v>44167</v>
       </c>
       <c r="MM3" s="12">
-        <v>43803</v>
+        <v>44168</v>
       </c>
       <c r="MN3" s="12">
-        <v>43804</v>
+        <v>44169</v>
       </c>
       <c r="MO3" s="12">
-        <v>43805</v>
+        <v>44170</v>
       </c>
       <c r="MP3" s="12">
-        <v>43806</v>
+        <v>44171</v>
       </c>
       <c r="MQ3" s="12">
-        <v>43807</v>
+        <v>44172</v>
       </c>
       <c r="MR3" s="12">
-        <v>43808</v>
+        <v>44173</v>
       </c>
       <c r="MS3" s="12">
-        <v>43809</v>
+        <v>44174</v>
       </c>
       <c r="MT3" s="12">
-        <v>43810</v>
+        <v>44175</v>
       </c>
       <c r="MU3" s="12">
-        <v>43811</v>
+        <v>44176</v>
       </c>
       <c r="MV3" s="12">
-        <v>43812</v>
+        <v>44177</v>
       </c>
       <c r="MW3" s="12">
-        <v>43813</v>
+        <v>44178</v>
       </c>
       <c r="MX3" s="12">
-        <v>43814</v>
+        <v>44179</v>
       </c>
       <c r="MY3" s="12">
-        <v>43815</v>
+        <v>44180</v>
       </c>
       <c r="MZ3" s="12">
-        <v>43816</v>
+        <v>44181</v>
       </c>
       <c r="NA3" s="12">
-        <v>43817</v>
+        <v>44182</v>
       </c>
       <c r="NB3" s="12">
-        <v>43818</v>
+        <v>44183</v>
       </c>
       <c r="NC3" s="12">
-        <v>43819</v>
+        <v>44184</v>
       </c>
       <c r="ND3" s="12">
-        <v>43820</v>
+        <v>44185</v>
       </c>
       <c r="NE3" s="12">
-        <v>43821</v>
+        <v>44186</v>
       </c>
       <c r="NF3" s="12">
-        <v>43822</v>
+        <v>44187</v>
       </c>
       <c r="NG3" s="12">
-        <v>43823</v>
+        <v>44188</v>
       </c>
       <c r="NH3" s="12">
-        <v>43824</v>
+        <v>44189</v>
       </c>
       <c r="NI3" s="12">
-        <v>43825</v>
+        <v>44190</v>
       </c>
       <c r="NJ3" s="12">
-        <v>43826</v>
+        <v>44191</v>
       </c>
       <c r="NK3" s="12">
-        <v>43827</v>
+        <v>44192</v>
       </c>
       <c r="NL3" s="12">
-        <v>43828</v>
+        <v>44193</v>
       </c>
       <c r="NM3" s="12">
-        <v>43829</v>
+        <v>44194</v>
       </c>
       <c r="NN3" s="12">
-        <v>43830</v>
+        <v>44195</v>
       </c>
     </row>
-    <row r="4" spans="1:378" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:378" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -5187,1466 +5180,1466 @@
       </c>
       <c r="N4" s="14">
         <f>N3</f>
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" ref="O4:BZ4" si="490">O3</f>
-        <v>43467</v>
+        <v>43832</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" si="490"/>
-        <v>43468</v>
+        <v>43833</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" si="490"/>
-        <v>43469</v>
+        <v>43834</v>
       </c>
       <c r="R4" s="14">
         <f t="shared" si="490"/>
-        <v>43470</v>
+        <v>43835</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" si="490"/>
-        <v>43471</v>
+        <v>43836</v>
       </c>
       <c r="T4" s="14">
         <f t="shared" si="490"/>
-        <v>43472</v>
+        <v>43837</v>
       </c>
       <c r="U4" s="14">
         <f t="shared" si="490"/>
-        <v>43473</v>
+        <v>43838</v>
       </c>
       <c r="V4" s="14">
         <f t="shared" si="490"/>
-        <v>43474</v>
+        <v>43839</v>
       </c>
       <c r="W4" s="14">
         <f t="shared" si="490"/>
-        <v>43475</v>
+        <v>43840</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" si="490"/>
-        <v>43476</v>
+        <v>43841</v>
       </c>
       <c r="Y4" s="14">
         <f t="shared" si="490"/>
-        <v>43477</v>
+        <v>43842</v>
       </c>
       <c r="Z4" s="14">
         <f t="shared" si="490"/>
-        <v>43478</v>
+        <v>43843</v>
       </c>
       <c r="AA4" s="14">
         <f t="shared" si="490"/>
-        <v>43479</v>
+        <v>43844</v>
       </c>
       <c r="AB4" s="14">
         <f t="shared" si="490"/>
-        <v>43480</v>
+        <v>43845</v>
       </c>
       <c r="AC4" s="14">
         <f t="shared" si="490"/>
-        <v>43481</v>
+        <v>43846</v>
       </c>
       <c r="AD4" s="14">
         <f t="shared" si="490"/>
-        <v>43482</v>
+        <v>43847</v>
       </c>
       <c r="AE4" s="14">
         <f t="shared" si="490"/>
-        <v>43483</v>
+        <v>43848</v>
       </c>
       <c r="AF4" s="14">
         <f t="shared" si="490"/>
-        <v>43484</v>
+        <v>43849</v>
       </c>
       <c r="AG4" s="14">
         <f t="shared" si="490"/>
-        <v>43485</v>
+        <v>43850</v>
       </c>
       <c r="AH4" s="14">
         <f t="shared" si="490"/>
-        <v>43486</v>
+        <v>43851</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" si="490"/>
-        <v>43487</v>
+        <v>43852</v>
       </c>
       <c r="AJ4" s="14">
         <f t="shared" si="490"/>
-        <v>43488</v>
+        <v>43853</v>
       </c>
       <c r="AK4" s="14">
         <f t="shared" si="490"/>
-        <v>43489</v>
+        <v>43854</v>
       </c>
       <c r="AL4" s="14">
         <f t="shared" si="490"/>
-        <v>43490</v>
+        <v>43855</v>
       </c>
       <c r="AM4" s="14">
         <f t="shared" si="490"/>
-        <v>43491</v>
+        <v>43856</v>
       </c>
       <c r="AN4" s="14">
         <f t="shared" si="490"/>
-        <v>43492</v>
+        <v>43857</v>
       </c>
       <c r="AO4" s="14">
         <f t="shared" si="490"/>
-        <v>43493</v>
+        <v>43858</v>
       </c>
       <c r="AP4" s="14">
         <f t="shared" si="490"/>
-        <v>43494</v>
+        <v>43859</v>
       </c>
       <c r="AQ4" s="14">
         <f t="shared" si="490"/>
-        <v>43495</v>
+        <v>43860</v>
       </c>
       <c r="AR4" s="14">
         <f t="shared" si="490"/>
-        <v>43496</v>
+        <v>43861</v>
       </c>
       <c r="AS4" s="14">
         <f t="shared" si="490"/>
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="AT4" s="14">
         <f t="shared" si="490"/>
-        <v>43498</v>
+        <v>43863</v>
       </c>
       <c r="AU4" s="14">
         <f t="shared" si="490"/>
-        <v>43499</v>
+        <v>43864</v>
       </c>
       <c r="AV4" s="14">
         <f t="shared" si="490"/>
-        <v>43500</v>
+        <v>43865</v>
       </c>
       <c r="AW4" s="14">
         <f t="shared" si="490"/>
-        <v>43501</v>
+        <v>43866</v>
       </c>
       <c r="AX4" s="14">
         <f t="shared" si="490"/>
-        <v>43502</v>
+        <v>43867</v>
       </c>
       <c r="AY4" s="14">
         <f t="shared" si="490"/>
-        <v>43503</v>
+        <v>43868</v>
       </c>
       <c r="AZ4" s="14">
         <f t="shared" si="490"/>
-        <v>43504</v>
+        <v>43869</v>
       </c>
       <c r="BA4" s="14">
         <f t="shared" si="490"/>
-        <v>43505</v>
+        <v>43870</v>
       </c>
       <c r="BB4" s="14">
         <f t="shared" si="490"/>
-        <v>43506</v>
+        <v>43871</v>
       </c>
       <c r="BC4" s="14">
         <f t="shared" si="490"/>
-        <v>43507</v>
+        <v>43872</v>
       </c>
       <c r="BD4" s="14">
         <f t="shared" si="490"/>
-        <v>43508</v>
+        <v>43873</v>
       </c>
       <c r="BE4" s="14">
         <f t="shared" si="490"/>
-        <v>43509</v>
+        <v>43874</v>
       </c>
       <c r="BF4" s="14">
         <f t="shared" si="490"/>
-        <v>43510</v>
+        <v>43875</v>
       </c>
       <c r="BG4" s="14">
         <f t="shared" si="490"/>
-        <v>43511</v>
+        <v>43876</v>
       </c>
       <c r="BH4" s="14">
         <f t="shared" si="490"/>
-        <v>43512</v>
+        <v>43877</v>
       </c>
       <c r="BI4" s="14">
         <f t="shared" si="490"/>
-        <v>43513</v>
+        <v>43878</v>
       </c>
       <c r="BJ4" s="14">
         <f t="shared" si="490"/>
-        <v>43514</v>
+        <v>43879</v>
       </c>
       <c r="BK4" s="14">
         <f t="shared" si="490"/>
-        <v>43515</v>
+        <v>43880</v>
       </c>
       <c r="BL4" s="14">
         <f t="shared" si="490"/>
-        <v>43516</v>
+        <v>43881</v>
       </c>
       <c r="BM4" s="14">
         <f t="shared" si="490"/>
-        <v>43517</v>
+        <v>43882</v>
       </c>
       <c r="BN4" s="14">
         <f t="shared" si="490"/>
-        <v>43518</v>
+        <v>43883</v>
       </c>
       <c r="BO4" s="14">
         <f t="shared" si="490"/>
-        <v>43519</v>
+        <v>43884</v>
       </c>
       <c r="BP4" s="14">
         <f t="shared" si="490"/>
-        <v>43520</v>
+        <v>43885</v>
       </c>
       <c r="BQ4" s="14">
         <f t="shared" si="490"/>
-        <v>43521</v>
+        <v>43886</v>
       </c>
       <c r="BR4" s="14">
         <f t="shared" si="490"/>
-        <v>43522</v>
+        <v>43887</v>
       </c>
       <c r="BS4" s="14">
         <f t="shared" si="490"/>
-        <v>43523</v>
+        <v>43888</v>
       </c>
       <c r="BT4" s="14">
         <f t="shared" si="490"/>
-        <v>43524</v>
+        <v>43889</v>
       </c>
       <c r="BU4" s="14">
         <f t="shared" si="490"/>
-        <v>43525</v>
+        <v>43890</v>
       </c>
       <c r="BV4" s="14">
         <f t="shared" si="490"/>
-        <v>43526</v>
+        <v>43891</v>
       </c>
       <c r="BW4" s="14">
         <f t="shared" si="490"/>
-        <v>43527</v>
+        <v>43892</v>
       </c>
       <c r="BX4" s="14">
         <f t="shared" si="490"/>
-        <v>43528</v>
+        <v>43893</v>
       </c>
       <c r="BY4" s="14">
         <f t="shared" si="490"/>
-        <v>43529</v>
+        <v>43894</v>
       </c>
       <c r="BZ4" s="14">
         <f t="shared" si="490"/>
-        <v>43530</v>
+        <v>43895</v>
       </c>
       <c r="CA4" s="14">
         <f t="shared" ref="CA4:EE4" si="491">CA3</f>
-        <v>43531</v>
+        <v>43896</v>
       </c>
       <c r="CB4" s="14">
         <f t="shared" si="491"/>
-        <v>43532</v>
+        <v>43897</v>
       </c>
       <c r="CC4" s="14">
         <f t="shared" si="491"/>
-        <v>43533</v>
+        <v>43898</v>
       </c>
       <c r="CD4" s="14">
         <f t="shared" si="491"/>
-        <v>43534</v>
+        <v>43899</v>
       </c>
       <c r="CE4" s="14">
         <f t="shared" si="491"/>
-        <v>43535</v>
+        <v>43900</v>
       </c>
       <c r="CF4" s="14">
         <f t="shared" si="491"/>
-        <v>43536</v>
+        <v>43901</v>
       </c>
       <c r="CG4" s="14">
         <f t="shared" si="491"/>
-        <v>43537</v>
+        <v>43902</v>
       </c>
       <c r="CH4" s="14">
         <f t="shared" si="491"/>
-        <v>43538</v>
+        <v>43903</v>
       </c>
       <c r="CI4" s="14">
         <f t="shared" si="491"/>
-        <v>43539</v>
+        <v>43904</v>
       </c>
       <c r="CJ4" s="14">
         <f t="shared" si="491"/>
-        <v>43540</v>
+        <v>43905</v>
       </c>
       <c r="CK4" s="14">
         <f t="shared" si="491"/>
-        <v>43541</v>
+        <v>43906</v>
       </c>
       <c r="CL4" s="14">
         <f t="shared" si="491"/>
-        <v>43542</v>
+        <v>43907</v>
       </c>
       <c r="CM4" s="14">
         <f t="shared" si="491"/>
-        <v>43543</v>
+        <v>43908</v>
       </c>
       <c r="CN4" s="14">
         <f t="shared" si="491"/>
-        <v>43544</v>
+        <v>43909</v>
       </c>
       <c r="CO4" s="14">
         <f t="shared" si="491"/>
-        <v>43545</v>
+        <v>43910</v>
       </c>
       <c r="CP4" s="14">
         <f t="shared" si="491"/>
-        <v>43546</v>
+        <v>43911</v>
       </c>
       <c r="CQ4" s="14">
         <f t="shared" si="491"/>
-        <v>43547</v>
+        <v>43912</v>
       </c>
       <c r="CR4" s="14">
         <f t="shared" si="491"/>
-        <v>43548</v>
+        <v>43913</v>
       </c>
       <c r="CS4" s="14">
         <f t="shared" si="491"/>
-        <v>43549</v>
+        <v>43914</v>
       </c>
       <c r="CT4" s="14">
         <f t="shared" si="491"/>
-        <v>43550</v>
+        <v>43915</v>
       </c>
       <c r="CU4" s="14">
         <f t="shared" si="491"/>
-        <v>43551</v>
+        <v>43916</v>
       </c>
       <c r="CV4" s="14">
         <f t="shared" si="491"/>
-        <v>43552</v>
+        <v>43917</v>
       </c>
       <c r="CW4" s="14">
         <f t="shared" si="491"/>
-        <v>43553</v>
+        <v>43918</v>
       </c>
       <c r="CX4" s="14">
         <f t="shared" si="491"/>
-        <v>43554</v>
+        <v>43919</v>
       </c>
       <c r="CY4" s="14">
         <f t="shared" si="491"/>
-        <v>43555</v>
+        <v>43920</v>
       </c>
       <c r="CZ4" s="14">
         <f t="shared" si="491"/>
-        <v>43556</v>
+        <v>43921</v>
       </c>
       <c r="DA4" s="14">
         <f t="shared" si="491"/>
-        <v>43557</v>
+        <v>43922</v>
       </c>
       <c r="DB4" s="14">
         <f t="shared" si="491"/>
-        <v>43558</v>
+        <v>43923</v>
       </c>
       <c r="DC4" s="14">
         <f t="shared" si="491"/>
-        <v>43559</v>
+        <v>43924</v>
       </c>
       <c r="DD4" s="14">
         <f t="shared" si="491"/>
-        <v>43560</v>
+        <v>43925</v>
       </c>
       <c r="DE4" s="14">
         <f t="shared" si="491"/>
-        <v>43561</v>
+        <v>43926</v>
       </c>
       <c r="DF4" s="14">
         <f t="shared" si="491"/>
-        <v>43562</v>
+        <v>43927</v>
       </c>
       <c r="DG4" s="14">
         <f t="shared" si="491"/>
-        <v>43563</v>
+        <v>43928</v>
       </c>
       <c r="DH4" s="14">
         <f t="shared" si="491"/>
-        <v>43564</v>
+        <v>43929</v>
       </c>
       <c r="DI4" s="14">
         <f t="shared" si="491"/>
-        <v>43565</v>
+        <v>43930</v>
       </c>
       <c r="DJ4" s="14">
         <f t="shared" si="491"/>
-        <v>43566</v>
+        <v>43931</v>
       </c>
       <c r="DK4" s="14">
         <f t="shared" si="491"/>
-        <v>43567</v>
+        <v>43932</v>
       </c>
       <c r="DL4" s="14">
         <f t="shared" si="491"/>
-        <v>43568</v>
+        <v>43933</v>
       </c>
       <c r="DM4" s="14">
         <f t="shared" si="491"/>
-        <v>43569</v>
+        <v>43934</v>
       </c>
       <c r="DN4" s="14">
         <f t="shared" si="491"/>
-        <v>43570</v>
+        <v>43935</v>
       </c>
       <c r="DO4" s="14">
         <f t="shared" si="491"/>
-        <v>43571</v>
+        <v>43936</v>
       </c>
       <c r="DP4" s="14">
         <f t="shared" si="491"/>
-        <v>43572</v>
+        <v>43937</v>
       </c>
       <c r="DQ4" s="14">
         <f t="shared" si="491"/>
-        <v>43573</v>
+        <v>43938</v>
       </c>
       <c r="DR4" s="14">
         <f t="shared" si="491"/>
-        <v>43574</v>
+        <v>43939</v>
       </c>
       <c r="DS4" s="14">
         <f t="shared" si="491"/>
-        <v>43575</v>
+        <v>43940</v>
       </c>
       <c r="DT4" s="14">
         <f t="shared" si="491"/>
-        <v>43576</v>
+        <v>43941</v>
       </c>
       <c r="DU4" s="14">
         <f t="shared" si="491"/>
-        <v>43577</v>
+        <v>43942</v>
       </c>
       <c r="DV4" s="14">
         <f t="shared" si="491"/>
-        <v>43578</v>
+        <v>43943</v>
       </c>
       <c r="DW4" s="14">
         <f t="shared" si="491"/>
-        <v>43579</v>
+        <v>43944</v>
       </c>
       <c r="DX4" s="14">
         <f t="shared" si="491"/>
-        <v>43580</v>
+        <v>43945</v>
       </c>
       <c r="DY4" s="14">
         <f t="shared" si="491"/>
-        <v>43581</v>
+        <v>43946</v>
       </c>
       <c r="DZ4" s="14">
         <f t="shared" si="491"/>
-        <v>43582</v>
+        <v>43947</v>
       </c>
       <c r="EA4" s="14">
         <f t="shared" si="491"/>
-        <v>43583</v>
+        <v>43948</v>
       </c>
       <c r="EB4" s="14">
         <f t="shared" si="491"/>
-        <v>43584</v>
+        <v>43949</v>
       </c>
       <c r="EC4" s="14">
         <f t="shared" si="491"/>
-        <v>43585</v>
+        <v>43950</v>
       </c>
       <c r="ED4" s="14">
         <f t="shared" si="491"/>
-        <v>43586</v>
+        <v>43951</v>
       </c>
       <c r="EE4" s="14">
         <f t="shared" si="491"/>
-        <v>43587</v>
+        <v>43952</v>
       </c>
       <c r="EF4" s="14">
         <f t="shared" ref="EF4:GQ4" si="492">EF3</f>
-        <v>43588</v>
+        <v>43953</v>
       </c>
       <c r="EG4" s="14">
         <f t="shared" si="492"/>
-        <v>43589</v>
+        <v>43954</v>
       </c>
       <c r="EH4" s="14">
         <f t="shared" si="492"/>
-        <v>43590</v>
+        <v>43955</v>
       </c>
       <c r="EI4" s="14">
         <f t="shared" si="492"/>
-        <v>43591</v>
+        <v>43956</v>
       </c>
       <c r="EJ4" s="14">
         <f t="shared" si="492"/>
-        <v>43592</v>
+        <v>43957</v>
       </c>
       <c r="EK4" s="14">
         <f t="shared" si="492"/>
-        <v>43593</v>
+        <v>43958</v>
       </c>
       <c r="EL4" s="14">
         <f t="shared" si="492"/>
-        <v>43594</v>
+        <v>43959</v>
       </c>
       <c r="EM4" s="14">
         <f t="shared" si="492"/>
-        <v>43595</v>
+        <v>43960</v>
       </c>
       <c r="EN4" s="14">
         <f t="shared" si="492"/>
-        <v>43596</v>
+        <v>43961</v>
       </c>
       <c r="EO4" s="14">
         <f t="shared" si="492"/>
-        <v>43597</v>
+        <v>43962</v>
       </c>
       <c r="EP4" s="14">
         <f t="shared" si="492"/>
-        <v>43598</v>
+        <v>43963</v>
       </c>
       <c r="EQ4" s="14">
         <f t="shared" si="492"/>
-        <v>43599</v>
+        <v>43964</v>
       </c>
       <c r="ER4" s="14">
         <f t="shared" si="492"/>
-        <v>43600</v>
+        <v>43965</v>
       </c>
       <c r="ES4" s="14">
         <f t="shared" si="492"/>
-        <v>43601</v>
+        <v>43966</v>
       </c>
       <c r="ET4" s="14">
         <f t="shared" si="492"/>
-        <v>43602</v>
+        <v>43967</v>
       </c>
       <c r="EU4" s="14">
         <f t="shared" si="492"/>
-        <v>43603</v>
+        <v>43968</v>
       </c>
       <c r="EV4" s="14">
         <f t="shared" si="492"/>
-        <v>43604</v>
+        <v>43969</v>
       </c>
       <c r="EW4" s="14">
         <f t="shared" si="492"/>
-        <v>43605</v>
+        <v>43970</v>
       </c>
       <c r="EX4" s="14">
         <f t="shared" si="492"/>
-        <v>43606</v>
+        <v>43971</v>
       </c>
       <c r="EY4" s="14">
         <f t="shared" si="492"/>
-        <v>43607</v>
+        <v>43972</v>
       </c>
       <c r="EZ4" s="14">
         <f t="shared" si="492"/>
-        <v>43608</v>
+        <v>43973</v>
       </c>
       <c r="FA4" s="14">
         <f t="shared" si="492"/>
-        <v>43609</v>
+        <v>43974</v>
       </c>
       <c r="FB4" s="14">
         <f t="shared" si="492"/>
-        <v>43610</v>
+        <v>43975</v>
       </c>
       <c r="FC4" s="14">
         <f t="shared" si="492"/>
-        <v>43611</v>
+        <v>43976</v>
       </c>
       <c r="FD4" s="14">
         <f t="shared" si="492"/>
-        <v>43612</v>
+        <v>43977</v>
       </c>
       <c r="FE4" s="14">
         <f t="shared" si="492"/>
-        <v>43613</v>
+        <v>43978</v>
       </c>
       <c r="FF4" s="14">
         <f t="shared" si="492"/>
-        <v>43614</v>
+        <v>43979</v>
       </c>
       <c r="FG4" s="14">
         <f t="shared" si="492"/>
-        <v>43615</v>
+        <v>43980</v>
       </c>
       <c r="FH4" s="14">
         <f t="shared" si="492"/>
-        <v>43616</v>
+        <v>43981</v>
       </c>
       <c r="FI4" s="14">
         <f t="shared" si="492"/>
-        <v>43617</v>
+        <v>43982</v>
       </c>
       <c r="FJ4" s="14">
         <f t="shared" si="492"/>
-        <v>43618</v>
+        <v>43983</v>
       </c>
       <c r="FK4" s="14">
         <f t="shared" si="492"/>
-        <v>43619</v>
+        <v>43984</v>
       </c>
       <c r="FL4" s="14">
         <f t="shared" si="492"/>
-        <v>43620</v>
+        <v>43985</v>
       </c>
       <c r="FM4" s="14">
         <f t="shared" si="492"/>
-        <v>43621</v>
+        <v>43986</v>
       </c>
       <c r="FN4" s="14">
         <f t="shared" si="492"/>
-        <v>43622</v>
+        <v>43987</v>
       </c>
       <c r="FO4" s="14">
         <f t="shared" si="492"/>
-        <v>43623</v>
+        <v>43988</v>
       </c>
       <c r="FP4" s="14">
         <f t="shared" si="492"/>
-        <v>43624</v>
+        <v>43989</v>
       </c>
       <c r="FQ4" s="14">
         <f t="shared" si="492"/>
-        <v>43625</v>
+        <v>43990</v>
       </c>
       <c r="FR4" s="14">
         <f t="shared" si="492"/>
-        <v>43626</v>
+        <v>43991</v>
       </c>
       <c r="FS4" s="14">
         <f t="shared" si="492"/>
-        <v>43627</v>
+        <v>43992</v>
       </c>
       <c r="FT4" s="14">
         <f t="shared" si="492"/>
-        <v>43628</v>
+        <v>43993</v>
       </c>
       <c r="FU4" s="14">
         <f t="shared" si="492"/>
-        <v>43629</v>
+        <v>43994</v>
       </c>
       <c r="FV4" s="14">
         <f t="shared" si="492"/>
-        <v>43630</v>
+        <v>43995</v>
       </c>
       <c r="FW4" s="14">
         <f t="shared" si="492"/>
-        <v>43631</v>
+        <v>43996</v>
       </c>
       <c r="FX4" s="14">
         <f t="shared" si="492"/>
-        <v>43632</v>
+        <v>43997</v>
       </c>
       <c r="FY4" s="14">
         <f t="shared" si="492"/>
-        <v>43633</v>
+        <v>43998</v>
       </c>
       <c r="FZ4" s="14">
         <f t="shared" si="492"/>
-        <v>43634</v>
+        <v>43999</v>
       </c>
       <c r="GA4" s="14">
         <f t="shared" si="492"/>
-        <v>43635</v>
+        <v>44000</v>
       </c>
       <c r="GB4" s="14">
         <f t="shared" si="492"/>
-        <v>43636</v>
+        <v>44001</v>
       </c>
       <c r="GC4" s="14">
         <f t="shared" si="492"/>
-        <v>43637</v>
+        <v>44002</v>
       </c>
       <c r="GD4" s="14">
         <f t="shared" si="492"/>
-        <v>43638</v>
+        <v>44003</v>
       </c>
       <c r="GE4" s="14">
         <f t="shared" si="492"/>
-        <v>43639</v>
+        <v>44004</v>
       </c>
       <c r="GF4" s="14">
         <f t="shared" si="492"/>
-        <v>43640</v>
+        <v>44005</v>
       </c>
       <c r="GG4" s="14">
         <f t="shared" si="492"/>
-        <v>43641</v>
+        <v>44006</v>
       </c>
       <c r="GH4" s="14">
         <f t="shared" si="492"/>
-        <v>43642</v>
+        <v>44007</v>
       </c>
       <c r="GI4" s="14">
         <f t="shared" si="492"/>
-        <v>43643</v>
+        <v>44008</v>
       </c>
       <c r="GJ4" s="14">
         <f t="shared" si="492"/>
-        <v>43644</v>
+        <v>44009</v>
       </c>
       <c r="GK4" s="14">
         <f t="shared" si="492"/>
-        <v>43645</v>
+        <v>44010</v>
       </c>
       <c r="GL4" s="14">
         <f t="shared" si="492"/>
-        <v>43646</v>
+        <v>44011</v>
       </c>
       <c r="GM4" s="14">
         <f t="shared" si="492"/>
-        <v>43647</v>
+        <v>44012</v>
       </c>
       <c r="GN4" s="14">
         <f t="shared" si="492"/>
-        <v>43648</v>
+        <v>44013</v>
       </c>
       <c r="GO4" s="14">
         <f t="shared" si="492"/>
-        <v>43649</v>
+        <v>44014</v>
       </c>
       <c r="GP4" s="14">
         <f t="shared" si="492"/>
-        <v>43650</v>
+        <v>44015</v>
       </c>
       <c r="GQ4" s="14">
         <f t="shared" si="492"/>
-        <v>43651</v>
+        <v>44016</v>
       </c>
       <c r="GR4" s="14">
         <f t="shared" ref="GR4:HS4" si="493">GR3</f>
-        <v>43652</v>
+        <v>44017</v>
       </c>
       <c r="GS4" s="14">
         <f t="shared" si="493"/>
-        <v>43653</v>
+        <v>44018</v>
       </c>
       <c r="GT4" s="14">
         <f t="shared" si="493"/>
-        <v>43654</v>
+        <v>44019</v>
       </c>
       <c r="GU4" s="14">
         <f t="shared" si="493"/>
-        <v>43655</v>
+        <v>44020</v>
       </c>
       <c r="GV4" s="14">
         <f t="shared" si="493"/>
-        <v>43656</v>
+        <v>44021</v>
       </c>
       <c r="GW4" s="14">
         <f t="shared" si="493"/>
-        <v>43657</v>
+        <v>44022</v>
       </c>
       <c r="GX4" s="14">
         <f t="shared" si="493"/>
-        <v>43658</v>
+        <v>44023</v>
       </c>
       <c r="GY4" s="14">
         <f t="shared" si="493"/>
-        <v>43659</v>
+        <v>44024</v>
       </c>
       <c r="GZ4" s="14">
         <f t="shared" si="493"/>
-        <v>43660</v>
+        <v>44025</v>
       </c>
       <c r="HA4" s="14">
         <f t="shared" si="493"/>
-        <v>43661</v>
+        <v>44026</v>
       </c>
       <c r="HB4" s="14">
         <f t="shared" si="493"/>
-        <v>43662</v>
+        <v>44027</v>
       </c>
       <c r="HC4" s="14">
         <f t="shared" si="493"/>
-        <v>43663</v>
+        <v>44028</v>
       </c>
       <c r="HD4" s="14">
         <f t="shared" si="493"/>
-        <v>43664</v>
+        <v>44029</v>
       </c>
       <c r="HE4" s="14">
         <f t="shared" si="493"/>
-        <v>43665</v>
+        <v>44030</v>
       </c>
       <c r="HF4" s="14">
         <f t="shared" si="493"/>
-        <v>43666</v>
+        <v>44031</v>
       </c>
       <c r="HG4" s="14">
         <f t="shared" si="493"/>
-        <v>43667</v>
+        <v>44032</v>
       </c>
       <c r="HH4" s="14">
         <f t="shared" si="493"/>
-        <v>43668</v>
+        <v>44033</v>
       </c>
       <c r="HI4" s="14">
         <f t="shared" si="493"/>
-        <v>43669</v>
+        <v>44034</v>
       </c>
       <c r="HJ4" s="14">
         <f t="shared" si="493"/>
-        <v>43670</v>
+        <v>44035</v>
       </c>
       <c r="HK4" s="14">
         <f t="shared" si="493"/>
-        <v>43671</v>
+        <v>44036</v>
       </c>
       <c r="HL4" s="14">
         <f t="shared" si="493"/>
-        <v>43672</v>
+        <v>44037</v>
       </c>
       <c r="HM4" s="14">
         <f t="shared" si="493"/>
-        <v>43673</v>
+        <v>44038</v>
       </c>
       <c r="HN4" s="14">
         <f t="shared" si="493"/>
-        <v>43674</v>
+        <v>44039</v>
       </c>
       <c r="HO4" s="14">
         <f t="shared" si="493"/>
-        <v>43675</v>
+        <v>44040</v>
       </c>
       <c r="HP4" s="14">
         <f t="shared" si="493"/>
-        <v>43676</v>
+        <v>44041</v>
       </c>
       <c r="HQ4" s="14">
         <f t="shared" si="493"/>
-        <v>43677</v>
+        <v>44042</v>
       </c>
       <c r="HR4" s="14">
         <f t="shared" si="493"/>
-        <v>43678</v>
+        <v>44043</v>
       </c>
       <c r="HS4" s="14">
         <f t="shared" si="493"/>
-        <v>43679</v>
+        <v>44044</v>
       </c>
       <c r="HT4" s="14">
         <f t="shared" ref="HT4:KE4" si="494">HT3</f>
-        <v>43680</v>
+        <v>44045</v>
       </c>
       <c r="HU4" s="14">
         <f t="shared" si="494"/>
-        <v>43681</v>
+        <v>44046</v>
       </c>
       <c r="HV4" s="14">
         <f t="shared" si="494"/>
-        <v>43682</v>
+        <v>44047</v>
       </c>
       <c r="HW4" s="14">
         <f t="shared" si="494"/>
-        <v>43683</v>
+        <v>44048</v>
       </c>
       <c r="HX4" s="14">
         <f t="shared" si="494"/>
-        <v>43684</v>
+        <v>44049</v>
       </c>
       <c r="HY4" s="14">
         <f t="shared" si="494"/>
-        <v>43685</v>
+        <v>44050</v>
       </c>
       <c r="HZ4" s="14">
         <f t="shared" si="494"/>
-        <v>43686</v>
+        <v>44051</v>
       </c>
       <c r="IA4" s="14">
         <f t="shared" si="494"/>
-        <v>43687</v>
+        <v>44052</v>
       </c>
       <c r="IB4" s="14">
         <f t="shared" si="494"/>
-        <v>43688</v>
+        <v>44053</v>
       </c>
       <c r="IC4" s="14">
         <f t="shared" si="494"/>
-        <v>43689</v>
+        <v>44054</v>
       </c>
       <c r="ID4" s="14">
         <f t="shared" si="494"/>
-        <v>43690</v>
+        <v>44055</v>
       </c>
       <c r="IE4" s="14">
         <f t="shared" si="494"/>
-        <v>43691</v>
+        <v>44056</v>
       </c>
       <c r="IF4" s="14">
         <f t="shared" si="494"/>
-        <v>43692</v>
+        <v>44057</v>
       </c>
       <c r="IG4" s="14">
         <f t="shared" si="494"/>
-        <v>43693</v>
+        <v>44058</v>
       </c>
       <c r="IH4" s="14">
         <f t="shared" si="494"/>
-        <v>43694</v>
+        <v>44059</v>
       </c>
       <c r="II4" s="14">
         <f t="shared" si="494"/>
-        <v>43695</v>
+        <v>44060</v>
       </c>
       <c r="IJ4" s="14">
         <f t="shared" si="494"/>
-        <v>43696</v>
+        <v>44061</v>
       </c>
       <c r="IK4" s="14">
         <f t="shared" si="494"/>
-        <v>43697</v>
+        <v>44062</v>
       </c>
       <c r="IL4" s="14">
         <f t="shared" si="494"/>
-        <v>43698</v>
+        <v>44063</v>
       </c>
       <c r="IM4" s="14">
         <f t="shared" si="494"/>
-        <v>43699</v>
+        <v>44064</v>
       </c>
       <c r="IN4" s="14">
         <f t="shared" si="494"/>
-        <v>43700</v>
+        <v>44065</v>
       </c>
       <c r="IO4" s="14">
         <f t="shared" si="494"/>
-        <v>43701</v>
+        <v>44066</v>
       </c>
       <c r="IP4" s="14">
         <f t="shared" si="494"/>
-        <v>43702</v>
+        <v>44067</v>
       </c>
       <c r="IQ4" s="14">
         <f t="shared" si="494"/>
-        <v>43703</v>
+        <v>44068</v>
       </c>
       <c r="IR4" s="14">
         <f t="shared" si="494"/>
-        <v>43704</v>
+        <v>44069</v>
       </c>
       <c r="IS4" s="14">
         <f t="shared" si="494"/>
-        <v>43705</v>
+        <v>44070</v>
       </c>
       <c r="IT4" s="14">
         <f t="shared" si="494"/>
-        <v>43706</v>
+        <v>44071</v>
       </c>
       <c r="IU4" s="14">
         <f t="shared" si="494"/>
-        <v>43707</v>
+        <v>44072</v>
       </c>
       <c r="IV4" s="14">
         <f t="shared" si="494"/>
-        <v>43708</v>
+        <v>44073</v>
       </c>
       <c r="IW4" s="14">
         <f t="shared" si="494"/>
-        <v>43709</v>
+        <v>44074</v>
       </c>
       <c r="IX4" s="14">
         <f t="shared" si="494"/>
-        <v>43710</v>
+        <v>44075</v>
       </c>
       <c r="IY4" s="14">
         <f t="shared" si="494"/>
-        <v>43711</v>
+        <v>44076</v>
       </c>
       <c r="IZ4" s="14">
         <f t="shared" si="494"/>
-        <v>43712</v>
+        <v>44077</v>
       </c>
       <c r="JA4" s="14">
         <f t="shared" si="494"/>
-        <v>43713</v>
+        <v>44078</v>
       </c>
       <c r="JB4" s="14">
         <f t="shared" si="494"/>
-        <v>43714</v>
+        <v>44079</v>
       </c>
       <c r="JC4" s="14">
         <f t="shared" si="494"/>
-        <v>43715</v>
+        <v>44080</v>
       </c>
       <c r="JD4" s="14">
         <f t="shared" si="494"/>
-        <v>43716</v>
+        <v>44081</v>
       </c>
       <c r="JE4" s="14">
         <f t="shared" si="494"/>
-        <v>43717</v>
+        <v>44082</v>
       </c>
       <c r="JF4" s="14">
         <f t="shared" si="494"/>
-        <v>43718</v>
+        <v>44083</v>
       </c>
       <c r="JG4" s="14">
         <f t="shared" si="494"/>
-        <v>43719</v>
+        <v>44084</v>
       </c>
       <c r="JH4" s="14">
         <f t="shared" si="494"/>
-        <v>43720</v>
+        <v>44085</v>
       </c>
       <c r="JI4" s="14">
         <f t="shared" si="494"/>
-        <v>43721</v>
+        <v>44086</v>
       </c>
       <c r="JJ4" s="14">
         <f t="shared" si="494"/>
-        <v>43722</v>
+        <v>44087</v>
       </c>
       <c r="JK4" s="14">
         <f t="shared" si="494"/>
-        <v>43723</v>
+        <v>44088</v>
       </c>
       <c r="JL4" s="14">
         <f t="shared" si="494"/>
-        <v>43724</v>
+        <v>44089</v>
       </c>
       <c r="JM4" s="14">
         <f t="shared" si="494"/>
-        <v>43725</v>
+        <v>44090</v>
       </c>
       <c r="JN4" s="14">
         <f t="shared" si="494"/>
-        <v>43726</v>
+        <v>44091</v>
       </c>
       <c r="JO4" s="14">
         <f t="shared" si="494"/>
-        <v>43727</v>
+        <v>44092</v>
       </c>
       <c r="JP4" s="14">
         <f t="shared" si="494"/>
-        <v>43728</v>
+        <v>44093</v>
       </c>
       <c r="JQ4" s="14">
         <f t="shared" si="494"/>
-        <v>43729</v>
+        <v>44094</v>
       </c>
       <c r="JR4" s="14">
         <f t="shared" si="494"/>
-        <v>43730</v>
+        <v>44095</v>
       </c>
       <c r="JS4" s="14">
         <f t="shared" si="494"/>
-        <v>43731</v>
+        <v>44096</v>
       </c>
       <c r="JT4" s="14">
         <f t="shared" si="494"/>
-        <v>43732</v>
+        <v>44097</v>
       </c>
       <c r="JU4" s="14">
         <f t="shared" si="494"/>
-        <v>43733</v>
+        <v>44098</v>
       </c>
       <c r="JV4" s="14">
         <f t="shared" si="494"/>
-        <v>43734</v>
+        <v>44099</v>
       </c>
       <c r="JW4" s="14">
         <f t="shared" si="494"/>
-        <v>43735</v>
+        <v>44100</v>
       </c>
       <c r="JX4" s="14">
         <f t="shared" si="494"/>
-        <v>43736</v>
+        <v>44101</v>
       </c>
       <c r="JY4" s="14">
         <f t="shared" si="494"/>
-        <v>43737</v>
+        <v>44102</v>
       </c>
       <c r="JZ4" s="14">
         <f t="shared" si="494"/>
-        <v>43738</v>
+        <v>44103</v>
       </c>
       <c r="KA4" s="14">
         <f t="shared" si="494"/>
-        <v>43739</v>
+        <v>44104</v>
       </c>
       <c r="KB4" s="14">
         <f t="shared" si="494"/>
-        <v>43740</v>
+        <v>44105</v>
       </c>
       <c r="KC4" s="14">
         <f t="shared" si="494"/>
-        <v>43741</v>
+        <v>44106</v>
       </c>
       <c r="KD4" s="14">
         <f t="shared" si="494"/>
-        <v>43742</v>
+        <v>44107</v>
       </c>
       <c r="KE4" s="14">
         <f t="shared" si="494"/>
-        <v>43743</v>
+        <v>44108</v>
       </c>
       <c r="KF4" s="14">
         <f t="shared" ref="KF4:MQ4" si="495">KF3</f>
-        <v>43744</v>
+        <v>44109</v>
       </c>
       <c r="KG4" s="14">
         <f t="shared" si="495"/>
-        <v>43745</v>
+        <v>44110</v>
       </c>
       <c r="KH4" s="14">
         <f t="shared" si="495"/>
-        <v>43746</v>
+        <v>44111</v>
       </c>
       <c r="KI4" s="14">
         <f t="shared" si="495"/>
-        <v>43747</v>
+        <v>44112</v>
       </c>
       <c r="KJ4" s="14">
         <f t="shared" si="495"/>
-        <v>43748</v>
+        <v>44113</v>
       </c>
       <c r="KK4" s="14">
         <f t="shared" si="495"/>
-        <v>43749</v>
+        <v>44114</v>
       </c>
       <c r="KL4" s="14">
         <f t="shared" si="495"/>
-        <v>43750</v>
+        <v>44115</v>
       </c>
       <c r="KM4" s="14">
         <f t="shared" si="495"/>
-        <v>43751</v>
+        <v>44116</v>
       </c>
       <c r="KN4" s="14">
         <f t="shared" si="495"/>
-        <v>43752</v>
+        <v>44117</v>
       </c>
       <c r="KO4" s="14">
         <f t="shared" si="495"/>
-        <v>43753</v>
+        <v>44118</v>
       </c>
       <c r="KP4" s="14">
         <f t="shared" si="495"/>
-        <v>43754</v>
+        <v>44119</v>
       </c>
       <c r="KQ4" s="14">
         <f t="shared" si="495"/>
-        <v>43755</v>
+        <v>44120</v>
       </c>
       <c r="KR4" s="14">
         <f t="shared" si="495"/>
-        <v>43756</v>
+        <v>44121</v>
       </c>
       <c r="KS4" s="14">
         <f t="shared" si="495"/>
-        <v>43757</v>
+        <v>44122</v>
       </c>
       <c r="KT4" s="14">
         <f t="shared" si="495"/>
-        <v>43758</v>
+        <v>44123</v>
       </c>
       <c r="KU4" s="14">
         <f t="shared" si="495"/>
-        <v>43759</v>
+        <v>44124</v>
       </c>
       <c r="KV4" s="14">
         <f t="shared" si="495"/>
-        <v>43760</v>
+        <v>44125</v>
       </c>
       <c r="KW4" s="14">
         <f t="shared" si="495"/>
-        <v>43761</v>
+        <v>44126</v>
       </c>
       <c r="KX4" s="14">
         <f t="shared" si="495"/>
-        <v>43762</v>
+        <v>44127</v>
       </c>
       <c r="KY4" s="14">
         <f t="shared" si="495"/>
-        <v>43763</v>
+        <v>44128</v>
       </c>
       <c r="KZ4" s="14">
         <f t="shared" si="495"/>
-        <v>43764</v>
+        <v>44129</v>
       </c>
       <c r="LA4" s="14">
         <f t="shared" si="495"/>
-        <v>43765</v>
+        <v>44130</v>
       </c>
       <c r="LB4" s="14">
         <f t="shared" si="495"/>
-        <v>43766</v>
+        <v>44131</v>
       </c>
       <c r="LC4" s="14">
         <f t="shared" si="495"/>
-        <v>43767</v>
+        <v>44132</v>
       </c>
       <c r="LD4" s="14">
         <f t="shared" si="495"/>
-        <v>43768</v>
+        <v>44133</v>
       </c>
       <c r="LE4" s="14">
         <f t="shared" si="495"/>
-        <v>43769</v>
+        <v>44134</v>
       </c>
       <c r="LF4" s="14">
         <f t="shared" si="495"/>
-        <v>43770</v>
+        <v>44135</v>
       </c>
       <c r="LG4" s="14">
         <f t="shared" si="495"/>
-        <v>43771</v>
+        <v>44136</v>
       </c>
       <c r="LH4" s="14">
         <f t="shared" si="495"/>
-        <v>43772</v>
+        <v>44137</v>
       </c>
       <c r="LI4" s="14">
         <f t="shared" si="495"/>
-        <v>43773</v>
+        <v>44138</v>
       </c>
       <c r="LJ4" s="14">
         <f t="shared" si="495"/>
-        <v>43774</v>
+        <v>44139</v>
       </c>
       <c r="LK4" s="14">
         <f t="shared" si="495"/>
-        <v>43775</v>
+        <v>44140</v>
       </c>
       <c r="LL4" s="14">
         <f t="shared" si="495"/>
-        <v>43776</v>
+        <v>44141</v>
       </c>
       <c r="LM4" s="14">
         <f t="shared" si="495"/>
-        <v>43777</v>
+        <v>44142</v>
       </c>
       <c r="LN4" s="14">
         <f t="shared" si="495"/>
-        <v>43778</v>
+        <v>44143</v>
       </c>
       <c r="LO4" s="14">
         <f t="shared" si="495"/>
-        <v>43779</v>
+        <v>44144</v>
       </c>
       <c r="LP4" s="14">
         <f t="shared" si="495"/>
-        <v>43780</v>
+        <v>44145</v>
       </c>
       <c r="LQ4" s="14">
         <f t="shared" si="495"/>
-        <v>43781</v>
+        <v>44146</v>
       </c>
       <c r="LR4" s="14">
         <f t="shared" si="495"/>
-        <v>43782</v>
+        <v>44147</v>
       </c>
       <c r="LS4" s="14">
         <f t="shared" si="495"/>
-        <v>43783</v>
+        <v>44148</v>
       </c>
       <c r="LT4" s="14">
         <f t="shared" si="495"/>
-        <v>43784</v>
+        <v>44149</v>
       </c>
       <c r="LU4" s="14">
         <f t="shared" si="495"/>
-        <v>43785</v>
+        <v>44150</v>
       </c>
       <c r="LV4" s="14">
         <f t="shared" si="495"/>
-        <v>43786</v>
+        <v>44151</v>
       </c>
       <c r="LW4" s="14">
         <f t="shared" si="495"/>
-        <v>43787</v>
+        <v>44152</v>
       </c>
       <c r="LX4" s="14">
         <f t="shared" si="495"/>
-        <v>43788</v>
+        <v>44153</v>
       </c>
       <c r="LY4" s="14">
         <f t="shared" si="495"/>
-        <v>43789</v>
+        <v>44154</v>
       </c>
       <c r="LZ4" s="14">
         <f t="shared" si="495"/>
-        <v>43790</v>
+        <v>44155</v>
       </c>
       <c r="MA4" s="14">
         <f t="shared" si="495"/>
-        <v>43791</v>
+        <v>44156</v>
       </c>
       <c r="MB4" s="14">
         <f t="shared" si="495"/>
-        <v>43792</v>
+        <v>44157</v>
       </c>
       <c r="MC4" s="14">
         <f t="shared" si="495"/>
-        <v>43793</v>
+        <v>44158</v>
       </c>
       <c r="MD4" s="14">
         <f t="shared" si="495"/>
-        <v>43794</v>
+        <v>44159</v>
       </c>
       <c r="ME4" s="14">
         <f t="shared" si="495"/>
-        <v>43795</v>
+        <v>44160</v>
       </c>
       <c r="MF4" s="14">
         <f t="shared" si="495"/>
-        <v>43796</v>
+        <v>44161</v>
       </c>
       <c r="MG4" s="14">
         <f t="shared" si="495"/>
-        <v>43797</v>
+        <v>44162</v>
       </c>
       <c r="MH4" s="14">
         <f t="shared" si="495"/>
-        <v>43798</v>
+        <v>44163</v>
       </c>
       <c r="MI4" s="14">
         <f t="shared" si="495"/>
-        <v>43799</v>
+        <v>44164</v>
       </c>
       <c r="MJ4" s="14">
         <f t="shared" si="495"/>
-        <v>43800</v>
+        <v>44165</v>
       </c>
       <c r="MK4" s="14">
         <f t="shared" si="495"/>
-        <v>43801</v>
+        <v>44166</v>
       </c>
       <c r="ML4" s="14">
         <f t="shared" si="495"/>
-        <v>43802</v>
+        <v>44167</v>
       </c>
       <c r="MM4" s="14">
         <f t="shared" si="495"/>
-        <v>43803</v>
+        <v>44168</v>
       </c>
       <c r="MN4" s="14">
         <f t="shared" si="495"/>
-        <v>43804</v>
+        <v>44169</v>
       </c>
       <c r="MO4" s="14">
         <f t="shared" si="495"/>
-        <v>43805</v>
+        <v>44170</v>
       </c>
       <c r="MP4" s="14">
         <f t="shared" si="495"/>
-        <v>43806</v>
+        <v>44171</v>
       </c>
       <c r="MQ4" s="14">
         <f t="shared" si="495"/>
-        <v>43807</v>
+        <v>44172</v>
       </c>
       <c r="MR4" s="14">
         <f t="shared" ref="MR4:NN4" si="496">MR3</f>
-        <v>43808</v>
+        <v>44173</v>
       </c>
       <c r="MS4" s="14">
         <f t="shared" si="496"/>
-        <v>43809</v>
+        <v>44174</v>
       </c>
       <c r="MT4" s="14">
         <f t="shared" si="496"/>
-        <v>43810</v>
+        <v>44175</v>
       </c>
       <c r="MU4" s="14">
         <f t="shared" si="496"/>
-        <v>43811</v>
+        <v>44176</v>
       </c>
       <c r="MV4" s="14">
         <f t="shared" si="496"/>
-        <v>43812</v>
+        <v>44177</v>
       </c>
       <c r="MW4" s="14">
         <f t="shared" si="496"/>
-        <v>43813</v>
+        <v>44178</v>
       </c>
       <c r="MX4" s="14">
         <f t="shared" si="496"/>
-        <v>43814</v>
+        <v>44179</v>
       </c>
       <c r="MY4" s="14">
         <f t="shared" si="496"/>
-        <v>43815</v>
+        <v>44180</v>
       </c>
       <c r="MZ4" s="14">
         <f t="shared" si="496"/>
-        <v>43816</v>
+        <v>44181</v>
       </c>
       <c r="NA4" s="14">
         <f t="shared" si="496"/>
-        <v>43817</v>
+        <v>44182</v>
       </c>
       <c r="NB4" s="14">
         <f t="shared" si="496"/>
-        <v>43818</v>
+        <v>44183</v>
       </c>
       <c r="NC4" s="14">
         <f t="shared" si="496"/>
-        <v>43819</v>
+        <v>44184</v>
       </c>
       <c r="ND4" s="14">
         <f t="shared" si="496"/>
-        <v>43820</v>
+        <v>44185</v>
       </c>
       <c r="NE4" s="14">
         <f t="shared" si="496"/>
-        <v>43821</v>
+        <v>44186</v>
       </c>
       <c r="NF4" s="14">
         <f t="shared" si="496"/>
-        <v>43822</v>
+        <v>44187</v>
       </c>
       <c r="NG4" s="14">
         <f t="shared" si="496"/>
-        <v>43823</v>
+        <v>44188</v>
       </c>
       <c r="NH4" s="14">
         <f t="shared" si="496"/>
-        <v>43824</v>
+        <v>44189</v>
       </c>
       <c r="NI4" s="14">
         <f t="shared" si="496"/>
-        <v>43825</v>
+        <v>44190</v>
       </c>
       <c r="NJ4" s="14">
         <f t="shared" si="496"/>
-        <v>43826</v>
+        <v>44191</v>
       </c>
       <c r="NK4" s="14">
         <f t="shared" si="496"/>
-        <v>43827</v>
+        <v>44192</v>
       </c>
       <c r="NL4" s="14">
         <f t="shared" si="496"/>
-        <v>43828</v>
+        <v>44193</v>
       </c>
       <c r="NM4" s="14">
         <f t="shared" si="496"/>
-        <v>43829</v>
+        <v>44194</v>
       </c>
       <c r="NN4" s="14">
         <f t="shared" si="496"/>
-        <v>43830</v>
+        <v>44195</v>
       </c>
     </row>
-    <row r="5" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -6875,7 +6868,7 @@
       <c r="HR5" s="10"/>
       <c r="HS5" s="10"/>
     </row>
-    <row r="6" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
@@ -7104,7 +7097,7 @@
       <c r="HR6" s="10"/>
       <c r="HS6" s="10"/>
     </row>
-    <row r="7" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
@@ -7333,7 +7326,7 @@
       <c r="HR7" s="10"/>
       <c r="HS7" s="10"/>
     </row>
-    <row r="8" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
@@ -7562,7 +7555,7 @@
       <c r="HR8" s="10"/>
       <c r="HS8" s="10"/>
     </row>
-    <row r="9" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -7791,7 +7784,7 @@
       <c r="HR9" s="10"/>
       <c r="HS9" s="10"/>
     </row>
-    <row r="10" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -8020,7 +8013,7 @@
       <c r="HR10" s="10"/>
       <c r="HS10" s="10"/>
     </row>
-    <row r="11" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -8249,7 +8242,7 @@
       <c r="HR11" s="10"/>
       <c r="HS11" s="10"/>
     </row>
-    <row r="12" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="17"/>
       <c r="C12" s="24"/>
@@ -8478,7 +8471,7 @@
       <c r="HR12" s="10"/>
       <c r="HS12" s="10"/>
     </row>
-    <row r="13" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
@@ -8707,7 +8700,7 @@
       <c r="HR13" s="10"/>
       <c r="HS13" s="10"/>
     </row>
-    <row r="14" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
@@ -8936,7 +8929,7 @@
       <c r="HR14" s="10"/>
       <c r="HS14" s="10"/>
     </row>
-    <row r="15" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="23"/>
       <c r="C15" s="18"/>
@@ -9165,7 +9158,7 @@
       <c r="HR15" s="10"/>
       <c r="HS15" s="10"/>
     </row>
-    <row r="16" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:378" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="23"/>
       <c r="C16" s="18"/>
@@ -9394,7 +9387,7 @@
       <c r="HR16" s="10"/>
       <c r="HS16" s="10"/>
     </row>
-    <row r="17" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="23"/>
       <c r="C17" s="18"/>
@@ -9623,7 +9616,7 @@
       <c r="HR17" s="10"/>
       <c r="HS17" s="10"/>
     </row>
-    <row r="18" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="23"/>
       <c r="C18" s="18"/>
@@ -9852,7 +9845,7 @@
       <c r="HR18" s="10"/>
       <c r="HS18" s="10"/>
     </row>
-    <row r="19" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -10081,7 +10074,7 @@
       <c r="HR19" s="10"/>
       <c r="HS19" s="10"/>
     </row>
-    <row r="20" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -10310,7 +10303,7 @@
       <c r="HR20" s="10"/>
       <c r="HS20" s="10"/>
     </row>
-    <row r="21" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -10539,7 +10532,7 @@
       <c r="HR21" s="10"/>
       <c r="HS21" s="10"/>
     </row>
-    <row r="22" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
@@ -10768,7 +10761,7 @@
       <c r="HR22" s="10"/>
       <c r="HS22" s="10"/>
     </row>
-    <row r="23" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="18"/>
@@ -10997,7 +10990,7 @@
       <c r="HR23" s="10"/>
       <c r="HS23" s="10"/>
     </row>
-    <row r="24" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="23"/>
       <c r="C24" s="18"/>
@@ -11226,7 +11219,7 @@
       <c r="HR24" s="10"/>
       <c r="HS24" s="10"/>
     </row>
-    <row r="25" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="23"/>
       <c r="C25" s="18"/>
@@ -11455,7 +11448,7 @@
       <c r="HR25" s="10"/>
       <c r="HS25" s="10"/>
     </row>
-    <row r="26" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
@@ -11684,7 +11677,7 @@
       <c r="HR26" s="10"/>
       <c r="HS26" s="10"/>
     </row>
-    <row r="27" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
@@ -11913,7 +11906,7 @@
       <c r="HR27" s="10"/>
       <c r="HS27" s="10"/>
     </row>
-    <row r="28" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -12142,7 +12135,7 @@
       <c r="HR28" s="10"/>
       <c r="HS28" s="10"/>
     </row>
-    <row r="29" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -12371,7 +12364,7 @@
       <c r="HR29" s="10"/>
       <c r="HS29" s="10"/>
     </row>
-    <row r="30" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="23"/>
       <c r="C30" s="18"/>
@@ -12600,7 +12593,7 @@
       <c r="HR30" s="10"/>
       <c r="HS30" s="10"/>
     </row>
-    <row r="31" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" s="23"/>
       <c r="C31" s="18"/>
@@ -12829,7 +12822,7 @@
       <c r="HR31" s="10"/>
       <c r="HS31" s="10"/>
     </row>
-    <row r="32" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" s="23"/>
       <c r="C32" s="18"/>
@@ -13058,7 +13051,7 @@
       <c r="HR32" s="10"/>
       <c r="HS32" s="10"/>
     </row>
-    <row r="33" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
@@ -13287,7 +13280,7 @@
       <c r="HR33" s="10"/>
       <c r="HS33" s="10"/>
     </row>
-    <row r="34" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
@@ -13516,7 +13509,7 @@
       <c r="HR34" s="10"/>
       <c r="HS34" s="10"/>
     </row>
-    <row r="35" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="23"/>
       <c r="C35" s="18"/>
@@ -13745,7 +13738,7 @@
       <c r="HR35" s="10"/>
       <c r="HS35" s="10"/>
     </row>
-    <row r="36" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="23"/>
       <c r="C36" s="18"/>
@@ -13974,7 +13967,7 @@
       <c r="HR36" s="10"/>
       <c r="HS36" s="10"/>
     </row>
-    <row r="37" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="23"/>
       <c r="C37" s="18"/>
@@ -14203,7 +14196,7 @@
       <c r="HR37" s="10"/>
       <c r="HS37" s="10"/>
     </row>
-    <row r="38" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
@@ -14432,7 +14425,7 @@
       <c r="HR38" s="10"/>
       <c r="HS38" s="10"/>
     </row>
-    <row r="39" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -14661,7 +14654,7 @@
       <c r="HR39" s="10"/>
       <c r="HS39" s="10"/>
     </row>
-    <row r="40" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="23"/>
       <c r="C40" s="18"/>
@@ -14890,7 +14883,7 @@
       <c r="HR40" s="10"/>
       <c r="HS40" s="10"/>
     </row>
-    <row r="41" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="23"/>
       <c r="C41" s="18"/>
@@ -15119,7 +15112,7 @@
       <c r="HR41" s="10"/>
       <c r="HS41" s="10"/>
     </row>
-    <row r="42" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="23"/>
       <c r="C42" s="18"/>
@@ -15348,7 +15341,7 @@
       <c r="HR42" s="10"/>
       <c r="HS42" s="10"/>
     </row>
-    <row r="43" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -15577,7 +15570,7 @@
       <c r="HR43" s="10"/>
       <c r="HS43" s="10"/>
     </row>
-    <row r="44" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
@@ -15806,7 +15799,7 @@
       <c r="HR44" s="10"/>
       <c r="HS44" s="10"/>
     </row>
-    <row r="45" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -16035,7 +16028,7 @@
       <c r="HR45" s="10"/>
       <c r="HS45" s="10"/>
     </row>
-    <row r="46" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
@@ -16264,7 +16257,7 @@
       <c r="HR46" s="10"/>
       <c r="HS46" s="10"/>
     </row>
-    <row r="47" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
@@ -16493,7 +16486,7 @@
       <c r="HR47" s="10"/>
       <c r="HS47" s="10"/>
     </row>
-    <row r="48" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="23"/>
       <c r="C48" s="18"/>
@@ -16722,7 +16715,7 @@
       <c r="HR48" s="10"/>
       <c r="HS48" s="10"/>
     </row>
-    <row r="49" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="23"/>
       <c r="C49" s="18"/>
@@ -16951,7 +16944,7 @@
       <c r="HR49" s="10"/>
       <c r="HS49" s="10"/>
     </row>
-    <row r="50" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="23"/>
       <c r="C50" s="18"/>
@@ -17180,7 +17173,7 @@
       <c r="HR50" s="10"/>
       <c r="HS50" s="10"/>
     </row>
-    <row r="51" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
@@ -17409,7 +17402,7 @@
       <c r="HR51" s="10"/>
       <c r="HS51" s="10"/>
     </row>
-    <row r="52" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
@@ -17638,7 +17631,7 @@
       <c r="HR52" s="10"/>
       <c r="HS52" s="10"/>
     </row>
-    <row r="53" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="23"/>
       <c r="C53" s="24"/>
@@ -17867,7 +17860,7 @@
       <c r="HR53" s="10"/>
       <c r="HS53" s="10"/>
     </row>
-    <row r="54" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:227" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="23"/>
       <c r="C54" s="24"/>
@@ -18096,7 +18089,7 @@
       <c r="HR54" s="10"/>
       <c r="HS54" s="10"/>
     </row>
-    <row r="55" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55" s="28"/>
       <c r="C55" s="29"/>
@@ -18325,7 +18318,7 @@
       <c r="HR55" s="4"/>
       <c r="HS55" s="4"/>
     </row>
-    <row r="56" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="28"/>
       <c r="C56" s="29"/>
@@ -18554,7 +18547,7 @@
       <c r="HR56" s="4"/>
       <c r="HS56" s="4"/>
     </row>
-    <row r="57" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
@@ -18783,7 +18776,7 @@
       <c r="HR57" s="4"/>
       <c r="HS57" s="4"/>
     </row>
-    <row r="58" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58" s="28"/>
       <c r="C58" s="29"/>
@@ -19012,7 +19005,7 @@
       <c r="HR58" s="4"/>
       <c r="HS58" s="4"/>
     </row>
-    <row r="59" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59" s="28"/>
       <c r="C59" s="29"/>
@@ -19241,7 +19234,7 @@
       <c r="HR59" s="4"/>
       <c r="HS59" s="4"/>
     </row>
-    <row r="60" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
@@ -19470,7 +19463,7 @@
       <c r="HR60" s="4"/>
       <c r="HS60" s="4"/>
     </row>
-    <row r="61" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61" s="28"/>
       <c r="C61" s="29"/>
@@ -19699,7 +19692,7 @@
       <c r="HR61" s="4"/>
       <c r="HS61" s="4"/>
     </row>
-    <row r="62" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62" s="28"/>
       <c r="C62" s="29"/>
@@ -19928,7 +19921,7 @@
       <c r="HR62" s="4"/>
       <c r="HS62" s="4"/>
     </row>
-    <row r="63" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="28"/>
       <c r="C63" s="29"/>
@@ -20157,7 +20150,7 @@
       <c r="HR63" s="4"/>
       <c r="HS63" s="4"/>
     </row>
-    <row r="64" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64" s="28"/>
       <c r="C64" s="29"/>
@@ -20386,7 +20379,7 @@
       <c r="HR64" s="4"/>
       <c r="HS64" s="4"/>
     </row>
-    <row r="65" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" s="28"/>
       <c r="C65" s="29"/>
@@ -20615,7 +20608,7 @@
       <c r="HR65" s="4"/>
       <c r="HS65" s="4"/>
     </row>
-    <row r="66" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66" s="28"/>
       <c r="C66" s="29"/>
@@ -20844,7 +20837,7 @@
       <c r="HR66" s="4"/>
       <c r="HS66" s="4"/>
     </row>
-    <row r="67" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67" s="28"/>
       <c r="C67" s="29"/>
@@ -21073,7 +21066,7 @@
       <c r="HR67" s="4"/>
       <c r="HS67" s="4"/>
     </row>
-    <row r="68" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68" s="28"/>
       <c r="C68" s="29"/>
@@ -21302,7 +21295,7 @@
       <c r="HR68" s="4"/>
       <c r="HS68" s="4"/>
     </row>
-    <row r="69" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69" s="28"/>
       <c r="C69" s="29"/>
@@ -21531,7 +21524,7 @@
       <c r="HR69" s="4"/>
       <c r="HS69" s="4"/>
     </row>
-    <row r="70" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="28"/>
       <c r="C70" s="29"/>
@@ -21760,7 +21753,7 @@
       <c r="HR70" s="4"/>
       <c r="HS70" s="4"/>
     </row>
-    <row r="71" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="28"/>
       <c r="C71" s="29"/>
@@ -21989,7 +21982,7 @@
       <c r="HR71" s="4"/>
       <c r="HS71" s="4"/>
     </row>
-    <row r="72" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="28"/>
       <c r="C72" s="29"/>
@@ -22218,7 +22211,7 @@
       <c r="HR72" s="4"/>
       <c r="HS72" s="4"/>
     </row>
-    <row r="73" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73" s="28"/>
       <c r="C73" s="29"/>
@@ -22447,7 +22440,7 @@
       <c r="HR73" s="4"/>
       <c r="HS73" s="4"/>
     </row>
-    <row r="74" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74" s="28"/>
       <c r="C74" s="29"/>
@@ -22676,7 +22669,7 @@
       <c r="HR74" s="4"/>
       <c r="HS74" s="4"/>
     </row>
-    <row r="75" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="28"/>
       <c r="C75" s="29"/>
@@ -22905,7 +22898,7 @@
       <c r="HR75" s="4"/>
       <c r="HS75" s="4"/>
     </row>
-    <row r="76" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="28"/>
       <c r="C76" s="29"/>
@@ -23134,7 +23127,7 @@
       <c r="HR76" s="4"/>
       <c r="HS76" s="4"/>
     </row>
-    <row r="77" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77" s="28"/>
       <c r="C77" s="29"/>
@@ -23363,7 +23356,7 @@
       <c r="HR77" s="4"/>
       <c r="HS77" s="4"/>
     </row>
-    <row r="78" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="28"/>
       <c r="C78" s="29"/>
@@ -23592,7 +23585,7 @@
       <c r="HR78" s="4"/>
       <c r="HS78" s="4"/>
     </row>
-    <row r="79" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="29"/>
@@ -23821,7 +23814,7 @@
       <c r="HR79" s="4"/>
       <c r="HS79" s="4"/>
     </row>
-    <row r="80" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="28"/>
       <c r="C80" s="29"/>
@@ -24050,7 +24043,7 @@
       <c r="HR80" s="4"/>
       <c r="HS80" s="4"/>
     </row>
-    <row r="81" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81" s="28"/>
       <c r="C81" s="29"/>
@@ -24279,7 +24272,7 @@
       <c r="HR81" s="4"/>
       <c r="HS81" s="4"/>
     </row>
-    <row r="82" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="28"/>
       <c r="C82" s="29"/>
@@ -24508,7 +24501,7 @@
       <c r="HR82" s="4"/>
       <c r="HS82" s="4"/>
     </row>
-    <row r="83" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="28"/>
       <c r="C83" s="29"/>
@@ -24737,7 +24730,7 @@
       <c r="HR83" s="4"/>
       <c r="HS83" s="4"/>
     </row>
-    <row r="84" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="28"/>
       <c r="C84" s="29"/>
@@ -24966,7 +24959,7 @@
       <c r="HR84" s="4"/>
       <c r="HS84" s="4"/>
     </row>
-    <row r="85" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" s="28"/>
       <c r="C85" s="29"/>
@@ -25195,7 +25188,7 @@
       <c r="HR85" s="4"/>
       <c r="HS85" s="4"/>
     </row>
-    <row r="86" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86" s="28"/>
       <c r="C86" s="29"/>
@@ -25424,7 +25417,7 @@
       <c r="HR86" s="4"/>
       <c r="HS86" s="4"/>
     </row>
-    <row r="87" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="28"/>
       <c r="C87" s="29"/>
@@ -25653,7 +25646,7 @@
       <c r="HR87" s="4"/>
       <c r="HS87" s="4"/>
     </row>
-    <row r="88" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88" s="28"/>
       <c r="C88" s="29"/>
@@ -25882,7 +25875,7 @@
       <c r="HR88" s="4"/>
       <c r="HS88" s="4"/>
     </row>
-    <row r="89" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="28"/>
       <c r="C89" s="29"/>
@@ -26111,7 +26104,7 @@
       <c r="HR89" s="4"/>
       <c r="HS89" s="4"/>
     </row>
-    <row r="90" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90" s="28"/>
       <c r="C90" s="29"/>
@@ -26340,7 +26333,7 @@
       <c r="HR90" s="4"/>
       <c r="HS90" s="4"/>
     </row>
-    <row r="91" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91" s="28"/>
       <c r="C91" s="29"/>
@@ -26569,7 +26562,7 @@
       <c r="HR91" s="4"/>
       <c r="HS91" s="4"/>
     </row>
-    <row r="92" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92" s="28"/>
       <c r="C92" s="29"/>
@@ -26798,7 +26791,7 @@
       <c r="HR92" s="4"/>
       <c r="HS92" s="4"/>
     </row>
-    <row r="93" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93" s="28"/>
       <c r="C93" s="29"/>
@@ -27027,7 +27020,7 @@
       <c r="HR93" s="4"/>
       <c r="HS93" s="4"/>
     </row>
-    <row r="94" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94" s="28"/>
       <c r="C94" s="29"/>
@@ -27256,7 +27249,7 @@
       <c r="HR94" s="4"/>
       <c r="HS94" s="4"/>
     </row>
-    <row r="95" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="28"/>
       <c r="C95" s="29"/>
@@ -27485,7 +27478,7 @@
       <c r="HR95" s="4"/>
       <c r="HS95" s="4"/>
     </row>
-    <row r="96" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96" s="28"/>
       <c r="C96" s="29"/>
@@ -27714,7 +27707,7 @@
       <c r="HR96" s="4"/>
       <c r="HS96" s="4"/>
     </row>
-    <row r="97" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="28"/>
       <c r="C97" s="29"/>
@@ -27943,7 +27936,7 @@
       <c r="HR97" s="4"/>
       <c r="HS97" s="4"/>
     </row>
-    <row r="98" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98" s="28"/>
       <c r="C98" s="29"/>
@@ -28172,7 +28165,7 @@
       <c r="HR98" s="4"/>
       <c r="HS98" s="4"/>
     </row>
-    <row r="99" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="28"/>
       <c r="C99" s="29"/>
@@ -28401,7 +28394,7 @@
       <c r="HR99" s="4"/>
       <c r="HS99" s="4"/>
     </row>
-    <row r="100" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100" s="28"/>
       <c r="C100" s="29"/>
@@ -28630,7 +28623,7 @@
       <c r="HR100" s="4"/>
       <c r="HS100" s="4"/>
     </row>
-    <row r="101" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101" s="28"/>
       <c r="C101" s="29"/>
@@ -28859,7 +28852,7 @@
       <c r="HR101" s="4"/>
       <c r="HS101" s="4"/>
     </row>
-    <row r="102" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="28"/>
       <c r="C102" s="29"/>
@@ -29088,7 +29081,7 @@
       <c r="HR102" s="4"/>
       <c r="HS102" s="4"/>
     </row>
-    <row r="103" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="28"/>
       <c r="C103" s="29"/>
@@ -29317,7 +29310,7 @@
       <c r="HR103" s="4"/>
       <c r="HS103" s="4"/>
     </row>
-    <row r="104" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104" s="28"/>
       <c r="C104" s="29"/>
@@ -29546,7 +29539,7 @@
       <c r="HR104" s="4"/>
       <c r="HS104" s="4"/>
     </row>
-    <row r="105" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105" s="28"/>
       <c r="C105" s="29"/>
@@ -29775,7 +29768,7 @@
       <c r="HR105" s="4"/>
       <c r="HS105" s="4"/>
     </row>
-    <row r="106" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106" s="28"/>
       <c r="C106" s="29"/>
@@ -30004,7 +29997,7 @@
       <c r="HR106" s="4"/>
       <c r="HS106" s="4"/>
     </row>
-    <row r="107" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107" s="28"/>
       <c r="C107" s="29"/>
@@ -30233,7 +30226,7 @@
       <c r="HR107" s="4"/>
       <c r="HS107" s="4"/>
     </row>
-    <row r="108" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108" s="28"/>
       <c r="C108" s="29"/>
@@ -30462,7 +30455,7 @@
       <c r="HR108" s="4"/>
       <c r="HS108" s="4"/>
     </row>
-    <row r="109" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109" s="28"/>
       <c r="C109" s="29"/>
@@ -30691,7 +30684,7 @@
       <c r="HR109" s="4"/>
       <c r="HS109" s="4"/>
     </row>
-    <row r="110" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:227" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110" s="28"/>
       <c r="C110" s="29"/>
@@ -30984,236 +30977,220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="38">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
-        <v>43479</v>
+        <v>43843</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
-        <v>43507</v>
+        <v>43872</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
-        <v>43545</v>
+        <v>43884</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>43885</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>43910</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="38">
-        <v>43584</v>
-      </c>
-      <c r="B5" s="39" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>43950</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="38">
-        <v>43586</v>
-      </c>
-      <c r="B6" s="39" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>43954</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="38">
-        <v>43588</v>
-      </c>
-      <c r="B7" s="39" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>43955</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="38">
-        <v>43589</v>
-      </c>
-      <c r="B8" s="39" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>43956</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="38">
-        <v>43590</v>
-      </c>
-      <c r="B9" s="39" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>43957</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>44035</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="38">
-        <v>43591</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>29</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>44036</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="38">
-        <v>43661</v>
-      </c>
-      <c r="B11" s="39" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>44054</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="38">
-        <v>43688</v>
-      </c>
-      <c r="B12" s="39" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>44095</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="38">
-        <v>43689</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>30</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>44096</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="38">
-        <v>43724</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>23</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>44138</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="38">
-        <v>43731</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>24</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>44158</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="38">
-        <v>43752</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>25</v>
-      </c>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="38">
-        <v>43760</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>26</v>
-      </c>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="38">
-        <v>43772</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="38">
-        <v>43773</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="38">
-        <v>43792</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="39"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="39"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="39"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="39"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="39"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
